--- a/doc/REST-API.xlsx
+++ b/doc/REST-API.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guangyu/Desktop/18652/S16-A1-SSNoC/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="24440" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="180">
   <si>
     <t>Rules</t>
   </si>
@@ -448,13 +453,6 @@
   </si>
   <si>
     <t>Retrieve a user's record</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>not implemented yet</t>
-  </si>
-  <si>
-    <t>not implemented yet</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +598,45 @@
   <si>
     <t>userName,password</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Map</t>
+  </si>
+  <si>
+    <t>/map/init</t>
+  </si>
+  <si>
+    <t>Array of Locations(name, type, status, coordinators)</t>
+  </si>
+  <si>
+    <t>200 OK</t>
+  </si>
+  <si>
+    <t>410: in test, 500: internal Error</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Delete Location</t>
+  </si>
+  <si>
+    <t>/map/delete</t>
+  </si>
+  <si>
+    <t>name of location</t>
+  </si>
+  <si>
+    <t>410: in test, 404: no location is found</t>
+  </si>
+  <si>
+    <t>Add Marker/Citizen on Map</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>name: username of user, type: user/food/water/medicine, locations:{longitute, latitude}, status:OK/Help/Emergency/null(for marker)</t>
   </si>
 </sst>
 </file>
@@ -687,7 +724,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -780,6 +817,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -803,7 +849,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,16 +988,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -965,31 +1011,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1321,42 +1374,42 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1365,14 +1418,14 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1380,28 +1433,28 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1462,7 @@
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1423,11 +1476,6 @@
     <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1435,12 +1483,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y956"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -1453,7 +1501,7 @@
     <col min="10" max="10" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36">
+    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1500,51 +1548,51 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:25" ht="12">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="64"/>
+        <v>165</v>
+      </c>
+      <c r="E2" s="65"/>
       <c r="F2" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="61"/>
+    <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="70"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:25" ht="12">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1616,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:25" ht="12">
+    <row r="5" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>138</v>
       </c>
@@ -1592,25 +1640,23 @@
       <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="12">
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>147</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="43"/>
       <c r="G6" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="18" t="s">
@@ -1618,7 +1664,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:25" ht="12">
+    <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
         <v>134</v>
       </c>
@@ -1632,7 +1678,7 @@
       <c r="E7" s="53"/>
       <c r="F7" s="43"/>
       <c r="G7" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="18" t="s">
@@ -1640,7 +1686,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:25" ht="36">
+    <row r="8" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>39</v>
@@ -1668,9 +1714,7 @@
       <c r="I8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J8" s="30"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
@@ -1687,7 +1731,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="24">
+    <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>42</v>
       </c>
@@ -1711,9 +1755,7 @@
       <c r="I9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J9" s="30"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
@@ -1730,21 +1772,21 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" ht="24">
+    <row r="10" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
       <c r="F10" s="39"/>
       <c r="G10" s="52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="18" t="s">
@@ -1767,21 +1809,21 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" ht="12">
+    <row r="11" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>150</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="39"/>
       <c r="G11" s="52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="18" t="s">
@@ -1804,21 +1846,21 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" ht="12">
+    <row r="12" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="39"/>
       <c r="G12" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
@@ -1841,25 +1883,25 @@
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
     </row>
-    <row r="13" spans="1:25" ht="36">
+    <row r="13" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A13" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>160</v>
-      </c>
       <c r="D13" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="18" t="s">
@@ -1882,7 +1924,7 @@
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
     </row>
-    <row r="14" spans="1:25" ht="24">
+    <row r="14" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
         <v>47</v>
       </c>
@@ -1890,11 +1932,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="25" t="s">
@@ -1921,7 +1963,7 @@
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
     </row>
-    <row r="15" spans="1:25" ht="36">
+    <row r="15" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>39</v>
@@ -1949,9 +1991,7 @@
       <c r="I15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J15" s="30"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -1968,7 +2008,7 @@
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
     </row>
-    <row r="16" spans="1:25" ht="24">
+    <row r="16" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="40" t="s">
         <v>54</v>
       </c>
@@ -1992,9 +2032,7 @@
       <c r="I16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J16" s="30"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -2011,7 +2049,7 @@
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
     </row>
-    <row r="17" spans="1:25" ht="24">
+    <row r="17" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="40" t="s">
         <v>56</v>
       </c>
@@ -2035,9 +2073,7 @@
       <c r="I17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J17" s="30"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -2054,7 +2090,7 @@
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
     </row>
-    <row r="18" spans="1:25" ht="12">
+    <row r="18" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="40" t="s">
         <v>58</v>
       </c>
@@ -2068,9 +2104,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="43"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J18" s="30"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -2087,7 +2121,7 @@
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
     </row>
-    <row r="19" spans="1:25" ht="12">
+    <row r="19" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
         <v>58</v>
       </c>
@@ -2101,9 +2135,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="43"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J19" s="30"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
@@ -2120,7 +2152,7 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
     </row>
-    <row r="20" spans="1:25" ht="12">
+    <row r="20" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
         <v>58</v>
       </c>
@@ -2134,9 +2166,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="43"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J20" s="30"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -2153,7 +2183,7 @@
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
     </row>
-    <row r="21" spans="1:25" ht="24">
+    <row r="21" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>60</v>
       </c>
@@ -2177,9 +2207,7 @@
       <c r="I21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J21" s="30"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -2196,7 +2224,7 @@
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
     </row>
-    <row r="22" spans="1:25" ht="24">
+    <row r="22" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>63</v>
       </c>
@@ -2218,9 +2246,7 @@
       <c r="I22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J22" s="30"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -2237,14 +2263,14 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="24">
+    <row r="23" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="74" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="33"/>
@@ -2261,9 +2287,7 @@
       <c r="I23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J23" s="30"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -2280,7 +2304,7 @@
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
     </row>
-    <row r="24" spans="1:25" ht="24">
+    <row r="24" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="37" t="s">
         <v>69</v>
       </c>
@@ -2304,9 +2328,7 @@
       <c r="I24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J24" s="30"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -2323,7 +2345,7 @@
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
     </row>
-    <row r="25" spans="1:25" ht="12">
+    <row r="25" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="66" t="s">
         <v>72</v>
       </c>
@@ -2333,7 +2355,7 @@
       <c r="C25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="60" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="68"/>
@@ -2346,12 +2368,10 @@
       <c r="H25" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J25" s="30"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
@@ -2368,19 +2388,17 @@
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
     </row>
-    <row r="26" spans="1:25" ht="45" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="30" t="s">
-        <v>139</v>
-      </c>
+    <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="61"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -2397,7 +2415,7 @@
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
     </row>
-    <row r="27" spans="1:25" ht="24">
+    <row r="27" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>75</v>
       </c>
@@ -2419,9 +2437,7 @@
       <c r="I27" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J27" s="30"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
@@ -2438,7 +2454,7 @@
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
     </row>
-    <row r="28" spans="1:25" ht="24">
+    <row r="28" spans="1:25" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
         <v>77</v>
       </c>
@@ -2460,9 +2476,7 @@
       <c r="I28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="J28" s="30"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
@@ -2479,37 +2493,91 @@
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
     </row>
-    <row r="29" spans="1:25" ht="12">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>168</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="J29" s="48"/>
     </row>
-    <row r="30" spans="1:25" ht="12">
-      <c r="A30" s="2"/>
-      <c r="D30" s="2"/>
+    <row r="30" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="J30" s="48"/>
     </row>
-    <row r="31" spans="1:25" ht="12">
-      <c r="A31" s="2"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="1:25" ht="65" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:25" ht="12">
+    <row r="32" spans="1:25" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2519,7 +2587,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="12">
+    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2529,7 +2597,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="48"/>
     </row>
-    <row r="34" spans="1:10" ht="12">
+    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2539,7 +2607,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="48"/>
     </row>
-    <row r="35" spans="1:10" ht="12">
+    <row r="35" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2549,7 +2617,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="48"/>
     </row>
-    <row r="36" spans="1:10" ht="12">
+    <row r="36" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2559,7 +2627,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="48"/>
     </row>
-    <row r="37" spans="1:10" ht="12">
+    <row r="37" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2569,7 +2637,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="48"/>
     </row>
-    <row r="38" spans="1:10" ht="12">
+    <row r="38" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2579,7 +2647,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="48"/>
     </row>
-    <row r="39" spans="1:10" ht="12">
+    <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2589,7 +2657,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="48"/>
     </row>
-    <row r="40" spans="1:10" ht="12">
+    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2599,7 +2667,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" ht="12">
+    <row r="41" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2609,7 +2677,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="12">
+    <row r="42" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2619,7 +2687,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:10" ht="12">
+    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2629,7 +2697,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:10" ht="12">
+    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2639,7 +2707,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="12">
+    <row r="45" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2649,7 +2717,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:10" ht="12">
+    <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2659,7 +2727,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="12">
+    <row r="47" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2669,7 +2737,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:10" ht="12">
+    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2679,7 +2747,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="48"/>
     </row>
-    <row r="49" spans="1:10" ht="12">
+    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2689,7 +2757,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="48"/>
     </row>
-    <row r="50" spans="1:10" ht="12">
+    <row r="50" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2699,7 +2767,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="12">
+    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2709,7 +2777,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="1:10" ht="12">
+    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2719,7 +2787,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="48"/>
     </row>
-    <row r="53" spans="1:10" ht="12">
+    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2729,7 +2797,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="48"/>
     </row>
-    <row r="54" spans="1:10" ht="12">
+    <row r="54" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2739,7 +2807,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="48"/>
     </row>
-    <row r="55" spans="1:10" ht="12">
+    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2749,7 +2817,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="48"/>
     </row>
-    <row r="56" spans="1:10" ht="12">
+    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2759,7 +2827,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="1:10" ht="12">
+    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2769,7 +2837,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="48"/>
     </row>
-    <row r="58" spans="1:10" ht="12">
+    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2779,7 +2847,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="48"/>
     </row>
-    <row r="59" spans="1:10" ht="12">
+    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2789,7 +2857,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="12">
+    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2799,7 +2867,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="48"/>
     </row>
-    <row r="61" spans="1:10" ht="12">
+    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2809,7 +2877,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="48"/>
     </row>
-    <row r="62" spans="1:10" ht="12">
+    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2819,7 +2887,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="48"/>
     </row>
-    <row r="63" spans="1:10" ht="12">
+    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2829,7 +2897,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="48"/>
     </row>
-    <row r="64" spans="1:10" ht="12">
+    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2839,7 +2907,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="12">
+    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2849,7 +2917,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="48"/>
     </row>
-    <row r="66" spans="1:10" ht="12">
+    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2859,7 +2927,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="48"/>
     </row>
-    <row r="67" spans="1:10" ht="12">
+    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2869,7 +2937,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:10" ht="12">
+    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2879,7 +2947,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="48"/>
     </row>
-    <row r="69" spans="1:10" ht="12">
+    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2889,7 +2957,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="48"/>
     </row>
-    <row r="70" spans="1:10" ht="12">
+    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2899,7 +2967,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="48"/>
     </row>
-    <row r="71" spans="1:10" ht="12">
+    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2909,7 +2977,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="48"/>
     </row>
-    <row r="72" spans="1:10" ht="12">
+    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2919,7 +2987,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="48"/>
     </row>
-    <row r="73" spans="1:10" ht="12">
+    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2929,7 +2997,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="48"/>
     </row>
-    <row r="74" spans="1:10" ht="12">
+    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2939,7 +3007,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="48"/>
     </row>
-    <row r="75" spans="1:10" ht="12">
+    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2949,7 +3017,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="48"/>
     </row>
-    <row r="76" spans="1:10" ht="12">
+    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2959,7 +3027,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="48"/>
     </row>
-    <row r="77" spans="1:10" ht="12">
+    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2969,7 +3037,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="48"/>
     </row>
-    <row r="78" spans="1:10" ht="12">
+    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2979,7 +3047,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="48"/>
     </row>
-    <row r="79" spans="1:10" ht="12">
+    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2989,7 +3057,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="48"/>
     </row>
-    <row r="80" spans="1:10" ht="12">
+    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2999,7 +3067,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="48"/>
     </row>
-    <row r="81" spans="1:10" ht="12">
+    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3009,7 +3077,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="48"/>
     </row>
-    <row r="82" spans="1:10" ht="12">
+    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3019,7 +3087,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="48"/>
     </row>
-    <row r="83" spans="1:10" ht="12">
+    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3029,7 +3097,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="48"/>
     </row>
-    <row r="84" spans="1:10" ht="12">
+    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3039,7 +3107,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="48"/>
     </row>
-    <row r="85" spans="1:10" ht="12">
+    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3049,7 +3117,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="48"/>
     </row>
-    <row r="86" spans="1:10" ht="12">
+    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3059,7 +3127,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="48"/>
     </row>
-    <row r="87" spans="1:10" ht="12">
+    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3069,7 +3137,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="48"/>
     </row>
-    <row r="88" spans="1:10" ht="12">
+    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3079,7 +3147,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="48"/>
     </row>
-    <row r="89" spans="1:10" ht="12">
+    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3089,7 +3157,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="48"/>
     </row>
-    <row r="90" spans="1:10" ht="12">
+    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3099,7 +3167,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="48"/>
     </row>
-    <row r="91" spans="1:10" ht="12">
+    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3109,7 +3177,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="48"/>
     </row>
-    <row r="92" spans="1:10" ht="12">
+    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3119,7 +3187,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="48"/>
     </row>
-    <row r="93" spans="1:10" ht="12">
+    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3129,7 +3197,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="48"/>
     </row>
-    <row r="94" spans="1:10" ht="12">
+    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3139,7 +3207,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="48"/>
     </row>
-    <row r="95" spans="1:10" ht="12">
+    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3149,7 +3217,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="48"/>
     </row>
-    <row r="96" spans="1:10" ht="12">
+    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3159,7 +3227,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="48"/>
     </row>
-    <row r="97" spans="1:10" ht="12">
+    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3169,7 +3237,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="48"/>
     </row>
-    <row r="98" spans="1:10" ht="12">
+    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3179,7 +3247,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="48"/>
     </row>
-    <row r="99" spans="1:10" ht="12">
+    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3189,7 +3257,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="48"/>
     </row>
-    <row r="100" spans="1:10" ht="12">
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3199,7 +3267,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="48"/>
     </row>
-    <row r="101" spans="1:10" ht="12">
+    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3209,7 +3277,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="48"/>
     </row>
-    <row r="102" spans="1:10" ht="12">
+    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3219,7 +3287,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="48"/>
     </row>
-    <row r="103" spans="1:10" ht="12">
+    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3229,7 +3297,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="48"/>
     </row>
-    <row r="104" spans="1:10" ht="12">
+    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3239,7 +3307,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="48"/>
     </row>
-    <row r="105" spans="1:10" ht="12">
+    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3249,7 +3317,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="48"/>
     </row>
-    <row r="106" spans="1:10" ht="12">
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3259,7 +3327,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="48"/>
     </row>
-    <row r="107" spans="1:10" ht="12">
+    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3269,7 +3337,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="48"/>
     </row>
-    <row r="108" spans="1:10" ht="12">
+    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3279,7 +3347,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="48"/>
     </row>
-    <row r="109" spans="1:10" ht="12">
+    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3289,7 +3357,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="48"/>
     </row>
-    <row r="110" spans="1:10" ht="12">
+    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3299,7 +3367,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="48"/>
     </row>
-    <row r="111" spans="1:10" ht="12">
+    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3309,7 +3377,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="48"/>
     </row>
-    <row r="112" spans="1:10" ht="12">
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3319,7 +3387,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="48"/>
     </row>
-    <row r="113" spans="1:10" ht="12">
+    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3329,7 +3397,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="48"/>
     </row>
-    <row r="114" spans="1:10" ht="12">
+    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3339,7 +3407,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="48"/>
     </row>
-    <row r="115" spans="1:10" ht="12">
+    <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3349,7 +3417,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="48"/>
     </row>
-    <row r="116" spans="1:10" ht="12">
+    <row r="116" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3359,7 +3427,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="48"/>
     </row>
-    <row r="117" spans="1:10" ht="12">
+    <row r="117" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3369,7 +3437,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="48"/>
     </row>
-    <row r="118" spans="1:10" ht="12">
+    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3379,7 +3447,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="48"/>
     </row>
-    <row r="119" spans="1:10" ht="12">
+    <row r="119" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3389,7 +3457,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="48"/>
     </row>
-    <row r="120" spans="1:10" ht="12">
+    <row r="120" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3399,7 +3467,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="48"/>
     </row>
-    <row r="121" spans="1:10" ht="12">
+    <row r="121" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3409,7 +3477,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="48"/>
     </row>
-    <row r="122" spans="1:10" ht="12">
+    <row r="122" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3419,7 +3487,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="48"/>
     </row>
-    <row r="123" spans="1:10" ht="12">
+    <row r="123" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3429,7 +3497,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="48"/>
     </row>
-    <row r="124" spans="1:10" ht="12">
+    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3439,7 +3507,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="48"/>
     </row>
-    <row r="125" spans="1:10" ht="12">
+    <row r="125" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3449,7 +3517,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="48"/>
     </row>
-    <row r="126" spans="1:10" ht="12">
+    <row r="126" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3459,7 +3527,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="48"/>
     </row>
-    <row r="127" spans="1:10" ht="12">
+    <row r="127" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3469,7 +3537,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="48"/>
     </row>
-    <row r="128" spans="1:10" ht="12">
+    <row r="128" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3479,7 +3547,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="48"/>
     </row>
-    <row r="129" spans="1:10" ht="12">
+    <row r="129" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3489,7 +3557,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="48"/>
     </row>
-    <row r="130" spans="1:10" ht="12">
+    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3499,7 +3567,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="48"/>
     </row>
-    <row r="131" spans="1:10" ht="12">
+    <row r="131" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3509,7 +3577,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="48"/>
     </row>
-    <row r="132" spans="1:10" ht="12">
+    <row r="132" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3519,7 +3587,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="48"/>
     </row>
-    <row r="133" spans="1:10" ht="12">
+    <row r="133" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3529,7 +3597,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="48"/>
     </row>
-    <row r="134" spans="1:10" ht="12">
+    <row r="134" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3539,7 +3607,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="48"/>
     </row>
-    <row r="135" spans="1:10" ht="12">
+    <row r="135" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3549,7 +3617,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="48"/>
     </row>
-    <row r="136" spans="1:10" ht="12">
+    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3559,7 +3627,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="48"/>
     </row>
-    <row r="137" spans="1:10" ht="12">
+    <row r="137" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3569,7 +3637,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="48"/>
     </row>
-    <row r="138" spans="1:10" ht="12">
+    <row r="138" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3579,7 +3647,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="48"/>
     </row>
-    <row r="139" spans="1:10" ht="12">
+    <row r="139" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3589,7 +3657,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="48"/>
     </row>
-    <row r="140" spans="1:10" ht="12">
+    <row r="140" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3599,7 +3667,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="48"/>
     </row>
-    <row r="141" spans="1:10" ht="12">
+    <row r="141" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3609,7 +3677,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="48"/>
     </row>
-    <row r="142" spans="1:10" ht="12">
+    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3619,7 +3687,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="48"/>
     </row>
-    <row r="143" spans="1:10" ht="12">
+    <row r="143" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3629,7 +3697,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="48"/>
     </row>
-    <row r="144" spans="1:10" ht="12">
+    <row r="144" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3639,7 +3707,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="48"/>
     </row>
-    <row r="145" spans="1:10" ht="12">
+    <row r="145" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3649,7 +3717,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="48"/>
     </row>
-    <row r="146" spans="1:10" ht="12">
+    <row r="146" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3659,7 +3727,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="48"/>
     </row>
-    <row r="147" spans="1:10" ht="12">
+    <row r="147" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3669,7 +3737,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="48"/>
     </row>
-    <row r="148" spans="1:10" ht="12">
+    <row r="148" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3679,7 +3747,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="48"/>
     </row>
-    <row r="149" spans="1:10" ht="12">
+    <row r="149" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3689,7 +3757,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="48"/>
     </row>
-    <row r="150" spans="1:10" ht="12">
+    <row r="150" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3699,7 +3767,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="48"/>
     </row>
-    <row r="151" spans="1:10" ht="12">
+    <row r="151" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3709,7 +3777,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="48"/>
     </row>
-    <row r="152" spans="1:10" ht="12">
+    <row r="152" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3719,7 +3787,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="48"/>
     </row>
-    <row r="153" spans="1:10" ht="12">
+    <row r="153" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -3729,7 +3797,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="48"/>
     </row>
-    <row r="154" spans="1:10" ht="12">
+    <row r="154" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3739,7 +3807,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="48"/>
     </row>
-    <row r="155" spans="1:10" ht="12">
+    <row r="155" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3749,7 +3817,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="48"/>
     </row>
-    <row r="156" spans="1:10" ht="12">
+    <row r="156" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3759,7 +3827,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="48"/>
     </row>
-    <row r="157" spans="1:10" ht="12">
+    <row r="157" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3769,7 +3837,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="48"/>
     </row>
-    <row r="158" spans="1:10" ht="12">
+    <row r="158" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3779,7 +3847,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="48"/>
     </row>
-    <row r="159" spans="1:10" ht="12">
+    <row r="159" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3789,7 +3857,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="48"/>
     </row>
-    <row r="160" spans="1:10" ht="12">
+    <row r="160" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -3799,7 +3867,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="48"/>
     </row>
-    <row r="161" spans="1:10" ht="12">
+    <row r="161" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3809,7 +3877,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="48"/>
     </row>
-    <row r="162" spans="1:10" ht="12">
+    <row r="162" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3819,7 +3887,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="48"/>
     </row>
-    <row r="163" spans="1:10" ht="12">
+    <row r="163" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3829,7 +3897,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="48"/>
     </row>
-    <row r="164" spans="1:10" ht="12">
+    <row r="164" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3839,7 +3907,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="48"/>
     </row>
-    <row r="165" spans="1:10" ht="12">
+    <row r="165" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3849,7 +3917,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="48"/>
     </row>
-    <row r="166" spans="1:10" ht="12">
+    <row r="166" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3859,7 +3927,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="48"/>
     </row>
-    <row r="167" spans="1:10" ht="12">
+    <row r="167" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3869,7 +3937,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="48"/>
     </row>
-    <row r="168" spans="1:10" ht="12">
+    <row r="168" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3879,7 +3947,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="48"/>
     </row>
-    <row r="169" spans="1:10" ht="12">
+    <row r="169" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3889,7 +3957,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="48"/>
     </row>
-    <row r="170" spans="1:10" ht="12">
+    <row r="170" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3899,7 +3967,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="48"/>
     </row>
-    <row r="171" spans="1:10" ht="12">
+    <row r="171" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3909,7 +3977,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="48"/>
     </row>
-    <row r="172" spans="1:10" ht="12">
+    <row r="172" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3919,7 +3987,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="48"/>
     </row>
-    <row r="173" spans="1:10" ht="12">
+    <row r="173" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -3929,7 +3997,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="48"/>
     </row>
-    <row r="174" spans="1:10" ht="12">
+    <row r="174" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -3939,7 +4007,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="48"/>
     </row>
-    <row r="175" spans="1:10" ht="12">
+    <row r="175" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3949,7 +4017,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="48"/>
     </row>
-    <row r="176" spans="1:10" ht="12">
+    <row r="176" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3959,7 +4027,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="48"/>
     </row>
-    <row r="177" spans="1:10" ht="12">
+    <row r="177" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -3969,7 +4037,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="48"/>
     </row>
-    <row r="178" spans="1:10" ht="12">
+    <row r="178" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -3979,7 +4047,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="48"/>
     </row>
-    <row r="179" spans="1:10" ht="12">
+    <row r="179" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -3989,7 +4057,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="48"/>
     </row>
-    <row r="180" spans="1:10" ht="12">
+    <row r="180" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -3999,7 +4067,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="48"/>
     </row>
-    <row r="181" spans="1:10" ht="12">
+    <row r="181" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -4009,7 +4077,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="48"/>
     </row>
-    <row r="182" spans="1:10" ht="12">
+    <row r="182" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -4019,7 +4087,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="48"/>
     </row>
-    <row r="183" spans="1:10" ht="12">
+    <row r="183" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -4029,7 +4097,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="48"/>
     </row>
-    <row r="184" spans="1:10" ht="12">
+    <row r="184" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -4039,7 +4107,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="48"/>
     </row>
-    <row r="185" spans="1:10" ht="12">
+    <row r="185" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -4049,7 +4117,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="48"/>
     </row>
-    <row r="186" spans="1:10" ht="12">
+    <row r="186" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4059,7 +4127,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="48"/>
     </row>
-    <row r="187" spans="1:10" ht="12">
+    <row r="187" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -4069,7 +4137,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="48"/>
     </row>
-    <row r="188" spans="1:10" ht="12">
+    <row r="188" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4079,7 +4147,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="48"/>
     </row>
-    <row r="189" spans="1:10" ht="12">
+    <row r="189" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4089,7 +4157,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" ht="12">
+    <row r="190" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -4099,7 +4167,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="48"/>
     </row>
-    <row r="191" spans="1:10" ht="12">
+    <row r="191" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -4109,7 +4177,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="48"/>
     </row>
-    <row r="192" spans="1:10" ht="12">
+    <row r="192" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4119,7 +4187,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="48"/>
     </row>
-    <row r="193" spans="1:10" ht="12">
+    <row r="193" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -4129,7 +4197,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="48"/>
     </row>
-    <row r="194" spans="1:10" ht="12">
+    <row r="194" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -4139,7 +4207,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="48"/>
     </row>
-    <row r="195" spans="1:10" ht="12">
+    <row r="195" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -4149,7 +4217,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="48"/>
     </row>
-    <row r="196" spans="1:10" ht="12">
+    <row r="196" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -4159,7 +4227,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="48"/>
     </row>
-    <row r="197" spans="1:10" ht="12">
+    <row r="197" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -4169,7 +4237,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" ht="12">
+    <row r="198" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -4179,7 +4247,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" ht="12">
+    <row r="199" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -4189,7 +4257,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" ht="12">
+    <row r="200" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -4199,7 +4267,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" ht="12">
+    <row r="201" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -4209,7 +4277,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" ht="12">
+    <row r="202" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -4219,7 +4287,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" ht="12">
+    <row r="203" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -4229,7 +4297,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" ht="12">
+    <row r="204" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -4239,7 +4307,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" ht="12">
+    <row r="205" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -4249,7 +4317,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" ht="12">
+    <row r="206" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -4259,7 +4327,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" ht="12">
+    <row r="207" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -4269,7 +4337,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="48"/>
     </row>
-    <row r="208" spans="1:10" ht="12">
+    <row r="208" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -4279,7 +4347,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" ht="12">
+    <row r="209" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -4289,7 +4357,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" ht="12">
+    <row r="210" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -4299,7 +4367,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" ht="12">
+    <row r="211" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -4309,7 +4377,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" ht="12">
+    <row r="212" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -4319,7 +4387,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" ht="12">
+    <row r="213" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -4329,7 +4397,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" ht="12">
+    <row r="214" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -4339,7 +4407,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" ht="12">
+    <row r="215" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -4349,7 +4417,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" ht="12">
+    <row r="216" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -4359,7 +4427,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" ht="12">
+    <row r="217" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -4369,7 +4437,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" ht="12">
+    <row r="218" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -4379,7 +4447,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" ht="12">
+    <row r="219" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -4389,7 +4457,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" ht="12">
+    <row r="220" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -4399,7 +4467,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" ht="12">
+    <row r="221" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -4409,7 +4477,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" ht="12">
+    <row r="222" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -4419,7 +4487,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" ht="12">
+    <row r="223" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -4429,7 +4497,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" ht="12">
+    <row r="224" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -4439,7 +4507,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" ht="12">
+    <row r="225" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -4449,7 +4517,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" ht="12">
+    <row r="226" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -4459,7 +4527,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" ht="12">
+    <row r="227" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -4469,7 +4537,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" ht="12">
+    <row r="228" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -4479,7 +4547,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="48"/>
     </row>
-    <row r="229" spans="1:10" ht="12">
+    <row r="229" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -4489,7 +4557,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" ht="12">
+    <row r="230" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -4499,7 +4567,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" ht="12">
+    <row r="231" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -4509,7 +4577,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="48"/>
     </row>
-    <row r="232" spans="1:10" ht="12">
+    <row r="232" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -4519,7 +4587,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" ht="12">
+    <row r="233" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -4529,7 +4597,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" ht="12">
+    <row r="234" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -4539,7 +4607,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" ht="12">
+    <row r="235" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -4549,7 +4617,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" ht="12">
+    <row r="236" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -4559,7 +4627,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" ht="12">
+    <row r="237" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -4569,7 +4637,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" ht="12">
+    <row r="238" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4579,7 +4647,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" ht="12">
+    <row r="239" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -4589,7 +4657,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" ht="12">
+    <row r="240" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -4599,7 +4667,7 @@
       <c r="I240" s="2"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" ht="12">
+    <row r="241" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -4609,7 +4677,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" ht="12">
+    <row r="242" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -4619,7 +4687,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" ht="12">
+    <row r="243" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -4629,7 +4697,7 @@
       <c r="I243" s="2"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" ht="12">
+    <row r="244" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -4639,7 +4707,7 @@
       <c r="I244" s="2"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" ht="12">
+    <row r="245" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -4649,7 +4717,7 @@
       <c r="I245" s="2"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" ht="12">
+    <row r="246" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -4659,7 +4727,7 @@
       <c r="I246" s="2"/>
       <c r="J246" s="48"/>
     </row>
-    <row r="247" spans="1:10" ht="12">
+    <row r="247" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -4669,7 +4737,7 @@
       <c r="I247" s="2"/>
       <c r="J247" s="48"/>
     </row>
-    <row r="248" spans="1:10" ht="12">
+    <row r="248" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -4679,7 +4747,7 @@
       <c r="I248" s="2"/>
       <c r="J248" s="48"/>
     </row>
-    <row r="249" spans="1:10" ht="12">
+    <row r="249" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -4689,7 +4757,7 @@
       <c r="I249" s="2"/>
       <c r="J249" s="48"/>
     </row>
-    <row r="250" spans="1:10" ht="12">
+    <row r="250" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -4699,7 +4767,7 @@
       <c r="I250" s="2"/>
       <c r="J250" s="48"/>
     </row>
-    <row r="251" spans="1:10" ht="12">
+    <row r="251" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -4709,7 +4777,7 @@
       <c r="I251" s="2"/>
       <c r="J251" s="48"/>
     </row>
-    <row r="252" spans="1:10" ht="12">
+    <row r="252" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -4719,7 +4787,7 @@
       <c r="I252" s="2"/>
       <c r="J252" s="48"/>
     </row>
-    <row r="253" spans="1:10" ht="12">
+    <row r="253" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -4729,7 +4797,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="48"/>
     </row>
-    <row r="254" spans="1:10" ht="12">
+    <row r="254" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -4739,7 +4807,7 @@
       <c r="I254" s="2"/>
       <c r="J254" s="48"/>
     </row>
-    <row r="255" spans="1:10" ht="12">
+    <row r="255" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -4749,7 +4817,7 @@
       <c r="I255" s="2"/>
       <c r="J255" s="48"/>
     </row>
-    <row r="256" spans="1:10" ht="12">
+    <row r="256" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -4759,7 +4827,7 @@
       <c r="I256" s="2"/>
       <c r="J256" s="48"/>
     </row>
-    <row r="257" spans="1:10" ht="12">
+    <row r="257" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -4769,7 +4837,7 @@
       <c r="I257" s="2"/>
       <c r="J257" s="48"/>
     </row>
-    <row r="258" spans="1:10" ht="12">
+    <row r="258" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -4779,7 +4847,7 @@
       <c r="I258" s="2"/>
       <c r="J258" s="48"/>
     </row>
-    <row r="259" spans="1:10" ht="12">
+    <row r="259" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -4789,7 +4857,7 @@
       <c r="I259" s="2"/>
       <c r="J259" s="48"/>
     </row>
-    <row r="260" spans="1:10" ht="12">
+    <row r="260" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -4799,7 +4867,7 @@
       <c r="I260" s="2"/>
       <c r="J260" s="48"/>
     </row>
-    <row r="261" spans="1:10" ht="12">
+    <row r="261" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -4809,7 +4877,7 @@
       <c r="I261" s="2"/>
       <c r="J261" s="48"/>
     </row>
-    <row r="262" spans="1:10" ht="12">
+    <row r="262" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -4819,7 +4887,7 @@
       <c r="I262" s="2"/>
       <c r="J262" s="48"/>
     </row>
-    <row r="263" spans="1:10" ht="12">
+    <row r="263" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -4829,7 +4897,7 @@
       <c r="I263" s="2"/>
       <c r="J263" s="48"/>
     </row>
-    <row r="264" spans="1:10" ht="12">
+    <row r="264" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -4839,7 +4907,7 @@
       <c r="I264" s="2"/>
       <c r="J264" s="48"/>
     </row>
-    <row r="265" spans="1:10" ht="12">
+    <row r="265" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -4849,7 +4917,7 @@
       <c r="I265" s="2"/>
       <c r="J265" s="48"/>
     </row>
-    <row r="266" spans="1:10" ht="12">
+    <row r="266" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -4859,7 +4927,7 @@
       <c r="I266" s="2"/>
       <c r="J266" s="48"/>
     </row>
-    <row r="267" spans="1:10" ht="12">
+    <row r="267" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -4869,7 +4937,7 @@
       <c r="I267" s="2"/>
       <c r="J267" s="48"/>
     </row>
-    <row r="268" spans="1:10" ht="12">
+    <row r="268" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -4879,7 +4947,7 @@
       <c r="I268" s="2"/>
       <c r="J268" s="48"/>
     </row>
-    <row r="269" spans="1:10" ht="12">
+    <row r="269" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -4889,7 +4957,7 @@
       <c r="I269" s="2"/>
       <c r="J269" s="48"/>
     </row>
-    <row r="270" spans="1:10" ht="12">
+    <row r="270" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -4899,7 +4967,7 @@
       <c r="I270" s="2"/>
       <c r="J270" s="48"/>
     </row>
-    <row r="271" spans="1:10" ht="12">
+    <row r="271" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -4909,7 +4977,7 @@
       <c r="I271" s="2"/>
       <c r="J271" s="48"/>
     </row>
-    <row r="272" spans="1:10" ht="12">
+    <row r="272" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -4919,7 +4987,7 @@
       <c r="I272" s="2"/>
       <c r="J272" s="48"/>
     </row>
-    <row r="273" spans="1:10" ht="12">
+    <row r="273" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -4929,7 +4997,7 @@
       <c r="I273" s="2"/>
       <c r="J273" s="48"/>
     </row>
-    <row r="274" spans="1:10" ht="12">
+    <row r="274" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -4939,7 +5007,7 @@
       <c r="I274" s="2"/>
       <c r="J274" s="48"/>
     </row>
-    <row r="275" spans="1:10" ht="12">
+    <row r="275" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -4949,7 +5017,7 @@
       <c r="I275" s="2"/>
       <c r="J275" s="48"/>
     </row>
-    <row r="276" spans="1:10" ht="12">
+    <row r="276" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -4959,7 +5027,7 @@
       <c r="I276" s="2"/>
       <c r="J276" s="48"/>
     </row>
-    <row r="277" spans="1:10" ht="12">
+    <row r="277" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -4969,7 +5037,7 @@
       <c r="I277" s="2"/>
       <c r="J277" s="48"/>
     </row>
-    <row r="278" spans="1:10" ht="12">
+    <row r="278" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -4979,7 +5047,7 @@
       <c r="I278" s="2"/>
       <c r="J278" s="48"/>
     </row>
-    <row r="279" spans="1:10" ht="12">
+    <row r="279" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -4989,7 +5057,7 @@
       <c r="I279" s="2"/>
       <c r="J279" s="48"/>
     </row>
-    <row r="280" spans="1:10" ht="12">
+    <row r="280" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -4999,7 +5067,7 @@
       <c r="I280" s="2"/>
       <c r="J280" s="48"/>
     </row>
-    <row r="281" spans="1:10" ht="12">
+    <row r="281" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -5009,7 +5077,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="48"/>
     </row>
-    <row r="282" spans="1:10" ht="12">
+    <row r="282" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -5019,7 +5087,7 @@
       <c r="I282" s="2"/>
       <c r="J282" s="48"/>
     </row>
-    <row r="283" spans="1:10" ht="12">
+    <row r="283" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -5029,7 +5097,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="48"/>
     </row>
-    <row r="284" spans="1:10" ht="12">
+    <row r="284" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -5039,7 +5107,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="48"/>
     </row>
-    <row r="285" spans="1:10" ht="12">
+    <row r="285" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -5049,7 +5117,7 @@
       <c r="I285" s="2"/>
       <c r="J285" s="48"/>
     </row>
-    <row r="286" spans="1:10" ht="12">
+    <row r="286" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -5059,7 +5127,7 @@
       <c r="I286" s="2"/>
       <c r="J286" s="48"/>
     </row>
-    <row r="287" spans="1:10" ht="12">
+    <row r="287" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -5069,7 +5137,7 @@
       <c r="I287" s="2"/>
       <c r="J287" s="48"/>
     </row>
-    <row r="288" spans="1:10" ht="12">
+    <row r="288" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -5079,7 +5147,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="48"/>
     </row>
-    <row r="289" spans="1:10" ht="12">
+    <row r="289" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -5089,7 +5157,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="48"/>
     </row>
-    <row r="290" spans="1:10" ht="12">
+    <row r="290" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -5099,7 +5167,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="48"/>
     </row>
-    <row r="291" spans="1:10" ht="12">
+    <row r="291" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -5109,7 +5177,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="48"/>
     </row>
-    <row r="292" spans="1:10" ht="12">
+    <row r="292" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -5119,7 +5187,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="48"/>
     </row>
-    <row r="293" spans="1:10" ht="12">
+    <row r="293" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -5129,7 +5197,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="48"/>
     </row>
-    <row r="294" spans="1:10" ht="12">
+    <row r="294" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -5139,7 +5207,7 @@
       <c r="I294" s="2"/>
       <c r="J294" s="48"/>
     </row>
-    <row r="295" spans="1:10" ht="12">
+    <row r="295" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -5149,7 +5217,7 @@
       <c r="I295" s="2"/>
       <c r="J295" s="48"/>
     </row>
-    <row r="296" spans="1:10" ht="12">
+    <row r="296" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -5159,7 +5227,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="48"/>
     </row>
-    <row r="297" spans="1:10" ht="12">
+    <row r="297" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -5169,7 +5237,7 @@
       <c r="I297" s="2"/>
       <c r="J297" s="48"/>
     </row>
-    <row r="298" spans="1:10" ht="12">
+    <row r="298" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -5179,7 +5247,7 @@
       <c r="I298" s="2"/>
       <c r="J298" s="48"/>
     </row>
-    <row r="299" spans="1:10" ht="12">
+    <row r="299" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -5189,7 +5257,7 @@
       <c r="I299" s="2"/>
       <c r="J299" s="48"/>
     </row>
-    <row r="300" spans="1:10" ht="12">
+    <row r="300" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -5199,7 +5267,7 @@
       <c r="I300" s="2"/>
       <c r="J300" s="48"/>
     </row>
-    <row r="301" spans="1:10" ht="12">
+    <row r="301" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -5209,7 +5277,7 @@
       <c r="I301" s="2"/>
       <c r="J301" s="48"/>
     </row>
-    <row r="302" spans="1:10" ht="12">
+    <row r="302" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -5219,7 +5287,7 @@
       <c r="I302" s="2"/>
       <c r="J302" s="48"/>
     </row>
-    <row r="303" spans="1:10" ht="12">
+    <row r="303" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -5229,7 +5297,7 @@
       <c r="I303" s="2"/>
       <c r="J303" s="48"/>
     </row>
-    <row r="304" spans="1:10" ht="12">
+    <row r="304" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -5239,7 +5307,7 @@
       <c r="I304" s="2"/>
       <c r="J304" s="48"/>
     </row>
-    <row r="305" spans="1:10" ht="12">
+    <row r="305" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -5249,7 +5317,7 @@
       <c r="I305" s="2"/>
       <c r="J305" s="48"/>
     </row>
-    <row r="306" spans="1:10" ht="12">
+    <row r="306" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -5259,7 +5327,7 @@
       <c r="I306" s="2"/>
       <c r="J306" s="48"/>
     </row>
-    <row r="307" spans="1:10" ht="12">
+    <row r="307" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -5269,7 +5337,7 @@
       <c r="I307" s="2"/>
       <c r="J307" s="48"/>
     </row>
-    <row r="308" spans="1:10" ht="12">
+    <row r="308" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -5279,7 +5347,7 @@
       <c r="I308" s="2"/>
       <c r="J308" s="48"/>
     </row>
-    <row r="309" spans="1:10" ht="12">
+    <row r="309" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -5289,7 +5357,7 @@
       <c r="I309" s="2"/>
       <c r="J309" s="48"/>
     </row>
-    <row r="310" spans="1:10" ht="12">
+    <row r="310" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -5299,7 +5367,7 @@
       <c r="I310" s="2"/>
       <c r="J310" s="48"/>
     </row>
-    <row r="311" spans="1:10" ht="12">
+    <row r="311" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -5309,7 +5377,7 @@
       <c r="I311" s="2"/>
       <c r="J311" s="48"/>
     </row>
-    <row r="312" spans="1:10" ht="12">
+    <row r="312" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -5319,7 +5387,7 @@
       <c r="I312" s="2"/>
       <c r="J312" s="48"/>
     </row>
-    <row r="313" spans="1:10" ht="12">
+    <row r="313" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -5329,7 +5397,7 @@
       <c r="I313" s="2"/>
       <c r="J313" s="48"/>
     </row>
-    <row r="314" spans="1:10" ht="12">
+    <row r="314" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -5339,7 +5407,7 @@
       <c r="I314" s="2"/>
       <c r="J314" s="48"/>
     </row>
-    <row r="315" spans="1:10" ht="12">
+    <row r="315" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -5349,7 +5417,7 @@
       <c r="I315" s="2"/>
       <c r="J315" s="48"/>
     </row>
-    <row r="316" spans="1:10" ht="12">
+    <row r="316" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -5359,7 +5427,7 @@
       <c r="I316" s="2"/>
       <c r="J316" s="48"/>
     </row>
-    <row r="317" spans="1:10" ht="12">
+    <row r="317" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -5369,7 +5437,7 @@
       <c r="I317" s="2"/>
       <c r="J317" s="48"/>
     </row>
-    <row r="318" spans="1:10" ht="12">
+    <row r="318" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -5379,7 +5447,7 @@
       <c r="I318" s="2"/>
       <c r="J318" s="48"/>
     </row>
-    <row r="319" spans="1:10" ht="12">
+    <row r="319" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -5389,7 +5457,7 @@
       <c r="I319" s="2"/>
       <c r="J319" s="48"/>
     </row>
-    <row r="320" spans="1:10" ht="12">
+    <row r="320" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -5399,7 +5467,7 @@
       <c r="I320" s="2"/>
       <c r="J320" s="48"/>
     </row>
-    <row r="321" spans="1:10" ht="12">
+    <row r="321" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -5409,7 +5477,7 @@
       <c r="I321" s="2"/>
       <c r="J321" s="48"/>
     </row>
-    <row r="322" spans="1:10" ht="12">
+    <row r="322" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -5419,7 +5487,7 @@
       <c r="I322" s="2"/>
       <c r="J322" s="48"/>
     </row>
-    <row r="323" spans="1:10" ht="12">
+    <row r="323" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -5429,7 +5497,7 @@
       <c r="I323" s="2"/>
       <c r="J323" s="48"/>
     </row>
-    <row r="324" spans="1:10" ht="12">
+    <row r="324" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -5439,7 +5507,7 @@
       <c r="I324" s="2"/>
       <c r="J324" s="48"/>
     </row>
-    <row r="325" spans="1:10" ht="12">
+    <row r="325" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -5449,7 +5517,7 @@
       <c r="I325" s="2"/>
       <c r="J325" s="48"/>
     </row>
-    <row r="326" spans="1:10" ht="12">
+    <row r="326" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -5459,7 +5527,7 @@
       <c r="I326" s="2"/>
       <c r="J326" s="48"/>
     </row>
-    <row r="327" spans="1:10" ht="12">
+    <row r="327" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -5469,7 +5537,7 @@
       <c r="I327" s="2"/>
       <c r="J327" s="48"/>
     </row>
-    <row r="328" spans="1:10" ht="12">
+    <row r="328" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -5479,7 +5547,7 @@
       <c r="I328" s="2"/>
       <c r="J328" s="48"/>
     </row>
-    <row r="329" spans="1:10" ht="12">
+    <row r="329" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -5489,7 +5557,7 @@
       <c r="I329" s="2"/>
       <c r="J329" s="48"/>
     </row>
-    <row r="330" spans="1:10" ht="12">
+    <row r="330" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -5499,7 +5567,7 @@
       <c r="I330" s="2"/>
       <c r="J330" s="48"/>
     </row>
-    <row r="331" spans="1:10" ht="12">
+    <row r="331" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -5509,7 +5577,7 @@
       <c r="I331" s="2"/>
       <c r="J331" s="48"/>
     </row>
-    <row r="332" spans="1:10" ht="12">
+    <row r="332" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -5519,7 +5587,7 @@
       <c r="I332" s="2"/>
       <c r="J332" s="48"/>
     </row>
-    <row r="333" spans="1:10" ht="12">
+    <row r="333" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -5529,7 +5597,7 @@
       <c r="I333" s="2"/>
       <c r="J333" s="48"/>
     </row>
-    <row r="334" spans="1:10" ht="12">
+    <row r="334" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -5539,7 +5607,7 @@
       <c r="I334" s="2"/>
       <c r="J334" s="48"/>
     </row>
-    <row r="335" spans="1:10" ht="12">
+    <row r="335" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -5549,7 +5617,7 @@
       <c r="I335" s="2"/>
       <c r="J335" s="48"/>
     </row>
-    <row r="336" spans="1:10" ht="12">
+    <row r="336" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -5559,7 +5627,7 @@
       <c r="I336" s="2"/>
       <c r="J336" s="48"/>
     </row>
-    <row r="337" spans="1:10" ht="12">
+    <row r="337" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -5569,7 +5637,7 @@
       <c r="I337" s="2"/>
       <c r="J337" s="48"/>
     </row>
-    <row r="338" spans="1:10" ht="12">
+    <row r="338" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -5579,7 +5647,7 @@
       <c r="I338" s="2"/>
       <c r="J338" s="48"/>
     </row>
-    <row r="339" spans="1:10" ht="12">
+    <row r="339" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -5589,7 +5657,7 @@
       <c r="I339" s="2"/>
       <c r="J339" s="48"/>
     </row>
-    <row r="340" spans="1:10" ht="12">
+    <row r="340" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -5599,7 +5667,7 @@
       <c r="I340" s="2"/>
       <c r="J340" s="48"/>
     </row>
-    <row r="341" spans="1:10" ht="12">
+    <row r="341" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -5609,7 +5677,7 @@
       <c r="I341" s="2"/>
       <c r="J341" s="48"/>
     </row>
-    <row r="342" spans="1:10" ht="12">
+    <row r="342" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -5619,7 +5687,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="48"/>
     </row>
-    <row r="343" spans="1:10" ht="12">
+    <row r="343" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -5629,7 +5697,7 @@
       <c r="I343" s="2"/>
       <c r="J343" s="48"/>
     </row>
-    <row r="344" spans="1:10" ht="12">
+    <row r="344" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -5639,7 +5707,7 @@
       <c r="I344" s="2"/>
       <c r="J344" s="48"/>
     </row>
-    <row r="345" spans="1:10" ht="12">
+    <row r="345" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -5649,7 +5717,7 @@
       <c r="I345" s="2"/>
       <c r="J345" s="48"/>
     </row>
-    <row r="346" spans="1:10" ht="12">
+    <row r="346" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -5659,7 +5727,7 @@
       <c r="I346" s="2"/>
       <c r="J346" s="48"/>
     </row>
-    <row r="347" spans="1:10" ht="12">
+    <row r="347" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -5669,7 +5737,7 @@
       <c r="I347" s="2"/>
       <c r="J347" s="48"/>
     </row>
-    <row r="348" spans="1:10" ht="12">
+    <row r="348" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -5679,7 +5747,7 @@
       <c r="I348" s="2"/>
       <c r="J348" s="48"/>
     </row>
-    <row r="349" spans="1:10" ht="12">
+    <row r="349" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -5689,7 +5757,7 @@
       <c r="I349" s="2"/>
       <c r="J349" s="48"/>
     </row>
-    <row r="350" spans="1:10" ht="12">
+    <row r="350" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -5699,7 +5767,7 @@
       <c r="I350" s="2"/>
       <c r="J350" s="48"/>
     </row>
-    <row r="351" spans="1:10" ht="12">
+    <row r="351" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -5709,7 +5777,7 @@
       <c r="I351" s="2"/>
       <c r="J351" s="48"/>
     </row>
-    <row r="352" spans="1:10" ht="12">
+    <row r="352" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -5719,7 +5787,7 @@
       <c r="I352" s="2"/>
       <c r="J352" s="48"/>
     </row>
-    <row r="353" spans="1:10" ht="12">
+    <row r="353" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -5729,7 +5797,7 @@
       <c r="I353" s="2"/>
       <c r="J353" s="48"/>
     </row>
-    <row r="354" spans="1:10" ht="12">
+    <row r="354" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -5739,7 +5807,7 @@
       <c r="I354" s="2"/>
       <c r="J354" s="48"/>
     </row>
-    <row r="355" spans="1:10" ht="12">
+    <row r="355" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -5749,7 +5817,7 @@
       <c r="I355" s="2"/>
       <c r="J355" s="48"/>
     </row>
-    <row r="356" spans="1:10" ht="12">
+    <row r="356" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -5759,7 +5827,7 @@
       <c r="I356" s="2"/>
       <c r="J356" s="48"/>
     </row>
-    <row r="357" spans="1:10" ht="12">
+    <row r="357" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -5769,7 +5837,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="48"/>
     </row>
-    <row r="358" spans="1:10" ht="12">
+    <row r="358" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -5779,7 +5847,7 @@
       <c r="I358" s="2"/>
       <c r="J358" s="48"/>
     </row>
-    <row r="359" spans="1:10" ht="12">
+    <row r="359" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -5789,7 +5857,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="48"/>
     </row>
-    <row r="360" spans="1:10" ht="12">
+    <row r="360" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -5799,7 +5867,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="48"/>
     </row>
-    <row r="361" spans="1:10" ht="12">
+    <row r="361" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -5809,7 +5877,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="48"/>
     </row>
-    <row r="362" spans="1:10" ht="12">
+    <row r="362" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -5819,7 +5887,7 @@
       <c r="I362" s="2"/>
       <c r="J362" s="48"/>
     </row>
-    <row r="363" spans="1:10" ht="12">
+    <row r="363" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -5829,7 +5897,7 @@
       <c r="I363" s="2"/>
       <c r="J363" s="48"/>
     </row>
-    <row r="364" spans="1:10" ht="12">
+    <row r="364" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -5839,7 +5907,7 @@
       <c r="I364" s="2"/>
       <c r="J364" s="48"/>
     </row>
-    <row r="365" spans="1:10" ht="12">
+    <row r="365" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -5849,7 +5917,7 @@
       <c r="I365" s="2"/>
       <c r="J365" s="48"/>
     </row>
-    <row r="366" spans="1:10" ht="12">
+    <row r="366" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -5859,7 +5927,7 @@
       <c r="I366" s="2"/>
       <c r="J366" s="48"/>
     </row>
-    <row r="367" spans="1:10" ht="12">
+    <row r="367" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -5869,7 +5937,7 @@
       <c r="I367" s="2"/>
       <c r="J367" s="48"/>
     </row>
-    <row r="368" spans="1:10" ht="12">
+    <row r="368" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -5879,7 +5947,7 @@
       <c r="I368" s="2"/>
       <c r="J368" s="48"/>
     </row>
-    <row r="369" spans="1:10" ht="12">
+    <row r="369" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -5889,7 +5957,7 @@
       <c r="I369" s="2"/>
       <c r="J369" s="48"/>
     </row>
-    <row r="370" spans="1:10" ht="12">
+    <row r="370" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -5899,7 +5967,7 @@
       <c r="I370" s="2"/>
       <c r="J370" s="48"/>
     </row>
-    <row r="371" spans="1:10" ht="12">
+    <row r="371" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -5909,7 +5977,7 @@
       <c r="I371" s="2"/>
       <c r="J371" s="48"/>
     </row>
-    <row r="372" spans="1:10" ht="12">
+    <row r="372" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -5919,7 +5987,7 @@
       <c r="I372" s="2"/>
       <c r="J372" s="48"/>
     </row>
-    <row r="373" spans="1:10" ht="12">
+    <row r="373" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -5929,7 +5997,7 @@
       <c r="I373" s="2"/>
       <c r="J373" s="48"/>
     </row>
-    <row r="374" spans="1:10" ht="12">
+    <row r="374" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -5939,7 +6007,7 @@
       <c r="I374" s="2"/>
       <c r="J374" s="48"/>
     </row>
-    <row r="375" spans="1:10" ht="12">
+    <row r="375" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -5949,7 +6017,7 @@
       <c r="I375" s="2"/>
       <c r="J375" s="48"/>
     </row>
-    <row r="376" spans="1:10" ht="12">
+    <row r="376" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -5959,7 +6027,7 @@
       <c r="I376" s="2"/>
       <c r="J376" s="48"/>
     </row>
-    <row r="377" spans="1:10" ht="12">
+    <row r="377" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -5969,7 +6037,7 @@
       <c r="I377" s="2"/>
       <c r="J377" s="48"/>
     </row>
-    <row r="378" spans="1:10" ht="12">
+    <row r="378" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -5979,7 +6047,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="48"/>
     </row>
-    <row r="379" spans="1:10" ht="12">
+    <row r="379" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -5989,7 +6057,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="48"/>
     </row>
-    <row r="380" spans="1:10" ht="12">
+    <row r="380" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -5999,7 +6067,7 @@
       <c r="I380" s="2"/>
       <c r="J380" s="48"/>
     </row>
-    <row r="381" spans="1:10" ht="12">
+    <row r="381" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -6009,7 +6077,7 @@
       <c r="I381" s="2"/>
       <c r="J381" s="48"/>
     </row>
-    <row r="382" spans="1:10" ht="12">
+    <row r="382" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -6019,7 +6087,7 @@
       <c r="I382" s="2"/>
       <c r="J382" s="48"/>
     </row>
-    <row r="383" spans="1:10" ht="12">
+    <row r="383" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -6029,7 +6097,7 @@
       <c r="I383" s="2"/>
       <c r="J383" s="48"/>
     </row>
-    <row r="384" spans="1:10" ht="12">
+    <row r="384" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -6039,7 +6107,7 @@
       <c r="I384" s="2"/>
       <c r="J384" s="48"/>
     </row>
-    <row r="385" spans="1:10" ht="12">
+    <row r="385" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -6049,7 +6117,7 @@
       <c r="I385" s="2"/>
       <c r="J385" s="48"/>
     </row>
-    <row r="386" spans="1:10" ht="12">
+    <row r="386" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -6059,7 +6127,7 @@
       <c r="I386" s="2"/>
       <c r="J386" s="48"/>
     </row>
-    <row r="387" spans="1:10" ht="12">
+    <row r="387" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -6069,7 +6137,7 @@
       <c r="I387" s="2"/>
       <c r="J387" s="48"/>
     </row>
-    <row r="388" spans="1:10" ht="12">
+    <row r="388" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -6079,7 +6147,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="48"/>
     </row>
-    <row r="389" spans="1:10" ht="12">
+    <row r="389" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -6089,7 +6157,7 @@
       <c r="I389" s="2"/>
       <c r="J389" s="48"/>
     </row>
-    <row r="390" spans="1:10" ht="12">
+    <row r="390" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -6099,7 +6167,7 @@
       <c r="I390" s="2"/>
       <c r="J390" s="48"/>
     </row>
-    <row r="391" spans="1:10" ht="12">
+    <row r="391" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -6109,7 +6177,7 @@
       <c r="I391" s="2"/>
       <c r="J391" s="48"/>
     </row>
-    <row r="392" spans="1:10" ht="12">
+    <row r="392" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -6119,7 +6187,7 @@
       <c r="I392" s="2"/>
       <c r="J392" s="48"/>
     </row>
-    <row r="393" spans="1:10" ht="12">
+    <row r="393" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -6129,7 +6197,7 @@
       <c r="I393" s="2"/>
       <c r="J393" s="48"/>
     </row>
-    <row r="394" spans="1:10" ht="12">
+    <row r="394" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -6139,7 +6207,7 @@
       <c r="I394" s="2"/>
       <c r="J394" s="48"/>
     </row>
-    <row r="395" spans="1:10" ht="12">
+    <row r="395" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -6149,7 +6217,7 @@
       <c r="I395" s="2"/>
       <c r="J395" s="48"/>
     </row>
-    <row r="396" spans="1:10" ht="12">
+    <row r="396" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -6159,7 +6227,7 @@
       <c r="I396" s="2"/>
       <c r="J396" s="48"/>
     </row>
-    <row r="397" spans="1:10" ht="12">
+    <row r="397" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -6169,7 +6237,7 @@
       <c r="I397" s="2"/>
       <c r="J397" s="48"/>
     </row>
-    <row r="398" spans="1:10" ht="12">
+    <row r="398" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -6179,7 +6247,7 @@
       <c r="I398" s="2"/>
       <c r="J398" s="48"/>
     </row>
-    <row r="399" spans="1:10" ht="12">
+    <row r="399" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -6189,7 +6257,7 @@
       <c r="I399" s="2"/>
       <c r="J399" s="48"/>
     </row>
-    <row r="400" spans="1:10" ht="12">
+    <row r="400" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -6199,7 +6267,7 @@
       <c r="I400" s="2"/>
       <c r="J400" s="48"/>
     </row>
-    <row r="401" spans="1:10" ht="12">
+    <row r="401" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -6209,7 +6277,7 @@
       <c r="I401" s="2"/>
       <c r="J401" s="48"/>
     </row>
-    <row r="402" spans="1:10" ht="12">
+    <row r="402" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -6219,7 +6287,7 @@
       <c r="I402" s="2"/>
       <c r="J402" s="48"/>
     </row>
-    <row r="403" spans="1:10" ht="12">
+    <row r="403" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -6229,7 +6297,7 @@
       <c r="I403" s="2"/>
       <c r="J403" s="48"/>
     </row>
-    <row r="404" spans="1:10" ht="12">
+    <row r="404" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -6239,7 +6307,7 @@
       <c r="I404" s="2"/>
       <c r="J404" s="48"/>
     </row>
-    <row r="405" spans="1:10" ht="12">
+    <row r="405" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -6249,7 +6317,7 @@
       <c r="I405" s="2"/>
       <c r="J405" s="48"/>
     </row>
-    <row r="406" spans="1:10" ht="12">
+    <row r="406" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -6259,7 +6327,7 @@
       <c r="I406" s="2"/>
       <c r="J406" s="48"/>
     </row>
-    <row r="407" spans="1:10" ht="12">
+    <row r="407" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -6269,7 +6337,7 @@
       <c r="I407" s="2"/>
       <c r="J407" s="48"/>
     </row>
-    <row r="408" spans="1:10" ht="12">
+    <row r="408" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -6279,7 +6347,7 @@
       <c r="I408" s="2"/>
       <c r="J408" s="48"/>
     </row>
-    <row r="409" spans="1:10" ht="12">
+    <row r="409" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -6289,7 +6357,7 @@
       <c r="I409" s="2"/>
       <c r="J409" s="48"/>
     </row>
-    <row r="410" spans="1:10" ht="12">
+    <row r="410" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -6299,7 +6367,7 @@
       <c r="I410" s="2"/>
       <c r="J410" s="48"/>
     </row>
-    <row r="411" spans="1:10" ht="12">
+    <row r="411" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -6309,7 +6377,7 @@
       <c r="I411" s="2"/>
       <c r="J411" s="48"/>
     </row>
-    <row r="412" spans="1:10" ht="12">
+    <row r="412" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -6319,7 +6387,7 @@
       <c r="I412" s="2"/>
       <c r="J412" s="48"/>
     </row>
-    <row r="413" spans="1:10" ht="12">
+    <row r="413" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -6329,7 +6397,7 @@
       <c r="I413" s="2"/>
       <c r="J413" s="48"/>
     </row>
-    <row r="414" spans="1:10" ht="12">
+    <row r="414" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -6339,7 +6407,7 @@
       <c r="I414" s="2"/>
       <c r="J414" s="48"/>
     </row>
-    <row r="415" spans="1:10" ht="12">
+    <row r="415" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -6349,7 +6417,7 @@
       <c r="I415" s="2"/>
       <c r="J415" s="48"/>
     </row>
-    <row r="416" spans="1:10" ht="12">
+    <row r="416" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -6359,7 +6427,7 @@
       <c r="I416" s="2"/>
       <c r="J416" s="48"/>
     </row>
-    <row r="417" spans="1:10" ht="12">
+    <row r="417" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -6369,7 +6437,7 @@
       <c r="I417" s="2"/>
       <c r="J417" s="48"/>
     </row>
-    <row r="418" spans="1:10" ht="12">
+    <row r="418" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -6379,7 +6447,7 @@
       <c r="I418" s="2"/>
       <c r="J418" s="48"/>
     </row>
-    <row r="419" spans="1:10" ht="12">
+    <row r="419" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -6389,7 +6457,7 @@
       <c r="I419" s="2"/>
       <c r="J419" s="48"/>
     </row>
-    <row r="420" spans="1:10" ht="12">
+    <row r="420" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -6399,7 +6467,7 @@
       <c r="I420" s="2"/>
       <c r="J420" s="48"/>
     </row>
-    <row r="421" spans="1:10" ht="12">
+    <row r="421" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -6409,7 +6477,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="48"/>
     </row>
-    <row r="422" spans="1:10" ht="12">
+    <row r="422" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -6419,7 +6487,7 @@
       <c r="I422" s="2"/>
       <c r="J422" s="48"/>
     </row>
-    <row r="423" spans="1:10" ht="12">
+    <row r="423" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -6429,7 +6497,7 @@
       <c r="I423" s="2"/>
       <c r="J423" s="48"/>
     </row>
-    <row r="424" spans="1:10" ht="12">
+    <row r="424" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -6439,7 +6507,7 @@
       <c r="I424" s="2"/>
       <c r="J424" s="48"/>
     </row>
-    <row r="425" spans="1:10" ht="12">
+    <row r="425" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -6449,7 +6517,7 @@
       <c r="I425" s="2"/>
       <c r="J425" s="48"/>
     </row>
-    <row r="426" spans="1:10" ht="12">
+    <row r="426" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -6459,7 +6527,7 @@
       <c r="I426" s="2"/>
       <c r="J426" s="48"/>
     </row>
-    <row r="427" spans="1:10" ht="12">
+    <row r="427" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -6469,7 +6537,7 @@
       <c r="I427" s="2"/>
       <c r="J427" s="48"/>
     </row>
-    <row r="428" spans="1:10" ht="12">
+    <row r="428" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -6479,7 +6547,7 @@
       <c r="I428" s="2"/>
       <c r="J428" s="48"/>
     </row>
-    <row r="429" spans="1:10" ht="12">
+    <row r="429" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -6489,7 +6557,7 @@
       <c r="I429" s="2"/>
       <c r="J429" s="48"/>
     </row>
-    <row r="430" spans="1:10" ht="12">
+    <row r="430" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -6499,7 +6567,7 @@
       <c r="I430" s="2"/>
       <c r="J430" s="48"/>
     </row>
-    <row r="431" spans="1:10" ht="12">
+    <row r="431" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -6509,7 +6577,7 @@
       <c r="I431" s="2"/>
       <c r="J431" s="48"/>
     </row>
-    <row r="432" spans="1:10" ht="12">
+    <row r="432" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -6519,7 +6587,7 @@
       <c r="I432" s="2"/>
       <c r="J432" s="48"/>
     </row>
-    <row r="433" spans="1:10" ht="12">
+    <row r="433" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -6529,7 +6597,7 @@
       <c r="I433" s="2"/>
       <c r="J433" s="48"/>
     </row>
-    <row r="434" spans="1:10" ht="12">
+    <row r="434" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -6539,7 +6607,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="48"/>
     </row>
-    <row r="435" spans="1:10" ht="12">
+    <row r="435" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -6549,7 +6617,7 @@
       <c r="I435" s="2"/>
       <c r="J435" s="48"/>
     </row>
-    <row r="436" spans="1:10" ht="12">
+    <row r="436" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -6559,7 +6627,7 @@
       <c r="I436" s="2"/>
       <c r="J436" s="48"/>
     </row>
-    <row r="437" spans="1:10" ht="12">
+    <row r="437" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -6569,7 +6637,7 @@
       <c r="I437" s="2"/>
       <c r="J437" s="48"/>
     </row>
-    <row r="438" spans="1:10" ht="12">
+    <row r="438" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -6579,7 +6647,7 @@
       <c r="I438" s="2"/>
       <c r="J438" s="48"/>
     </row>
-    <row r="439" spans="1:10" ht="12">
+    <row r="439" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -6589,7 +6657,7 @@
       <c r="I439" s="2"/>
       <c r="J439" s="48"/>
     </row>
-    <row r="440" spans="1:10" ht="12">
+    <row r="440" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -6599,7 +6667,7 @@
       <c r="I440" s="2"/>
       <c r="J440" s="48"/>
     </row>
-    <row r="441" spans="1:10" ht="12">
+    <row r="441" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -6609,7 +6677,7 @@
       <c r="I441" s="2"/>
       <c r="J441" s="48"/>
     </row>
-    <row r="442" spans="1:10" ht="12">
+    <row r="442" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -6619,7 +6687,7 @@
       <c r="I442" s="2"/>
       <c r="J442" s="48"/>
     </row>
-    <row r="443" spans="1:10" ht="12">
+    <row r="443" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -6629,7 +6697,7 @@
       <c r="I443" s="2"/>
       <c r="J443" s="48"/>
     </row>
-    <row r="444" spans="1:10" ht="12">
+    <row r="444" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -6639,7 +6707,7 @@
       <c r="I444" s="2"/>
       <c r="J444" s="48"/>
     </row>
-    <row r="445" spans="1:10" ht="12">
+    <row r="445" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -6649,7 +6717,7 @@
       <c r="I445" s="2"/>
       <c r="J445" s="48"/>
     </row>
-    <row r="446" spans="1:10" ht="12">
+    <row r="446" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -6659,7 +6727,7 @@
       <c r="I446" s="2"/>
       <c r="J446" s="48"/>
     </row>
-    <row r="447" spans="1:10" ht="12">
+    <row r="447" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -6669,7 +6737,7 @@
       <c r="I447" s="2"/>
       <c r="J447" s="48"/>
     </row>
-    <row r="448" spans="1:10" ht="12">
+    <row r="448" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -6679,7 +6747,7 @@
       <c r="I448" s="2"/>
       <c r="J448" s="48"/>
     </row>
-    <row r="449" spans="1:10" ht="12">
+    <row r="449" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -6689,7 +6757,7 @@
       <c r="I449" s="2"/>
       <c r="J449" s="48"/>
     </row>
-    <row r="450" spans="1:10" ht="12">
+    <row r="450" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -6699,7 +6767,7 @@
       <c r="I450" s="2"/>
       <c r="J450" s="48"/>
     </row>
-    <row r="451" spans="1:10" ht="12">
+    <row r="451" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -6709,7 +6777,7 @@
       <c r="I451" s="2"/>
       <c r="J451" s="48"/>
     </row>
-    <row r="452" spans="1:10" ht="12">
+    <row r="452" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -6719,7 +6787,7 @@
       <c r="I452" s="2"/>
       <c r="J452" s="48"/>
     </row>
-    <row r="453" spans="1:10" ht="12">
+    <row r="453" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -6729,7 +6797,7 @@
       <c r="I453" s="2"/>
       <c r="J453" s="48"/>
     </row>
-    <row r="454" spans="1:10" ht="12">
+    <row r="454" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -6739,7 +6807,7 @@
       <c r="I454" s="2"/>
       <c r="J454" s="48"/>
     </row>
-    <row r="455" spans="1:10" ht="12">
+    <row r="455" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -6749,7 +6817,7 @@
       <c r="I455" s="2"/>
       <c r="J455" s="48"/>
     </row>
-    <row r="456" spans="1:10" ht="12">
+    <row r="456" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -6759,7 +6827,7 @@
       <c r="I456" s="2"/>
       <c r="J456" s="48"/>
     </row>
-    <row r="457" spans="1:10" ht="12">
+    <row r="457" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -6769,7 +6837,7 @@
       <c r="I457" s="2"/>
       <c r="J457" s="48"/>
     </row>
-    <row r="458" spans="1:10" ht="12">
+    <row r="458" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -6779,7 +6847,7 @@
       <c r="I458" s="2"/>
       <c r="J458" s="48"/>
     </row>
-    <row r="459" spans="1:10" ht="12">
+    <row r="459" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -6789,7 +6857,7 @@
       <c r="I459" s="2"/>
       <c r="J459" s="48"/>
     </row>
-    <row r="460" spans="1:10" ht="12">
+    <row r="460" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -6799,7 +6867,7 @@
       <c r="I460" s="2"/>
       <c r="J460" s="48"/>
     </row>
-    <row r="461" spans="1:10" ht="12">
+    <row r="461" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -6809,7 +6877,7 @@
       <c r="I461" s="2"/>
       <c r="J461" s="48"/>
     </row>
-    <row r="462" spans="1:10" ht="12">
+    <row r="462" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -6819,7 +6887,7 @@
       <c r="I462" s="2"/>
       <c r="J462" s="48"/>
     </row>
-    <row r="463" spans="1:10" ht="12">
+    <row r="463" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -6829,7 +6897,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="48"/>
     </row>
-    <row r="464" spans="1:10" ht="12">
+    <row r="464" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -6839,7 +6907,7 @@
       <c r="I464" s="2"/>
       <c r="J464" s="48"/>
     </row>
-    <row r="465" spans="1:10" ht="12">
+    <row r="465" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -6849,7 +6917,7 @@
       <c r="I465" s="2"/>
       <c r="J465" s="48"/>
     </row>
-    <row r="466" spans="1:10" ht="12">
+    <row r="466" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -6859,7 +6927,7 @@
       <c r="I466" s="2"/>
       <c r="J466" s="48"/>
     </row>
-    <row r="467" spans="1:10" ht="12">
+    <row r="467" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -6869,7 +6937,7 @@
       <c r="I467" s="2"/>
       <c r="J467" s="48"/>
     </row>
-    <row r="468" spans="1:10" ht="12">
+    <row r="468" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -6879,7 +6947,7 @@
       <c r="I468" s="2"/>
       <c r="J468" s="48"/>
     </row>
-    <row r="469" spans="1:10" ht="12">
+    <row r="469" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -6889,7 +6957,7 @@
       <c r="I469" s="2"/>
       <c r="J469" s="48"/>
     </row>
-    <row r="470" spans="1:10" ht="12">
+    <row r="470" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -6899,7 +6967,7 @@
       <c r="I470" s="2"/>
       <c r="J470" s="48"/>
     </row>
-    <row r="471" spans="1:10" ht="12">
+    <row r="471" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -6909,7 +6977,7 @@
       <c r="I471" s="2"/>
       <c r="J471" s="48"/>
     </row>
-    <row r="472" spans="1:10" ht="12">
+    <row r="472" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -6919,7 +6987,7 @@
       <c r="I472" s="2"/>
       <c r="J472" s="48"/>
     </row>
-    <row r="473" spans="1:10" ht="12">
+    <row r="473" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -6929,7 +6997,7 @@
       <c r="I473" s="2"/>
       <c r="J473" s="48"/>
     </row>
-    <row r="474" spans="1:10" ht="12">
+    <row r="474" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -6939,7 +7007,7 @@
       <c r="I474" s="2"/>
       <c r="J474" s="48"/>
     </row>
-    <row r="475" spans="1:10" ht="12">
+    <row r="475" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -6949,7 +7017,7 @@
       <c r="I475" s="2"/>
       <c r="J475" s="48"/>
     </row>
-    <row r="476" spans="1:10" ht="12">
+    <row r="476" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -6959,7 +7027,7 @@
       <c r="I476" s="2"/>
       <c r="J476" s="48"/>
     </row>
-    <row r="477" spans="1:10" ht="12">
+    <row r="477" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -6969,7 +7037,7 @@
       <c r="I477" s="2"/>
       <c r="J477" s="48"/>
     </row>
-    <row r="478" spans="1:10" ht="12">
+    <row r="478" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -6979,7 +7047,7 @@
       <c r="I478" s="2"/>
       <c r="J478" s="48"/>
     </row>
-    <row r="479" spans="1:10" ht="12">
+    <row r="479" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -6989,7 +7057,7 @@
       <c r="I479" s="2"/>
       <c r="J479" s="48"/>
     </row>
-    <row r="480" spans="1:10" ht="12">
+    <row r="480" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -6999,7 +7067,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="48"/>
     </row>
-    <row r="481" spans="1:10" ht="12">
+    <row r="481" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -7009,7 +7077,7 @@
       <c r="I481" s="2"/>
       <c r="J481" s="48"/>
     </row>
-    <row r="482" spans="1:10" ht="12">
+    <row r="482" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -7019,7 +7087,7 @@
       <c r="I482" s="2"/>
       <c r="J482" s="48"/>
     </row>
-    <row r="483" spans="1:10" ht="12">
+    <row r="483" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -7029,7 +7097,7 @@
       <c r="I483" s="2"/>
       <c r="J483" s="48"/>
     </row>
-    <row r="484" spans="1:10" ht="12">
+    <row r="484" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -7039,7 +7107,7 @@
       <c r="I484" s="2"/>
       <c r="J484" s="48"/>
     </row>
-    <row r="485" spans="1:10" ht="12">
+    <row r="485" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -7049,7 +7117,7 @@
       <c r="I485" s="2"/>
       <c r="J485" s="48"/>
     </row>
-    <row r="486" spans="1:10" ht="12">
+    <row r="486" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -7059,7 +7127,7 @@
       <c r="I486" s="2"/>
       <c r="J486" s="48"/>
     </row>
-    <row r="487" spans="1:10" ht="12">
+    <row r="487" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -7069,7 +7137,7 @@
       <c r="I487" s="2"/>
       <c r="J487" s="48"/>
     </row>
-    <row r="488" spans="1:10" ht="12">
+    <row r="488" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -7079,7 +7147,7 @@
       <c r="I488" s="2"/>
       <c r="J488" s="48"/>
     </row>
-    <row r="489" spans="1:10" ht="12">
+    <row r="489" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -7089,7 +7157,7 @@
       <c r="I489" s="2"/>
       <c r="J489" s="48"/>
     </row>
-    <row r="490" spans="1:10" ht="12">
+    <row r="490" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -7099,7 +7167,7 @@
       <c r="I490" s="2"/>
       <c r="J490" s="48"/>
     </row>
-    <row r="491" spans="1:10" ht="12">
+    <row r="491" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -7109,7 +7177,7 @@
       <c r="I491" s="2"/>
       <c r="J491" s="48"/>
     </row>
-    <row r="492" spans="1:10" ht="12">
+    <row r="492" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -7119,7 +7187,7 @@
       <c r="I492" s="2"/>
       <c r="J492" s="48"/>
     </row>
-    <row r="493" spans="1:10" ht="12">
+    <row r="493" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -7129,7 +7197,7 @@
       <c r="I493" s="2"/>
       <c r="J493" s="48"/>
     </row>
-    <row r="494" spans="1:10" ht="12">
+    <row r="494" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -7139,7 +7207,7 @@
       <c r="I494" s="2"/>
       <c r="J494" s="48"/>
     </row>
-    <row r="495" spans="1:10" ht="12">
+    <row r="495" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -7149,7 +7217,7 @@
       <c r="I495" s="2"/>
       <c r="J495" s="48"/>
     </row>
-    <row r="496" spans="1:10" ht="12">
+    <row r="496" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -7159,7 +7227,7 @@
       <c r="I496" s="2"/>
       <c r="J496" s="48"/>
     </row>
-    <row r="497" spans="1:10" ht="12">
+    <row r="497" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -7169,7 +7237,7 @@
       <c r="I497" s="2"/>
       <c r="J497" s="48"/>
     </row>
-    <row r="498" spans="1:10" ht="12">
+    <row r="498" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -7179,7 +7247,7 @@
       <c r="I498" s="2"/>
       <c r="J498" s="48"/>
     </row>
-    <row r="499" spans="1:10" ht="12">
+    <row r="499" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -7189,7 +7257,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="48"/>
     </row>
-    <row r="500" spans="1:10" ht="12">
+    <row r="500" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -7199,7 +7267,7 @@
       <c r="I500" s="2"/>
       <c r="J500" s="48"/>
     </row>
-    <row r="501" spans="1:10" ht="12">
+    <row r="501" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -7209,7 +7277,7 @@
       <c r="I501" s="2"/>
       <c r="J501" s="48"/>
     </row>
-    <row r="502" spans="1:10" ht="12">
+    <row r="502" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -7219,7 +7287,7 @@
       <c r="I502" s="2"/>
       <c r="J502" s="48"/>
     </row>
-    <row r="503" spans="1:10" ht="12">
+    <row r="503" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -7229,7 +7297,7 @@
       <c r="I503" s="2"/>
       <c r="J503" s="48"/>
     </row>
-    <row r="504" spans="1:10" ht="12">
+    <row r="504" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -7239,7 +7307,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="48"/>
     </row>
-    <row r="505" spans="1:10" ht="12">
+    <row r="505" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -7249,7 +7317,7 @@
       <c r="I505" s="2"/>
       <c r="J505" s="48"/>
     </row>
-    <row r="506" spans="1:10" ht="12">
+    <row r="506" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -7259,7 +7327,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="48"/>
     </row>
-    <row r="507" spans="1:10" ht="12">
+    <row r="507" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -7269,7 +7337,7 @@
       <c r="I507" s="2"/>
       <c r="J507" s="48"/>
     </row>
-    <row r="508" spans="1:10" ht="12">
+    <row r="508" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -7279,7 +7347,7 @@
       <c r="I508" s="2"/>
       <c r="J508" s="48"/>
     </row>
-    <row r="509" spans="1:10" ht="12">
+    <row r="509" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -7289,7 +7357,7 @@
       <c r="I509" s="2"/>
       <c r="J509" s="48"/>
     </row>
-    <row r="510" spans="1:10" ht="12">
+    <row r="510" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -7299,7 +7367,7 @@
       <c r="I510" s="2"/>
       <c r="J510" s="48"/>
     </row>
-    <row r="511" spans="1:10" ht="12">
+    <row r="511" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -7309,7 +7377,7 @@
       <c r="I511" s="2"/>
       <c r="J511" s="48"/>
     </row>
-    <row r="512" spans="1:10" ht="12">
+    <row r="512" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -7319,7 +7387,7 @@
       <c r="I512" s="2"/>
       <c r="J512" s="48"/>
     </row>
-    <row r="513" spans="1:10" ht="12">
+    <row r="513" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -7329,7 +7397,7 @@
       <c r="I513" s="2"/>
       <c r="J513" s="48"/>
     </row>
-    <row r="514" spans="1:10" ht="12">
+    <row r="514" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -7339,7 +7407,7 @@
       <c r="I514" s="2"/>
       <c r="J514" s="48"/>
     </row>
-    <row r="515" spans="1:10" ht="12">
+    <row r="515" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -7349,7 +7417,7 @@
       <c r="I515" s="2"/>
       <c r="J515" s="48"/>
     </row>
-    <row r="516" spans="1:10" ht="12">
+    <row r="516" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -7359,7 +7427,7 @@
       <c r="I516" s="2"/>
       <c r="J516" s="48"/>
     </row>
-    <row r="517" spans="1:10" ht="12">
+    <row r="517" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -7369,7 +7437,7 @@
       <c r="I517" s="2"/>
       <c r="J517" s="48"/>
     </row>
-    <row r="518" spans="1:10" ht="12">
+    <row r="518" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -7379,7 +7447,7 @@
       <c r="I518" s="2"/>
       <c r="J518" s="48"/>
     </row>
-    <row r="519" spans="1:10" ht="12">
+    <row r="519" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -7389,7 +7457,7 @@
       <c r="I519" s="2"/>
       <c r="J519" s="48"/>
     </row>
-    <row r="520" spans="1:10" ht="12">
+    <row r="520" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -7399,7 +7467,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="48"/>
     </row>
-    <row r="521" spans="1:10" ht="12">
+    <row r="521" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -7409,7 +7477,7 @@
       <c r="I521" s="2"/>
       <c r="J521" s="48"/>
     </row>
-    <row r="522" spans="1:10" ht="12">
+    <row r="522" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -7419,7 +7487,7 @@
       <c r="I522" s="2"/>
       <c r="J522" s="48"/>
     </row>
-    <row r="523" spans="1:10" ht="12">
+    <row r="523" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -7429,7 +7497,7 @@
       <c r="I523" s="2"/>
       <c r="J523" s="48"/>
     </row>
-    <row r="524" spans="1:10" ht="12">
+    <row r="524" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -7439,7 +7507,7 @@
       <c r="I524" s="2"/>
       <c r="J524" s="48"/>
     </row>
-    <row r="525" spans="1:10" ht="12">
+    <row r="525" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -7449,7 +7517,7 @@
       <c r="I525" s="2"/>
       <c r="J525" s="48"/>
     </row>
-    <row r="526" spans="1:10" ht="12">
+    <row r="526" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -7459,7 +7527,7 @@
       <c r="I526" s="2"/>
       <c r="J526" s="48"/>
     </row>
-    <row r="527" spans="1:10" ht="12">
+    <row r="527" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -7469,7 +7537,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="48"/>
     </row>
-    <row r="528" spans="1:10" ht="12">
+    <row r="528" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -7479,7 +7547,7 @@
       <c r="I528" s="2"/>
       <c r="J528" s="48"/>
     </row>
-    <row r="529" spans="1:10" ht="12">
+    <row r="529" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -7489,7 +7557,7 @@
       <c r="I529" s="2"/>
       <c r="J529" s="48"/>
     </row>
-    <row r="530" spans="1:10" ht="12">
+    <row r="530" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -7499,7 +7567,7 @@
       <c r="I530" s="2"/>
       <c r="J530" s="48"/>
     </row>
-    <row r="531" spans="1:10" ht="12">
+    <row r="531" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -7509,7 +7577,7 @@
       <c r="I531" s="2"/>
       <c r="J531" s="48"/>
     </row>
-    <row r="532" spans="1:10" ht="12">
+    <row r="532" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -7519,7 +7587,7 @@
       <c r="I532" s="2"/>
       <c r="J532" s="48"/>
     </row>
-    <row r="533" spans="1:10" ht="12">
+    <row r="533" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -7529,7 +7597,7 @@
       <c r="I533" s="2"/>
       <c r="J533" s="48"/>
     </row>
-    <row r="534" spans="1:10" ht="12">
+    <row r="534" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -7539,7 +7607,7 @@
       <c r="I534" s="2"/>
       <c r="J534" s="48"/>
     </row>
-    <row r="535" spans="1:10" ht="12">
+    <row r="535" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -7549,7 +7617,7 @@
       <c r="I535" s="2"/>
       <c r="J535" s="48"/>
     </row>
-    <row r="536" spans="1:10" ht="12">
+    <row r="536" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -7559,7 +7627,7 @@
       <c r="I536" s="2"/>
       <c r="J536" s="48"/>
     </row>
-    <row r="537" spans="1:10" ht="12">
+    <row r="537" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -7569,7 +7637,7 @@
       <c r="I537" s="2"/>
       <c r="J537" s="48"/>
     </row>
-    <row r="538" spans="1:10" ht="12">
+    <row r="538" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -7579,7 +7647,7 @@
       <c r="I538" s="2"/>
       <c r="J538" s="48"/>
     </row>
-    <row r="539" spans="1:10" ht="12">
+    <row r="539" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -7589,7 +7657,7 @@
       <c r="I539" s="2"/>
       <c r="J539" s="48"/>
     </row>
-    <row r="540" spans="1:10" ht="12">
+    <row r="540" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -7599,7 +7667,7 @@
       <c r="I540" s="2"/>
       <c r="J540" s="48"/>
     </row>
-    <row r="541" spans="1:10" ht="12">
+    <row r="541" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -7609,7 +7677,7 @@
       <c r="I541" s="2"/>
       <c r="J541" s="48"/>
     </row>
-    <row r="542" spans="1:10" ht="12">
+    <row r="542" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -7619,7 +7687,7 @@
       <c r="I542" s="2"/>
       <c r="J542" s="48"/>
     </row>
-    <row r="543" spans="1:10" ht="12">
+    <row r="543" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -7629,7 +7697,7 @@
       <c r="I543" s="2"/>
       <c r="J543" s="48"/>
     </row>
-    <row r="544" spans="1:10" ht="12">
+    <row r="544" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -7639,7 +7707,7 @@
       <c r="I544" s="2"/>
       <c r="J544" s="48"/>
     </row>
-    <row r="545" spans="1:10" ht="12">
+    <row r="545" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -7649,7 +7717,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="48"/>
     </row>
-    <row r="546" spans="1:10" ht="12">
+    <row r="546" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -7659,7 +7727,7 @@
       <c r="I546" s="2"/>
       <c r="J546" s="48"/>
     </row>
-    <row r="547" spans="1:10" ht="12">
+    <row r="547" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -7669,7 +7737,7 @@
       <c r="I547" s="2"/>
       <c r="J547" s="48"/>
     </row>
-    <row r="548" spans="1:10" ht="12">
+    <row r="548" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -7679,7 +7747,7 @@
       <c r="I548" s="2"/>
       <c r="J548" s="48"/>
     </row>
-    <row r="549" spans="1:10" ht="12">
+    <row r="549" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -7689,7 +7757,7 @@
       <c r="I549" s="2"/>
       <c r="J549" s="48"/>
     </row>
-    <row r="550" spans="1:10" ht="12">
+    <row r="550" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -7699,7 +7767,7 @@
       <c r="I550" s="2"/>
       <c r="J550" s="48"/>
     </row>
-    <row r="551" spans="1:10" ht="12">
+    <row r="551" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -7709,7 +7777,7 @@
       <c r="I551" s="2"/>
       <c r="J551" s="48"/>
     </row>
-    <row r="552" spans="1:10" ht="12">
+    <row r="552" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -7719,7 +7787,7 @@
       <c r="I552" s="2"/>
       <c r="J552" s="48"/>
     </row>
-    <row r="553" spans="1:10" ht="12">
+    <row r="553" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -7729,7 +7797,7 @@
       <c r="I553" s="2"/>
       <c r="J553" s="48"/>
     </row>
-    <row r="554" spans="1:10" ht="12">
+    <row r="554" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -7739,7 +7807,7 @@
       <c r="I554" s="2"/>
       <c r="J554" s="48"/>
     </row>
-    <row r="555" spans="1:10" ht="12">
+    <row r="555" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -7749,7 +7817,7 @@
       <c r="I555" s="2"/>
       <c r="J555" s="48"/>
     </row>
-    <row r="556" spans="1:10" ht="12">
+    <row r="556" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -7759,7 +7827,7 @@
       <c r="I556" s="2"/>
       <c r="J556" s="48"/>
     </row>
-    <row r="557" spans="1:10" ht="12">
+    <row r="557" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -7769,7 +7837,7 @@
       <c r="I557" s="2"/>
       <c r="J557" s="48"/>
     </row>
-    <row r="558" spans="1:10" ht="12">
+    <row r="558" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -7779,7 +7847,7 @@
       <c r="I558" s="2"/>
       <c r="J558" s="48"/>
     </row>
-    <row r="559" spans="1:10" ht="12">
+    <row r="559" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -7789,7 +7857,7 @@
       <c r="I559" s="2"/>
       <c r="J559" s="48"/>
     </row>
-    <row r="560" spans="1:10" ht="12">
+    <row r="560" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -7799,7 +7867,7 @@
       <c r="I560" s="2"/>
       <c r="J560" s="48"/>
     </row>
-    <row r="561" spans="1:10" ht="12">
+    <row r="561" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -7809,7 +7877,7 @@
       <c r="I561" s="2"/>
       <c r="J561" s="48"/>
     </row>
-    <row r="562" spans="1:10" ht="12">
+    <row r="562" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -7819,7 +7887,7 @@
       <c r="I562" s="2"/>
       <c r="J562" s="48"/>
     </row>
-    <row r="563" spans="1:10" ht="12">
+    <row r="563" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -7829,7 +7897,7 @@
       <c r="I563" s="2"/>
       <c r="J563" s="48"/>
     </row>
-    <row r="564" spans="1:10" ht="12">
+    <row r="564" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -7839,7 +7907,7 @@
       <c r="I564" s="2"/>
       <c r="J564" s="48"/>
     </row>
-    <row r="565" spans="1:10" ht="12">
+    <row r="565" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -7849,7 +7917,7 @@
       <c r="I565" s="2"/>
       <c r="J565" s="48"/>
     </row>
-    <row r="566" spans="1:10" ht="12">
+    <row r="566" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -7859,7 +7927,7 @@
       <c r="I566" s="2"/>
       <c r="J566" s="48"/>
     </row>
-    <row r="567" spans="1:10" ht="12">
+    <row r="567" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -7869,7 +7937,7 @@
       <c r="I567" s="2"/>
       <c r="J567" s="48"/>
     </row>
-    <row r="568" spans="1:10" ht="12">
+    <row r="568" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -7879,7 +7947,7 @@
       <c r="I568" s="2"/>
       <c r="J568" s="48"/>
     </row>
-    <row r="569" spans="1:10" ht="12">
+    <row r="569" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -7889,7 +7957,7 @@
       <c r="I569" s="2"/>
       <c r="J569" s="48"/>
     </row>
-    <row r="570" spans="1:10" ht="12">
+    <row r="570" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -7899,7 +7967,7 @@
       <c r="I570" s="2"/>
       <c r="J570" s="48"/>
     </row>
-    <row r="571" spans="1:10" ht="12">
+    <row r="571" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -7909,7 +7977,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="48"/>
     </row>
-    <row r="572" spans="1:10" ht="12">
+    <row r="572" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -7919,7 +7987,7 @@
       <c r="I572" s="2"/>
       <c r="J572" s="48"/>
     </row>
-    <row r="573" spans="1:10" ht="12">
+    <row r="573" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -7929,7 +7997,7 @@
       <c r="I573" s="2"/>
       <c r="J573" s="48"/>
     </row>
-    <row r="574" spans="1:10" ht="12">
+    <row r="574" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -7939,7 +8007,7 @@
       <c r="I574" s="2"/>
       <c r="J574" s="48"/>
     </row>
-    <row r="575" spans="1:10" ht="12">
+    <row r="575" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -7949,7 +8017,7 @@
       <c r="I575" s="2"/>
       <c r="J575" s="48"/>
     </row>
-    <row r="576" spans="1:10" ht="12">
+    <row r="576" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -7959,7 +8027,7 @@
       <c r="I576" s="2"/>
       <c r="J576" s="48"/>
     </row>
-    <row r="577" spans="1:10" ht="12">
+    <row r="577" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -7969,7 +8037,7 @@
       <c r="I577" s="2"/>
       <c r="J577" s="48"/>
     </row>
-    <row r="578" spans="1:10" ht="12">
+    <row r="578" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -7979,7 +8047,7 @@
       <c r="I578" s="2"/>
       <c r="J578" s="48"/>
     </row>
-    <row r="579" spans="1:10" ht="12">
+    <row r="579" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -7989,7 +8057,7 @@
       <c r="I579" s="2"/>
       <c r="J579" s="48"/>
     </row>
-    <row r="580" spans="1:10" ht="12">
+    <row r="580" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -7999,7 +8067,7 @@
       <c r="I580" s="2"/>
       <c r="J580" s="48"/>
     </row>
-    <row r="581" spans="1:10" ht="12">
+    <row r="581" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -8009,7 +8077,7 @@
       <c r="I581" s="2"/>
       <c r="J581" s="48"/>
     </row>
-    <row r="582" spans="1:10" ht="12">
+    <row r="582" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -8019,7 +8087,7 @@
       <c r="I582" s="2"/>
       <c r="J582" s="48"/>
     </row>
-    <row r="583" spans="1:10" ht="12">
+    <row r="583" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -8029,7 +8097,7 @@
       <c r="I583" s="2"/>
       <c r="J583" s="48"/>
     </row>
-    <row r="584" spans="1:10" ht="12">
+    <row r="584" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -8039,7 +8107,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="48"/>
     </row>
-    <row r="585" spans="1:10" ht="12">
+    <row r="585" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -8049,7 +8117,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="48"/>
     </row>
-    <row r="586" spans="1:10" ht="12">
+    <row r="586" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -8059,7 +8127,7 @@
       <c r="I586" s="2"/>
       <c r="J586" s="48"/>
     </row>
-    <row r="587" spans="1:10" ht="12">
+    <row r="587" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -8069,7 +8137,7 @@
       <c r="I587" s="2"/>
       <c r="J587" s="48"/>
     </row>
-    <row r="588" spans="1:10" ht="12">
+    <row r="588" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -8079,7 +8147,7 @@
       <c r="I588" s="2"/>
       <c r="J588" s="48"/>
     </row>
-    <row r="589" spans="1:10" ht="12">
+    <row r="589" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -8089,7 +8157,7 @@
       <c r="I589" s="2"/>
       <c r="J589" s="48"/>
     </row>
-    <row r="590" spans="1:10" ht="12">
+    <row r="590" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -8099,7 +8167,7 @@
       <c r="I590" s="2"/>
       <c r="J590" s="48"/>
     </row>
-    <row r="591" spans="1:10" ht="12">
+    <row r="591" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -8109,7 +8177,7 @@
       <c r="I591" s="2"/>
       <c r="J591" s="48"/>
     </row>
-    <row r="592" spans="1:10" ht="12">
+    <row r="592" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -8119,7 +8187,7 @@
       <c r="I592" s="2"/>
       <c r="J592" s="48"/>
     </row>
-    <row r="593" spans="1:10" ht="12">
+    <row r="593" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -8129,7 +8197,7 @@
       <c r="I593" s="2"/>
       <c r="J593" s="48"/>
     </row>
-    <row r="594" spans="1:10" ht="12">
+    <row r="594" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -8139,7 +8207,7 @@
       <c r="I594" s="2"/>
       <c r="J594" s="48"/>
     </row>
-    <row r="595" spans="1:10" ht="12">
+    <row r="595" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -8149,7 +8217,7 @@
       <c r="I595" s="2"/>
       <c r="J595" s="48"/>
     </row>
-    <row r="596" spans="1:10" ht="12">
+    <row r="596" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -8159,7 +8227,7 @@
       <c r="I596" s="2"/>
       <c r="J596" s="48"/>
     </row>
-    <row r="597" spans="1:10" ht="12">
+    <row r="597" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -8169,7 +8237,7 @@
       <c r="I597" s="2"/>
       <c r="J597" s="48"/>
     </row>
-    <row r="598" spans="1:10" ht="12">
+    <row r="598" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -8179,7 +8247,7 @@
       <c r="I598" s="2"/>
       <c r="J598" s="48"/>
     </row>
-    <row r="599" spans="1:10" ht="12">
+    <row r="599" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -8189,7 +8257,7 @@
       <c r="I599" s="2"/>
       <c r="J599" s="48"/>
     </row>
-    <row r="600" spans="1:10" ht="12">
+    <row r="600" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -8199,7 +8267,7 @@
       <c r="I600" s="2"/>
       <c r="J600" s="48"/>
     </row>
-    <row r="601" spans="1:10" ht="12">
+    <row r="601" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -8209,7 +8277,7 @@
       <c r="I601" s="2"/>
       <c r="J601" s="48"/>
     </row>
-    <row r="602" spans="1:10" ht="12">
+    <row r="602" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -8219,7 +8287,7 @@
       <c r="I602" s="2"/>
       <c r="J602" s="48"/>
     </row>
-    <row r="603" spans="1:10" ht="12">
+    <row r="603" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -8229,7 +8297,7 @@
       <c r="I603" s="2"/>
       <c r="J603" s="48"/>
     </row>
-    <row r="604" spans="1:10" ht="12">
+    <row r="604" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -8239,7 +8307,7 @@
       <c r="I604" s="2"/>
       <c r="J604" s="48"/>
     </row>
-    <row r="605" spans="1:10" ht="12">
+    <row r="605" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -8249,7 +8317,7 @@
       <c r="I605" s="2"/>
       <c r="J605" s="48"/>
     </row>
-    <row r="606" spans="1:10" ht="12">
+    <row r="606" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -8259,7 +8327,7 @@
       <c r="I606" s="2"/>
       <c r="J606" s="48"/>
     </row>
-    <row r="607" spans="1:10" ht="12">
+    <row r="607" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -8269,7 +8337,7 @@
       <c r="I607" s="2"/>
       <c r="J607" s="48"/>
     </row>
-    <row r="608" spans="1:10" ht="12">
+    <row r="608" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -8279,7 +8347,7 @@
       <c r="I608" s="2"/>
       <c r="J608" s="48"/>
     </row>
-    <row r="609" spans="1:10" ht="12">
+    <row r="609" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -8289,7 +8357,7 @@
       <c r="I609" s="2"/>
       <c r="J609" s="48"/>
     </row>
-    <row r="610" spans="1:10" ht="12">
+    <row r="610" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -8299,7 +8367,7 @@
       <c r="I610" s="2"/>
       <c r="J610" s="48"/>
     </row>
-    <row r="611" spans="1:10" ht="12">
+    <row r="611" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -8309,7 +8377,7 @@
       <c r="I611" s="2"/>
       <c r="J611" s="48"/>
     </row>
-    <row r="612" spans="1:10" ht="12">
+    <row r="612" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -8319,7 +8387,7 @@
       <c r="I612" s="2"/>
       <c r="J612" s="48"/>
     </row>
-    <row r="613" spans="1:10" ht="12">
+    <row r="613" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -8329,7 +8397,7 @@
       <c r="I613" s="2"/>
       <c r="J613" s="48"/>
     </row>
-    <row r="614" spans="1:10" ht="12">
+    <row r="614" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -8339,7 +8407,7 @@
       <c r="I614" s="2"/>
       <c r="J614" s="48"/>
     </row>
-    <row r="615" spans="1:10" ht="12">
+    <row r="615" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -8349,7 +8417,7 @@
       <c r="I615" s="2"/>
       <c r="J615" s="48"/>
     </row>
-    <row r="616" spans="1:10" ht="12">
+    <row r="616" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -8359,7 +8427,7 @@
       <c r="I616" s="2"/>
       <c r="J616" s="48"/>
     </row>
-    <row r="617" spans="1:10" ht="12">
+    <row r="617" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -8369,7 +8437,7 @@
       <c r="I617" s="2"/>
       <c r="J617" s="48"/>
     </row>
-    <row r="618" spans="1:10" ht="12">
+    <row r="618" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -8379,7 +8447,7 @@
       <c r="I618" s="2"/>
       <c r="J618" s="48"/>
     </row>
-    <row r="619" spans="1:10" ht="12">
+    <row r="619" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -8389,7 +8457,7 @@
       <c r="I619" s="2"/>
       <c r="J619" s="48"/>
     </row>
-    <row r="620" spans="1:10" ht="12">
+    <row r="620" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -8399,7 +8467,7 @@
       <c r="I620" s="2"/>
       <c r="J620" s="48"/>
     </row>
-    <row r="621" spans="1:10" ht="12">
+    <row r="621" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -8409,7 +8477,7 @@
       <c r="I621" s="2"/>
       <c r="J621" s="48"/>
     </row>
-    <row r="622" spans="1:10" ht="12">
+    <row r="622" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -8419,7 +8487,7 @@
       <c r="I622" s="2"/>
       <c r="J622" s="48"/>
     </row>
-    <row r="623" spans="1:10" ht="12">
+    <row r="623" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -8429,7 +8497,7 @@
       <c r="I623" s="2"/>
       <c r="J623" s="48"/>
     </row>
-    <row r="624" spans="1:10" ht="12">
+    <row r="624" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -8439,7 +8507,7 @@
       <c r="I624" s="2"/>
       <c r="J624" s="48"/>
     </row>
-    <row r="625" spans="1:10" ht="12">
+    <row r="625" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -8449,7 +8517,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="48"/>
     </row>
-    <row r="626" spans="1:10" ht="12">
+    <row r="626" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -8459,7 +8527,7 @@
       <c r="I626" s="2"/>
       <c r="J626" s="48"/>
     </row>
-    <row r="627" spans="1:10" ht="12">
+    <row r="627" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -8469,7 +8537,7 @@
       <c r="I627" s="2"/>
       <c r="J627" s="48"/>
     </row>
-    <row r="628" spans="1:10" ht="12">
+    <row r="628" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -8479,7 +8547,7 @@
       <c r="I628" s="2"/>
       <c r="J628" s="48"/>
     </row>
-    <row r="629" spans="1:10" ht="12">
+    <row r="629" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -8489,7 +8557,7 @@
       <c r="I629" s="2"/>
       <c r="J629" s="48"/>
     </row>
-    <row r="630" spans="1:10" ht="12">
+    <row r="630" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -8499,7 +8567,7 @@
       <c r="I630" s="2"/>
       <c r="J630" s="48"/>
     </row>
-    <row r="631" spans="1:10" ht="12">
+    <row r="631" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -8509,7 +8577,7 @@
       <c r="I631" s="2"/>
       <c r="J631" s="48"/>
     </row>
-    <row r="632" spans="1:10" ht="12">
+    <row r="632" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -8519,7 +8587,7 @@
       <c r="I632" s="2"/>
       <c r="J632" s="48"/>
     </row>
-    <row r="633" spans="1:10" ht="12">
+    <row r="633" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -8529,7 +8597,7 @@
       <c r="I633" s="2"/>
       <c r="J633" s="48"/>
     </row>
-    <row r="634" spans="1:10" ht="12">
+    <row r="634" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -8539,7 +8607,7 @@
       <c r="I634" s="2"/>
       <c r="J634" s="48"/>
     </row>
-    <row r="635" spans="1:10" ht="12">
+    <row r="635" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -8549,7 +8617,7 @@
       <c r="I635" s="2"/>
       <c r="J635" s="48"/>
     </row>
-    <row r="636" spans="1:10" ht="12">
+    <row r="636" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -8559,7 +8627,7 @@
       <c r="I636" s="2"/>
       <c r="J636" s="48"/>
     </row>
-    <row r="637" spans="1:10" ht="12">
+    <row r="637" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -8569,7 +8637,7 @@
       <c r="I637" s="2"/>
       <c r="J637" s="48"/>
     </row>
-    <row r="638" spans="1:10" ht="12">
+    <row r="638" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -8579,7 +8647,7 @@
       <c r="I638" s="2"/>
       <c r="J638" s="48"/>
     </row>
-    <row r="639" spans="1:10" ht="12">
+    <row r="639" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -8589,7 +8657,7 @@
       <c r="I639" s="2"/>
       <c r="J639" s="48"/>
     </row>
-    <row r="640" spans="1:10" ht="12">
+    <row r="640" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -8599,7 +8667,7 @@
       <c r="I640" s="2"/>
       <c r="J640" s="48"/>
     </row>
-    <row r="641" spans="1:10" ht="12">
+    <row r="641" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -8609,7 +8677,7 @@
       <c r="I641" s="2"/>
       <c r="J641" s="48"/>
     </row>
-    <row r="642" spans="1:10" ht="12">
+    <row r="642" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -8619,7 +8687,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="48"/>
     </row>
-    <row r="643" spans="1:10" ht="12">
+    <row r="643" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -8629,7 +8697,7 @@
       <c r="I643" s="2"/>
       <c r="J643" s="48"/>
     </row>
-    <row r="644" spans="1:10" ht="12">
+    <row r="644" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -8639,7 +8707,7 @@
       <c r="I644" s="2"/>
       <c r="J644" s="48"/>
     </row>
-    <row r="645" spans="1:10" ht="12">
+    <row r="645" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -8649,7 +8717,7 @@
       <c r="I645" s="2"/>
       <c r="J645" s="48"/>
     </row>
-    <row r="646" spans="1:10" ht="12">
+    <row r="646" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -8659,7 +8727,7 @@
       <c r="I646" s="2"/>
       <c r="J646" s="48"/>
     </row>
-    <row r="647" spans="1:10" ht="12">
+    <row r="647" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -8669,7 +8737,7 @@
       <c r="I647" s="2"/>
       <c r="J647" s="48"/>
     </row>
-    <row r="648" spans="1:10" ht="12">
+    <row r="648" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -8679,7 +8747,7 @@
       <c r="I648" s="2"/>
       <c r="J648" s="48"/>
     </row>
-    <row r="649" spans="1:10" ht="12">
+    <row r="649" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -8689,7 +8757,7 @@
       <c r="I649" s="2"/>
       <c r="J649" s="48"/>
     </row>
-    <row r="650" spans="1:10" ht="12">
+    <row r="650" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -8699,7 +8767,7 @@
       <c r="I650" s="2"/>
       <c r="J650" s="48"/>
     </row>
-    <row r="651" spans="1:10" ht="12">
+    <row r="651" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -8709,7 +8777,7 @@
       <c r="I651" s="2"/>
       <c r="J651" s="48"/>
     </row>
-    <row r="652" spans="1:10" ht="12">
+    <row r="652" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -8719,7 +8787,7 @@
       <c r="I652" s="2"/>
       <c r="J652" s="48"/>
     </row>
-    <row r="653" spans="1:10" ht="12">
+    <row r="653" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -8729,7 +8797,7 @@
       <c r="I653" s="2"/>
       <c r="J653" s="48"/>
     </row>
-    <row r="654" spans="1:10" ht="12">
+    <row r="654" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -8739,7 +8807,7 @@
       <c r="I654" s="2"/>
       <c r="J654" s="48"/>
     </row>
-    <row r="655" spans="1:10" ht="12">
+    <row r="655" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -8749,7 +8817,7 @@
       <c r="I655" s="2"/>
       <c r="J655" s="48"/>
     </row>
-    <row r="656" spans="1:10" ht="12">
+    <row r="656" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -8759,7 +8827,7 @@
       <c r="I656" s="2"/>
       <c r="J656" s="48"/>
     </row>
-    <row r="657" spans="1:10" ht="12">
+    <row r="657" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -8769,7 +8837,7 @@
       <c r="I657" s="2"/>
       <c r="J657" s="48"/>
     </row>
-    <row r="658" spans="1:10" ht="12">
+    <row r="658" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -8779,7 +8847,7 @@
       <c r="I658" s="2"/>
       <c r="J658" s="48"/>
     </row>
-    <row r="659" spans="1:10" ht="12">
+    <row r="659" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -8789,7 +8857,7 @@
       <c r="I659" s="2"/>
       <c r="J659" s="48"/>
     </row>
-    <row r="660" spans="1:10" ht="12">
+    <row r="660" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -8799,7 +8867,7 @@
       <c r="I660" s="2"/>
       <c r="J660" s="48"/>
     </row>
-    <row r="661" spans="1:10" ht="12">
+    <row r="661" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -8809,7 +8877,7 @@
       <c r="I661" s="2"/>
       <c r="J661" s="48"/>
     </row>
-    <row r="662" spans="1:10" ht="12">
+    <row r="662" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -8819,7 +8887,7 @@
       <c r="I662" s="2"/>
       <c r="J662" s="48"/>
     </row>
-    <row r="663" spans="1:10" ht="12">
+    <row r="663" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -8829,7 +8897,7 @@
       <c r="I663" s="2"/>
       <c r="J663" s="48"/>
     </row>
-    <row r="664" spans="1:10" ht="12">
+    <row r="664" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -8839,7 +8907,7 @@
       <c r="I664" s="2"/>
       <c r="J664" s="48"/>
     </row>
-    <row r="665" spans="1:10" ht="12">
+    <row r="665" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -8849,7 +8917,7 @@
       <c r="I665" s="2"/>
       <c r="J665" s="48"/>
     </row>
-    <row r="666" spans="1:10" ht="12">
+    <row r="666" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -8859,7 +8927,7 @@
       <c r="I666" s="2"/>
       <c r="J666" s="48"/>
     </row>
-    <row r="667" spans="1:10" ht="12">
+    <row r="667" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -8869,7 +8937,7 @@
       <c r="I667" s="2"/>
       <c r="J667" s="48"/>
     </row>
-    <row r="668" spans="1:10" ht="12">
+    <row r="668" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -8879,7 +8947,7 @@
       <c r="I668" s="2"/>
       <c r="J668" s="48"/>
     </row>
-    <row r="669" spans="1:10" ht="12">
+    <row r="669" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -8889,7 +8957,7 @@
       <c r="I669" s="2"/>
       <c r="J669" s="48"/>
     </row>
-    <row r="670" spans="1:10" ht="12">
+    <row r="670" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -8899,7 +8967,7 @@
       <c r="I670" s="2"/>
       <c r="J670" s="48"/>
     </row>
-    <row r="671" spans="1:10" ht="12">
+    <row r="671" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -8909,7 +8977,7 @@
       <c r="I671" s="2"/>
       <c r="J671" s="48"/>
     </row>
-    <row r="672" spans="1:10" ht="12">
+    <row r="672" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -8919,7 +8987,7 @@
       <c r="I672" s="2"/>
       <c r="J672" s="48"/>
     </row>
-    <row r="673" spans="1:10" ht="12">
+    <row r="673" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -8929,7 +8997,7 @@
       <c r="I673" s="2"/>
       <c r="J673" s="48"/>
     </row>
-    <row r="674" spans="1:10" ht="12">
+    <row r="674" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -8939,7 +9007,7 @@
       <c r="I674" s="2"/>
       <c r="J674" s="48"/>
     </row>
-    <row r="675" spans="1:10" ht="12">
+    <row r="675" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -8949,7 +9017,7 @@
       <c r="I675" s="2"/>
       <c r="J675" s="48"/>
     </row>
-    <row r="676" spans="1:10" ht="12">
+    <row r="676" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -8959,7 +9027,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="48"/>
     </row>
-    <row r="677" spans="1:10" ht="12">
+    <row r="677" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -8969,7 +9037,7 @@
       <c r="I677" s="2"/>
       <c r="J677" s="48"/>
     </row>
-    <row r="678" spans="1:10" ht="12">
+    <row r="678" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -8979,7 +9047,7 @@
       <c r="I678" s="2"/>
       <c r="J678" s="48"/>
     </row>
-    <row r="679" spans="1:10" ht="12">
+    <row r="679" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -8989,7 +9057,7 @@
       <c r="I679" s="2"/>
       <c r="J679" s="48"/>
     </row>
-    <row r="680" spans="1:10" ht="12">
+    <row r="680" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -8999,7 +9067,7 @@
       <c r="I680" s="2"/>
       <c r="J680" s="48"/>
     </row>
-    <row r="681" spans="1:10" ht="12">
+    <row r="681" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -9009,7 +9077,7 @@
       <c r="I681" s="2"/>
       <c r="J681" s="48"/>
     </row>
-    <row r="682" spans="1:10" ht="12">
+    <row r="682" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -9019,7 +9087,7 @@
       <c r="I682" s="2"/>
       <c r="J682" s="48"/>
     </row>
-    <row r="683" spans="1:10" ht="12">
+    <row r="683" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -9029,7 +9097,7 @@
       <c r="I683" s="2"/>
       <c r="J683" s="48"/>
     </row>
-    <row r="684" spans="1:10" ht="12">
+    <row r="684" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -9039,7 +9107,7 @@
       <c r="I684" s="2"/>
       <c r="J684" s="48"/>
     </row>
-    <row r="685" spans="1:10" ht="12">
+    <row r="685" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -9049,7 +9117,7 @@
       <c r="I685" s="2"/>
       <c r="J685" s="48"/>
     </row>
-    <row r="686" spans="1:10" ht="12">
+    <row r="686" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -9059,7 +9127,7 @@
       <c r="I686" s="2"/>
       <c r="J686" s="48"/>
     </row>
-    <row r="687" spans="1:10" ht="12">
+    <row r="687" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -9069,7 +9137,7 @@
       <c r="I687" s="2"/>
       <c r="J687" s="48"/>
     </row>
-    <row r="688" spans="1:10" ht="12">
+    <row r="688" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -9079,7 +9147,7 @@
       <c r="I688" s="2"/>
       <c r="J688" s="48"/>
     </row>
-    <row r="689" spans="1:10" ht="12">
+    <row r="689" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -9089,7 +9157,7 @@
       <c r="I689" s="2"/>
       <c r="J689" s="48"/>
     </row>
-    <row r="690" spans="1:10" ht="12">
+    <row r="690" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -9099,7 +9167,7 @@
       <c r="I690" s="2"/>
       <c r="J690" s="48"/>
     </row>
-    <row r="691" spans="1:10" ht="12">
+    <row r="691" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -9109,7 +9177,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="48"/>
     </row>
-    <row r="692" spans="1:10" ht="12">
+    <row r="692" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -9119,7 +9187,7 @@
       <c r="I692" s="2"/>
       <c r="J692" s="48"/>
     </row>
-    <row r="693" spans="1:10" ht="12">
+    <row r="693" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -9129,7 +9197,7 @@
       <c r="I693" s="2"/>
       <c r="J693" s="48"/>
     </row>
-    <row r="694" spans="1:10" ht="12">
+    <row r="694" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -9139,7 +9207,7 @@
       <c r="I694" s="2"/>
       <c r="J694" s="48"/>
     </row>
-    <row r="695" spans="1:10" ht="12">
+    <row r="695" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -9149,7 +9217,7 @@
       <c r="I695" s="2"/>
       <c r="J695" s="48"/>
     </row>
-    <row r="696" spans="1:10" ht="12">
+    <row r="696" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -9159,7 +9227,7 @@
       <c r="I696" s="2"/>
       <c r="J696" s="48"/>
     </row>
-    <row r="697" spans="1:10" ht="12">
+    <row r="697" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -9169,7 +9237,7 @@
       <c r="I697" s="2"/>
       <c r="J697" s="48"/>
     </row>
-    <row r="698" spans="1:10" ht="12">
+    <row r="698" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -9179,7 +9247,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="48"/>
     </row>
-    <row r="699" spans="1:10" ht="12">
+    <row r="699" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -9189,7 +9257,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="48"/>
     </row>
-    <row r="700" spans="1:10" ht="12">
+    <row r="700" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -9199,7 +9267,7 @@
       <c r="I700" s="2"/>
       <c r="J700" s="48"/>
     </row>
-    <row r="701" spans="1:10" ht="12">
+    <row r="701" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -9209,7 +9277,7 @@
       <c r="I701" s="2"/>
       <c r="J701" s="48"/>
     </row>
-    <row r="702" spans="1:10" ht="12">
+    <row r="702" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -9219,7 +9287,7 @@
       <c r="I702" s="2"/>
       <c r="J702" s="48"/>
     </row>
-    <row r="703" spans="1:10" ht="12">
+    <row r="703" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -9229,7 +9297,7 @@
       <c r="I703" s="2"/>
       <c r="J703" s="48"/>
     </row>
-    <row r="704" spans="1:10" ht="12">
+    <row r="704" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -9239,7 +9307,7 @@
       <c r="I704" s="2"/>
       <c r="J704" s="48"/>
     </row>
-    <row r="705" spans="1:10" ht="12">
+    <row r="705" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -9249,7 +9317,7 @@
       <c r="I705" s="2"/>
       <c r="J705" s="48"/>
     </row>
-    <row r="706" spans="1:10" ht="12">
+    <row r="706" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -9259,7 +9327,7 @@
       <c r="I706" s="2"/>
       <c r="J706" s="48"/>
     </row>
-    <row r="707" spans="1:10" ht="12">
+    <row r="707" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -9269,7 +9337,7 @@
       <c r="I707" s="2"/>
       <c r="J707" s="48"/>
     </row>
-    <row r="708" spans="1:10" ht="12">
+    <row r="708" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -9279,7 +9347,7 @@
       <c r="I708" s="2"/>
       <c r="J708" s="48"/>
     </row>
-    <row r="709" spans="1:10" ht="12">
+    <row r="709" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -9289,7 +9357,7 @@
       <c r="I709" s="2"/>
       <c r="J709" s="48"/>
     </row>
-    <row r="710" spans="1:10" ht="12">
+    <row r="710" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -9299,7 +9367,7 @@
       <c r="I710" s="2"/>
       <c r="J710" s="48"/>
     </row>
-    <row r="711" spans="1:10" ht="12">
+    <row r="711" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -9309,7 +9377,7 @@
       <c r="I711" s="2"/>
       <c r="J711" s="48"/>
     </row>
-    <row r="712" spans="1:10" ht="12">
+    <row r="712" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -9319,7 +9387,7 @@
       <c r="I712" s="2"/>
       <c r="J712" s="48"/>
     </row>
-    <row r="713" spans="1:10" ht="12">
+    <row r="713" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -9329,7 +9397,7 @@
       <c r="I713" s="2"/>
       <c r="J713" s="48"/>
     </row>
-    <row r="714" spans="1:10" ht="12">
+    <row r="714" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -9339,7 +9407,7 @@
       <c r="I714" s="2"/>
       <c r="J714" s="48"/>
     </row>
-    <row r="715" spans="1:10" ht="12">
+    <row r="715" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -9349,7 +9417,7 @@
       <c r="I715" s="2"/>
       <c r="J715" s="48"/>
     </row>
-    <row r="716" spans="1:10" ht="12">
+    <row r="716" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -9359,7 +9427,7 @@
       <c r="I716" s="2"/>
       <c r="J716" s="48"/>
     </row>
-    <row r="717" spans="1:10" ht="12">
+    <row r="717" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -9369,7 +9437,7 @@
       <c r="I717" s="2"/>
       <c r="J717" s="48"/>
     </row>
-    <row r="718" spans="1:10" ht="12">
+    <row r="718" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -9379,7 +9447,7 @@
       <c r="I718" s="2"/>
       <c r="J718" s="48"/>
     </row>
-    <row r="719" spans="1:10" ht="12">
+    <row r="719" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -9389,7 +9457,7 @@
       <c r="I719" s="2"/>
       <c r="J719" s="48"/>
     </row>
-    <row r="720" spans="1:10" ht="12">
+    <row r="720" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -9399,7 +9467,7 @@
       <c r="I720" s="2"/>
       <c r="J720" s="48"/>
     </row>
-    <row r="721" spans="1:10" ht="12">
+    <row r="721" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -9409,7 +9477,7 @@
       <c r="I721" s="2"/>
       <c r="J721" s="48"/>
     </row>
-    <row r="722" spans="1:10" ht="12">
+    <row r="722" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -9419,7 +9487,7 @@
       <c r="I722" s="2"/>
       <c r="J722" s="48"/>
     </row>
-    <row r="723" spans="1:10" ht="12">
+    <row r="723" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -9429,7 +9497,7 @@
       <c r="I723" s="2"/>
       <c r="J723" s="48"/>
     </row>
-    <row r="724" spans="1:10" ht="12">
+    <row r="724" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -9439,7 +9507,7 @@
       <c r="I724" s="2"/>
       <c r="J724" s="48"/>
     </row>
-    <row r="725" spans="1:10" ht="12">
+    <row r="725" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -9449,7 +9517,7 @@
       <c r="I725" s="2"/>
       <c r="J725" s="48"/>
     </row>
-    <row r="726" spans="1:10" ht="12">
+    <row r="726" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -9459,7 +9527,7 @@
       <c r="I726" s="2"/>
       <c r="J726" s="48"/>
     </row>
-    <row r="727" spans="1:10" ht="12">
+    <row r="727" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -9469,7 +9537,7 @@
       <c r="I727" s="2"/>
       <c r="J727" s="48"/>
     </row>
-    <row r="728" spans="1:10" ht="12">
+    <row r="728" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -9479,7 +9547,7 @@
       <c r="I728" s="2"/>
       <c r="J728" s="48"/>
     </row>
-    <row r="729" spans="1:10" ht="12">
+    <row r="729" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -9489,7 +9557,7 @@
       <c r="I729" s="2"/>
       <c r="J729" s="48"/>
     </row>
-    <row r="730" spans="1:10" ht="12">
+    <row r="730" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -9499,7 +9567,7 @@
       <c r="I730" s="2"/>
       <c r="J730" s="48"/>
     </row>
-    <row r="731" spans="1:10" ht="12">
+    <row r="731" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -9509,7 +9577,7 @@
       <c r="I731" s="2"/>
       <c r="J731" s="48"/>
     </row>
-    <row r="732" spans="1:10" ht="12">
+    <row r="732" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -9519,7 +9587,7 @@
       <c r="I732" s="2"/>
       <c r="J732" s="48"/>
     </row>
-    <row r="733" spans="1:10" ht="12">
+    <row r="733" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -9529,7 +9597,7 @@
       <c r="I733" s="2"/>
       <c r="J733" s="48"/>
     </row>
-    <row r="734" spans="1:10" ht="12">
+    <row r="734" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -9539,7 +9607,7 @@
       <c r="I734" s="2"/>
       <c r="J734" s="48"/>
     </row>
-    <row r="735" spans="1:10" ht="12">
+    <row r="735" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -9549,7 +9617,7 @@
       <c r="I735" s="2"/>
       <c r="J735" s="48"/>
     </row>
-    <row r="736" spans="1:10" ht="12">
+    <row r="736" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -9559,7 +9627,7 @@
       <c r="I736" s="2"/>
       <c r="J736" s="48"/>
     </row>
-    <row r="737" spans="1:10" ht="12">
+    <row r="737" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -9569,7 +9637,7 @@
       <c r="I737" s="2"/>
       <c r="J737" s="48"/>
     </row>
-    <row r="738" spans="1:10" ht="12">
+    <row r="738" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -9579,7 +9647,7 @@
       <c r="I738" s="2"/>
       <c r="J738" s="48"/>
     </row>
-    <row r="739" spans="1:10" ht="12">
+    <row r="739" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -9589,7 +9657,7 @@
       <c r="I739" s="2"/>
       <c r="J739" s="48"/>
     </row>
-    <row r="740" spans="1:10" ht="12">
+    <row r="740" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -9599,7 +9667,7 @@
       <c r="I740" s="2"/>
       <c r="J740" s="48"/>
     </row>
-    <row r="741" spans="1:10" ht="12">
+    <row r="741" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -9609,7 +9677,7 @@
       <c r="I741" s="2"/>
       <c r="J741" s="48"/>
     </row>
-    <row r="742" spans="1:10" ht="12">
+    <row r="742" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -9619,7 +9687,7 @@
       <c r="I742" s="2"/>
       <c r="J742" s="48"/>
     </row>
-    <row r="743" spans="1:10" ht="12">
+    <row r="743" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -9629,7 +9697,7 @@
       <c r="I743" s="2"/>
       <c r="J743" s="48"/>
     </row>
-    <row r="744" spans="1:10" ht="12">
+    <row r="744" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -9639,7 +9707,7 @@
       <c r="I744" s="2"/>
       <c r="J744" s="48"/>
     </row>
-    <row r="745" spans="1:10" ht="12">
+    <row r="745" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -9649,7 +9717,7 @@
       <c r="I745" s="2"/>
       <c r="J745" s="48"/>
     </row>
-    <row r="746" spans="1:10" ht="12">
+    <row r="746" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -9659,7 +9727,7 @@
       <c r="I746" s="2"/>
       <c r="J746" s="48"/>
     </row>
-    <row r="747" spans="1:10" ht="12">
+    <row r="747" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -9669,7 +9737,7 @@
       <c r="I747" s="2"/>
       <c r="J747" s="48"/>
     </row>
-    <row r="748" spans="1:10" ht="12">
+    <row r="748" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -9679,7 +9747,7 @@
       <c r="I748" s="2"/>
       <c r="J748" s="48"/>
     </row>
-    <row r="749" spans="1:10" ht="12">
+    <row r="749" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -9689,7 +9757,7 @@
       <c r="I749" s="2"/>
       <c r="J749" s="48"/>
     </row>
-    <row r="750" spans="1:10" ht="12">
+    <row r="750" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -9699,7 +9767,7 @@
       <c r="I750" s="2"/>
       <c r="J750" s="48"/>
     </row>
-    <row r="751" spans="1:10" ht="12">
+    <row r="751" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -9709,7 +9777,7 @@
       <c r="I751" s="2"/>
       <c r="J751" s="48"/>
     </row>
-    <row r="752" spans="1:10" ht="12">
+    <row r="752" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -9719,7 +9787,7 @@
       <c r="I752" s="2"/>
       <c r="J752" s="48"/>
     </row>
-    <row r="753" spans="1:10" ht="12">
+    <row r="753" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -9729,7 +9797,7 @@
       <c r="I753" s="2"/>
       <c r="J753" s="48"/>
     </row>
-    <row r="754" spans="1:10" ht="12">
+    <row r="754" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -9739,7 +9807,7 @@
       <c r="I754" s="2"/>
       <c r="J754" s="48"/>
     </row>
-    <row r="755" spans="1:10" ht="12">
+    <row r="755" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -9749,7 +9817,7 @@
       <c r="I755" s="2"/>
       <c r="J755" s="48"/>
     </row>
-    <row r="756" spans="1:10" ht="12">
+    <row r="756" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -9759,7 +9827,7 @@
       <c r="I756" s="2"/>
       <c r="J756" s="48"/>
     </row>
-    <row r="757" spans="1:10" ht="12">
+    <row r="757" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -9769,7 +9837,7 @@
       <c r="I757" s="2"/>
       <c r="J757" s="48"/>
     </row>
-    <row r="758" spans="1:10" ht="12">
+    <row r="758" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -9779,7 +9847,7 @@
       <c r="I758" s="2"/>
       <c r="J758" s="48"/>
     </row>
-    <row r="759" spans="1:10" ht="12">
+    <row r="759" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -9789,7 +9857,7 @@
       <c r="I759" s="2"/>
       <c r="J759" s="48"/>
     </row>
-    <row r="760" spans="1:10" ht="12">
+    <row r="760" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -9799,7 +9867,7 @@
       <c r="I760" s="2"/>
       <c r="J760" s="48"/>
     </row>
-    <row r="761" spans="1:10" ht="12">
+    <row r="761" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -9809,7 +9877,7 @@
       <c r="I761" s="2"/>
       <c r="J761" s="48"/>
     </row>
-    <row r="762" spans="1:10" ht="12">
+    <row r="762" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -9819,7 +9887,7 @@
       <c r="I762" s="2"/>
       <c r="J762" s="48"/>
     </row>
-    <row r="763" spans="1:10" ht="12">
+    <row r="763" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -9829,7 +9897,7 @@
       <c r="I763" s="2"/>
       <c r="J763" s="48"/>
     </row>
-    <row r="764" spans="1:10" ht="12">
+    <row r="764" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -9839,7 +9907,7 @@
       <c r="I764" s="2"/>
       <c r="J764" s="48"/>
     </row>
-    <row r="765" spans="1:10" ht="12">
+    <row r="765" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -9849,7 +9917,7 @@
       <c r="I765" s="2"/>
       <c r="J765" s="48"/>
     </row>
-    <row r="766" spans="1:10" ht="12">
+    <row r="766" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -9859,7 +9927,7 @@
       <c r="I766" s="2"/>
       <c r="J766" s="48"/>
     </row>
-    <row r="767" spans="1:10" ht="12">
+    <row r="767" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -9869,7 +9937,7 @@
       <c r="I767" s="2"/>
       <c r="J767" s="48"/>
     </row>
-    <row r="768" spans="1:10" ht="12">
+    <row r="768" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -9879,7 +9947,7 @@
       <c r="I768" s="2"/>
       <c r="J768" s="48"/>
     </row>
-    <row r="769" spans="1:10" ht="12">
+    <row r="769" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -9889,7 +9957,7 @@
       <c r="I769" s="2"/>
       <c r="J769" s="48"/>
     </row>
-    <row r="770" spans="1:10" ht="12">
+    <row r="770" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -9899,7 +9967,7 @@
       <c r="I770" s="2"/>
       <c r="J770" s="48"/>
     </row>
-    <row r="771" spans="1:10" ht="12">
+    <row r="771" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -9909,7 +9977,7 @@
       <c r="I771" s="2"/>
       <c r="J771" s="48"/>
     </row>
-    <row r="772" spans="1:10" ht="12">
+    <row r="772" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -9919,7 +9987,7 @@
       <c r="I772" s="2"/>
       <c r="J772" s="48"/>
     </row>
-    <row r="773" spans="1:10" ht="12">
+    <row r="773" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -9929,7 +9997,7 @@
       <c r="I773" s="2"/>
       <c r="J773" s="48"/>
     </row>
-    <row r="774" spans="1:10" ht="12">
+    <row r="774" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -9939,7 +10007,7 @@
       <c r="I774" s="2"/>
       <c r="J774" s="48"/>
     </row>
-    <row r="775" spans="1:10" ht="12">
+    <row r="775" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -9949,7 +10017,7 @@
       <c r="I775" s="2"/>
       <c r="J775" s="48"/>
     </row>
-    <row r="776" spans="1:10" ht="12">
+    <row r="776" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -9959,7 +10027,7 @@
       <c r="I776" s="2"/>
       <c r="J776" s="48"/>
     </row>
-    <row r="777" spans="1:10" ht="12">
+    <row r="777" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -9969,7 +10037,7 @@
       <c r="I777" s="2"/>
       <c r="J777" s="48"/>
     </row>
-    <row r="778" spans="1:10" ht="12">
+    <row r="778" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -9979,7 +10047,7 @@
       <c r="I778" s="2"/>
       <c r="J778" s="48"/>
     </row>
-    <row r="779" spans="1:10" ht="12">
+    <row r="779" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -9989,7 +10057,7 @@
       <c r="I779" s="2"/>
       <c r="J779" s="48"/>
     </row>
-    <row r="780" spans="1:10" ht="12">
+    <row r="780" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -9999,7 +10067,7 @@
       <c r="I780" s="2"/>
       <c r="J780" s="48"/>
     </row>
-    <row r="781" spans="1:10" ht="12">
+    <row r="781" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -10009,7 +10077,7 @@
       <c r="I781" s="2"/>
       <c r="J781" s="48"/>
     </row>
-    <row r="782" spans="1:10" ht="12">
+    <row r="782" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -10019,7 +10087,7 @@
       <c r="I782" s="2"/>
       <c r="J782" s="48"/>
     </row>
-    <row r="783" spans="1:10" ht="12">
+    <row r="783" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -10029,7 +10097,7 @@
       <c r="I783" s="2"/>
       <c r="J783" s="48"/>
     </row>
-    <row r="784" spans="1:10" ht="12">
+    <row r="784" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -10039,7 +10107,7 @@
       <c r="I784" s="2"/>
       <c r="J784" s="48"/>
     </row>
-    <row r="785" spans="1:10" ht="12">
+    <row r="785" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -10049,7 +10117,7 @@
       <c r="I785" s="2"/>
       <c r="J785" s="48"/>
     </row>
-    <row r="786" spans="1:10" ht="12">
+    <row r="786" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -10059,7 +10127,7 @@
       <c r="I786" s="2"/>
       <c r="J786" s="48"/>
     </row>
-    <row r="787" spans="1:10" ht="12">
+    <row r="787" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -10069,7 +10137,7 @@
       <c r="I787" s="2"/>
       <c r="J787" s="48"/>
     </row>
-    <row r="788" spans="1:10" ht="12">
+    <row r="788" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -10079,7 +10147,7 @@
       <c r="I788" s="2"/>
       <c r="J788" s="48"/>
     </row>
-    <row r="789" spans="1:10" ht="12">
+    <row r="789" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -10089,7 +10157,7 @@
       <c r="I789" s="2"/>
       <c r="J789" s="48"/>
     </row>
-    <row r="790" spans="1:10" ht="12">
+    <row r="790" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -10099,7 +10167,7 @@
       <c r="I790" s="2"/>
       <c r="J790" s="48"/>
     </row>
-    <row r="791" spans="1:10" ht="12">
+    <row r="791" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -10109,7 +10177,7 @@
       <c r="I791" s="2"/>
       <c r="J791" s="48"/>
     </row>
-    <row r="792" spans="1:10" ht="12">
+    <row r="792" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -10119,7 +10187,7 @@
       <c r="I792" s="2"/>
       <c r="J792" s="48"/>
     </row>
-    <row r="793" spans="1:10" ht="12">
+    <row r="793" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -10129,7 +10197,7 @@
       <c r="I793" s="2"/>
       <c r="J793" s="48"/>
     </row>
-    <row r="794" spans="1:10" ht="12">
+    <row r="794" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -10139,7 +10207,7 @@
       <c r="I794" s="2"/>
       <c r="J794" s="48"/>
     </row>
-    <row r="795" spans="1:10" ht="12">
+    <row r="795" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -10149,7 +10217,7 @@
       <c r="I795" s="2"/>
       <c r="J795" s="48"/>
     </row>
-    <row r="796" spans="1:10" ht="12">
+    <row r="796" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -10159,7 +10227,7 @@
       <c r="I796" s="2"/>
       <c r="J796" s="48"/>
     </row>
-    <row r="797" spans="1:10" ht="12">
+    <row r="797" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -10169,7 +10237,7 @@
       <c r="I797" s="2"/>
       <c r="J797" s="48"/>
     </row>
-    <row r="798" spans="1:10" ht="12">
+    <row r="798" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -10179,7 +10247,7 @@
       <c r="I798" s="2"/>
       <c r="J798" s="48"/>
     </row>
-    <row r="799" spans="1:10" ht="12">
+    <row r="799" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -10189,7 +10257,7 @@
       <c r="I799" s="2"/>
       <c r="J799" s="48"/>
     </row>
-    <row r="800" spans="1:10" ht="12">
+    <row r="800" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -10199,7 +10267,7 @@
       <c r="I800" s="2"/>
       <c r="J800" s="48"/>
     </row>
-    <row r="801" spans="1:10" ht="12">
+    <row r="801" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -10209,7 +10277,7 @@
       <c r="I801" s="2"/>
       <c r="J801" s="48"/>
     </row>
-    <row r="802" spans="1:10" ht="12">
+    <row r="802" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -10219,7 +10287,7 @@
       <c r="I802" s="2"/>
       <c r="J802" s="48"/>
     </row>
-    <row r="803" spans="1:10" ht="12">
+    <row r="803" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -10229,7 +10297,7 @@
       <c r="I803" s="2"/>
       <c r="J803" s="48"/>
     </row>
-    <row r="804" spans="1:10" ht="12">
+    <row r="804" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -10239,7 +10307,7 @@
       <c r="I804" s="2"/>
       <c r="J804" s="48"/>
     </row>
-    <row r="805" spans="1:10" ht="12">
+    <row r="805" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -10249,7 +10317,7 @@
       <c r="I805" s="2"/>
       <c r="J805" s="48"/>
     </row>
-    <row r="806" spans="1:10" ht="12">
+    <row r="806" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -10259,7 +10327,7 @@
       <c r="I806" s="2"/>
       <c r="J806" s="48"/>
     </row>
-    <row r="807" spans="1:10" ht="12">
+    <row r="807" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -10269,7 +10337,7 @@
       <c r="I807" s="2"/>
       <c r="J807" s="48"/>
     </row>
-    <row r="808" spans="1:10" ht="12">
+    <row r="808" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -10279,7 +10347,7 @@
       <c r="I808" s="2"/>
       <c r="J808" s="48"/>
     </row>
-    <row r="809" spans="1:10" ht="12">
+    <row r="809" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -10289,7 +10357,7 @@
       <c r="I809" s="2"/>
       <c r="J809" s="48"/>
     </row>
-    <row r="810" spans="1:10" ht="12">
+    <row r="810" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -10299,7 +10367,7 @@
       <c r="I810" s="2"/>
       <c r="J810" s="48"/>
     </row>
-    <row r="811" spans="1:10" ht="12">
+    <row r="811" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -10309,7 +10377,7 @@
       <c r="I811" s="2"/>
       <c r="J811" s="48"/>
     </row>
-    <row r="812" spans="1:10" ht="12">
+    <row r="812" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -10319,7 +10387,7 @@
       <c r="I812" s="2"/>
       <c r="J812" s="48"/>
     </row>
-    <row r="813" spans="1:10" ht="12">
+    <row r="813" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -10329,7 +10397,7 @@
       <c r="I813" s="2"/>
       <c r="J813" s="48"/>
     </row>
-    <row r="814" spans="1:10" ht="12">
+    <row r="814" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -10339,7 +10407,7 @@
       <c r="I814" s="2"/>
       <c r="J814" s="48"/>
     </row>
-    <row r="815" spans="1:10" ht="12">
+    <row r="815" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -10349,7 +10417,7 @@
       <c r="I815" s="2"/>
       <c r="J815" s="48"/>
     </row>
-    <row r="816" spans="1:10" ht="12">
+    <row r="816" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -10359,7 +10427,7 @@
       <c r="I816" s="2"/>
       <c r="J816" s="48"/>
     </row>
-    <row r="817" spans="1:10" ht="12">
+    <row r="817" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -10369,7 +10437,7 @@
       <c r="I817" s="2"/>
       <c r="J817" s="48"/>
     </row>
-    <row r="818" spans="1:10" ht="12">
+    <row r="818" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -10379,7 +10447,7 @@
       <c r="I818" s="2"/>
       <c r="J818" s="48"/>
     </row>
-    <row r="819" spans="1:10" ht="12">
+    <row r="819" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -10389,7 +10457,7 @@
       <c r="I819" s="2"/>
       <c r="J819" s="48"/>
     </row>
-    <row r="820" spans="1:10" ht="12">
+    <row r="820" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -10399,7 +10467,7 @@
       <c r="I820" s="2"/>
       <c r="J820" s="48"/>
     </row>
-    <row r="821" spans="1:10" ht="12">
+    <row r="821" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -10409,7 +10477,7 @@
       <c r="I821" s="2"/>
       <c r="J821" s="48"/>
     </row>
-    <row r="822" spans="1:10" ht="12">
+    <row r="822" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -10419,7 +10487,7 @@
       <c r="I822" s="2"/>
       <c r="J822" s="48"/>
     </row>
-    <row r="823" spans="1:10" ht="12">
+    <row r="823" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -10429,7 +10497,7 @@
       <c r="I823" s="2"/>
       <c r="J823" s="48"/>
     </row>
-    <row r="824" spans="1:10" ht="12">
+    <row r="824" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -10439,7 +10507,7 @@
       <c r="I824" s="2"/>
       <c r="J824" s="48"/>
     </row>
-    <row r="825" spans="1:10" ht="12">
+    <row r="825" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -10449,7 +10517,7 @@
       <c r="I825" s="2"/>
       <c r="J825" s="48"/>
     </row>
-    <row r="826" spans="1:10" ht="12">
+    <row r="826" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -10459,7 +10527,7 @@
       <c r="I826" s="2"/>
       <c r="J826" s="48"/>
     </row>
-    <row r="827" spans="1:10" ht="12">
+    <row r="827" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -10469,7 +10537,7 @@
       <c r="I827" s="2"/>
       <c r="J827" s="48"/>
     </row>
-    <row r="828" spans="1:10" ht="12">
+    <row r="828" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -10479,7 +10547,7 @@
       <c r="I828" s="2"/>
       <c r="J828" s="48"/>
     </row>
-    <row r="829" spans="1:10" ht="12">
+    <row r="829" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -10489,7 +10557,7 @@
       <c r="I829" s="2"/>
       <c r="J829" s="48"/>
     </row>
-    <row r="830" spans="1:10" ht="12">
+    <row r="830" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -10499,7 +10567,7 @@
       <c r="I830" s="2"/>
       <c r="J830" s="48"/>
     </row>
-    <row r="831" spans="1:10" ht="12">
+    <row r="831" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -10509,7 +10577,7 @@
       <c r="I831" s="2"/>
       <c r="J831" s="48"/>
     </row>
-    <row r="832" spans="1:10" ht="12">
+    <row r="832" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -10519,7 +10587,7 @@
       <c r="I832" s="2"/>
       <c r="J832" s="48"/>
     </row>
-    <row r="833" spans="1:10" ht="12">
+    <row r="833" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -10529,7 +10597,7 @@
       <c r="I833" s="2"/>
       <c r="J833" s="48"/>
     </row>
-    <row r="834" spans="1:10" ht="12">
+    <row r="834" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -10539,7 +10607,7 @@
       <c r="I834" s="2"/>
       <c r="J834" s="48"/>
     </row>
-    <row r="835" spans="1:10" ht="12">
+    <row r="835" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -10549,7 +10617,7 @@
       <c r="I835" s="2"/>
       <c r="J835" s="48"/>
     </row>
-    <row r="836" spans="1:10" ht="12">
+    <row r="836" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -10559,7 +10627,7 @@
       <c r="I836" s="2"/>
       <c r="J836" s="48"/>
     </row>
-    <row r="837" spans="1:10" ht="12">
+    <row r="837" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -10569,7 +10637,7 @@
       <c r="I837" s="2"/>
       <c r="J837" s="48"/>
     </row>
-    <row r="838" spans="1:10" ht="12">
+    <row r="838" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -10579,7 +10647,7 @@
       <c r="I838" s="2"/>
       <c r="J838" s="48"/>
     </row>
-    <row r="839" spans="1:10" ht="12">
+    <row r="839" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -10589,7 +10657,7 @@
       <c r="I839" s="2"/>
       <c r="J839" s="48"/>
     </row>
-    <row r="840" spans="1:10" ht="12">
+    <row r="840" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -10599,7 +10667,7 @@
       <c r="I840" s="2"/>
       <c r="J840" s="48"/>
     </row>
-    <row r="841" spans="1:10" ht="12">
+    <row r="841" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -10609,7 +10677,7 @@
       <c r="I841" s="2"/>
       <c r="J841" s="48"/>
     </row>
-    <row r="842" spans="1:10" ht="12">
+    <row r="842" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -10619,7 +10687,7 @@
       <c r="I842" s="2"/>
       <c r="J842" s="48"/>
     </row>
-    <row r="843" spans="1:10" ht="12">
+    <row r="843" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -10629,7 +10697,7 @@
       <c r="I843" s="2"/>
       <c r="J843" s="48"/>
     </row>
-    <row r="844" spans="1:10" ht="12">
+    <row r="844" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -10639,7 +10707,7 @@
       <c r="I844" s="2"/>
       <c r="J844" s="48"/>
     </row>
-    <row r="845" spans="1:10" ht="12">
+    <row r="845" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -10649,7 +10717,7 @@
       <c r="I845" s="2"/>
       <c r="J845" s="48"/>
     </row>
-    <row r="846" spans="1:10" ht="12">
+    <row r="846" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -10659,7 +10727,7 @@
       <c r="I846" s="2"/>
       <c r="J846" s="48"/>
     </row>
-    <row r="847" spans="1:10" ht="12">
+    <row r="847" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -10669,7 +10737,7 @@
       <c r="I847" s="2"/>
       <c r="J847" s="48"/>
     </row>
-    <row r="848" spans="1:10" ht="12">
+    <row r="848" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -10679,7 +10747,7 @@
       <c r="I848" s="2"/>
       <c r="J848" s="48"/>
     </row>
-    <row r="849" spans="1:10" ht="12">
+    <row r="849" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -10689,7 +10757,7 @@
       <c r="I849" s="2"/>
       <c r="J849" s="48"/>
     </row>
-    <row r="850" spans="1:10" ht="12">
+    <row r="850" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -10699,7 +10767,7 @@
       <c r="I850" s="2"/>
       <c r="J850" s="48"/>
     </row>
-    <row r="851" spans="1:10" ht="12">
+    <row r="851" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -10709,7 +10777,7 @@
       <c r="I851" s="2"/>
       <c r="J851" s="48"/>
     </row>
-    <row r="852" spans="1:10" ht="12">
+    <row r="852" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -10719,7 +10787,7 @@
       <c r="I852" s="2"/>
       <c r="J852" s="48"/>
     </row>
-    <row r="853" spans="1:10" ht="12">
+    <row r="853" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -10729,7 +10797,7 @@
       <c r="I853" s="2"/>
       <c r="J853" s="48"/>
     </row>
-    <row r="854" spans="1:10" ht="12">
+    <row r="854" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -10739,7 +10807,7 @@
       <c r="I854" s="2"/>
       <c r="J854" s="48"/>
     </row>
-    <row r="855" spans="1:10" ht="12">
+    <row r="855" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -10749,7 +10817,7 @@
       <c r="I855" s="2"/>
       <c r="J855" s="48"/>
     </row>
-    <row r="856" spans="1:10" ht="12">
+    <row r="856" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -10759,7 +10827,7 @@
       <c r="I856" s="2"/>
       <c r="J856" s="48"/>
     </row>
-    <row r="857" spans="1:10" ht="12">
+    <row r="857" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -10769,7 +10837,7 @@
       <c r="I857" s="2"/>
       <c r="J857" s="48"/>
     </row>
-    <row r="858" spans="1:10" ht="12">
+    <row r="858" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -10779,7 +10847,7 @@
       <c r="I858" s="2"/>
       <c r="J858" s="48"/>
     </row>
-    <row r="859" spans="1:10" ht="12">
+    <row r="859" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -10789,7 +10857,7 @@
       <c r="I859" s="2"/>
       <c r="J859" s="48"/>
     </row>
-    <row r="860" spans="1:10" ht="12">
+    <row r="860" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -10799,7 +10867,7 @@
       <c r="I860" s="2"/>
       <c r="J860" s="48"/>
     </row>
-    <row r="861" spans="1:10" ht="12">
+    <row r="861" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -10809,7 +10877,7 @@
       <c r="I861" s="2"/>
       <c r="J861" s="48"/>
     </row>
-    <row r="862" spans="1:10" ht="12">
+    <row r="862" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -10819,7 +10887,7 @@
       <c r="I862" s="2"/>
       <c r="J862" s="48"/>
     </row>
-    <row r="863" spans="1:10" ht="12">
+    <row r="863" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -10829,7 +10897,7 @@
       <c r="I863" s="2"/>
       <c r="J863" s="48"/>
     </row>
-    <row r="864" spans="1:10" ht="12">
+    <row r="864" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -10839,7 +10907,7 @@
       <c r="I864" s="2"/>
       <c r="J864" s="48"/>
     </row>
-    <row r="865" spans="1:10" ht="12">
+    <row r="865" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -10849,7 +10917,7 @@
       <c r="I865" s="2"/>
       <c r="J865" s="48"/>
     </row>
-    <row r="866" spans="1:10" ht="12">
+    <row r="866" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -10859,7 +10927,7 @@
       <c r="I866" s="2"/>
       <c r="J866" s="48"/>
     </row>
-    <row r="867" spans="1:10" ht="12">
+    <row r="867" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -10869,7 +10937,7 @@
       <c r="I867" s="2"/>
       <c r="J867" s="48"/>
     </row>
-    <row r="868" spans="1:10" ht="12">
+    <row r="868" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -10879,7 +10947,7 @@
       <c r="I868" s="2"/>
       <c r="J868" s="48"/>
     </row>
-    <row r="869" spans="1:10" ht="12">
+    <row r="869" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -10889,7 +10957,7 @@
       <c r="I869" s="2"/>
       <c r="J869" s="48"/>
     </row>
-    <row r="870" spans="1:10" ht="12">
+    <row r="870" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -10899,7 +10967,7 @@
       <c r="I870" s="2"/>
       <c r="J870" s="48"/>
     </row>
-    <row r="871" spans="1:10" ht="12">
+    <row r="871" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -10909,7 +10977,7 @@
       <c r="I871" s="2"/>
       <c r="J871" s="48"/>
     </row>
-    <row r="872" spans="1:10" ht="12">
+    <row r="872" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -10919,7 +10987,7 @@
       <c r="I872" s="2"/>
       <c r="J872" s="48"/>
     </row>
-    <row r="873" spans="1:10" ht="12">
+    <row r="873" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -10929,7 +10997,7 @@
       <c r="I873" s="2"/>
       <c r="J873" s="48"/>
     </row>
-    <row r="874" spans="1:10" ht="12">
+    <row r="874" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -10939,7 +11007,7 @@
       <c r="I874" s="2"/>
       <c r="J874" s="48"/>
     </row>
-    <row r="875" spans="1:10" ht="12">
+    <row r="875" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -10949,7 +11017,7 @@
       <c r="I875" s="2"/>
       <c r="J875" s="48"/>
     </row>
-    <row r="876" spans="1:10" ht="12">
+    <row r="876" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -10959,7 +11027,7 @@
       <c r="I876" s="2"/>
       <c r="J876" s="48"/>
     </row>
-    <row r="877" spans="1:10" ht="12">
+    <row r="877" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -10969,7 +11037,7 @@
       <c r="I877" s="2"/>
       <c r="J877" s="48"/>
     </row>
-    <row r="878" spans="1:10" ht="12">
+    <row r="878" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -10979,7 +11047,7 @@
       <c r="I878" s="2"/>
       <c r="J878" s="48"/>
     </row>
-    <row r="879" spans="1:10" ht="12">
+    <row r="879" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -10989,7 +11057,7 @@
       <c r="I879" s="2"/>
       <c r="J879" s="48"/>
     </row>
-    <row r="880" spans="1:10" ht="12">
+    <row r="880" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -10999,7 +11067,7 @@
       <c r="I880" s="2"/>
       <c r="J880" s="48"/>
     </row>
-    <row r="881" spans="1:10" ht="12">
+    <row r="881" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -11009,7 +11077,7 @@
       <c r="I881" s="2"/>
       <c r="J881" s="48"/>
     </row>
-    <row r="882" spans="1:10" ht="12">
+    <row r="882" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -11019,7 +11087,7 @@
       <c r="I882" s="2"/>
       <c r="J882" s="48"/>
     </row>
-    <row r="883" spans="1:10" ht="12">
+    <row r="883" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -11029,7 +11097,7 @@
       <c r="I883" s="2"/>
       <c r="J883" s="48"/>
     </row>
-    <row r="884" spans="1:10" ht="12">
+    <row r="884" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -11039,7 +11107,7 @@
       <c r="I884" s="2"/>
       <c r="J884" s="48"/>
     </row>
-    <row r="885" spans="1:10" ht="12">
+    <row r="885" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -11049,7 +11117,7 @@
       <c r="I885" s="2"/>
       <c r="J885" s="48"/>
     </row>
-    <row r="886" spans="1:10" ht="12">
+    <row r="886" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -11059,7 +11127,7 @@
       <c r="I886" s="2"/>
       <c r="J886" s="48"/>
     </row>
-    <row r="887" spans="1:10" ht="12">
+    <row r="887" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -11069,7 +11137,7 @@
       <c r="I887" s="2"/>
       <c r="J887" s="48"/>
     </row>
-    <row r="888" spans="1:10" ht="12">
+    <row r="888" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -11079,7 +11147,7 @@
       <c r="I888" s="2"/>
       <c r="J888" s="48"/>
     </row>
-    <row r="889" spans="1:10" ht="12">
+    <row r="889" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -11089,7 +11157,7 @@
       <c r="I889" s="2"/>
       <c r="J889" s="48"/>
     </row>
-    <row r="890" spans="1:10" ht="12">
+    <row r="890" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -11099,7 +11167,7 @@
       <c r="I890" s="2"/>
       <c r="J890" s="48"/>
     </row>
-    <row r="891" spans="1:10" ht="12">
+    <row r="891" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -11109,7 +11177,7 @@
       <c r="I891" s="2"/>
       <c r="J891" s="48"/>
     </row>
-    <row r="892" spans="1:10" ht="12">
+    <row r="892" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -11119,7 +11187,7 @@
       <c r="I892" s="2"/>
       <c r="J892" s="48"/>
     </row>
-    <row r="893" spans="1:10" ht="12">
+    <row r="893" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -11129,7 +11197,7 @@
       <c r="I893" s="2"/>
       <c r="J893" s="48"/>
     </row>
-    <row r="894" spans="1:10" ht="12">
+    <row r="894" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -11139,7 +11207,7 @@
       <c r="I894" s="2"/>
       <c r="J894" s="48"/>
     </row>
-    <row r="895" spans="1:10" ht="12">
+    <row r="895" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -11149,7 +11217,7 @@
       <c r="I895" s="2"/>
       <c r="J895" s="48"/>
     </row>
-    <row r="896" spans="1:10" ht="12">
+    <row r="896" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -11159,7 +11227,7 @@
       <c r="I896" s="2"/>
       <c r="J896" s="48"/>
     </row>
-    <row r="897" spans="1:10" ht="12">
+    <row r="897" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -11169,7 +11237,7 @@
       <c r="I897" s="2"/>
       <c r="J897" s="48"/>
     </row>
-    <row r="898" spans="1:10" ht="12">
+    <row r="898" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -11179,7 +11247,7 @@
       <c r="I898" s="2"/>
       <c r="J898" s="48"/>
     </row>
-    <row r="899" spans="1:10" ht="12">
+    <row r="899" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -11189,7 +11257,7 @@
       <c r="I899" s="2"/>
       <c r="J899" s="48"/>
     </row>
-    <row r="900" spans="1:10" ht="12">
+    <row r="900" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -11199,7 +11267,7 @@
       <c r="I900" s="2"/>
       <c r="J900" s="48"/>
     </row>
-    <row r="901" spans="1:10" ht="12">
+    <row r="901" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -11209,7 +11277,7 @@
       <c r="I901" s="2"/>
       <c r="J901" s="48"/>
     </row>
-    <row r="902" spans="1:10" ht="12">
+    <row r="902" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -11219,7 +11287,7 @@
       <c r="I902" s="2"/>
       <c r="J902" s="48"/>
     </row>
-    <row r="903" spans="1:10" ht="12">
+    <row r="903" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -11229,7 +11297,7 @@
       <c r="I903" s="2"/>
       <c r="J903" s="48"/>
     </row>
-    <row r="904" spans="1:10" ht="12">
+    <row r="904" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -11239,7 +11307,7 @@
       <c r="I904" s="2"/>
       <c r="J904" s="48"/>
     </row>
-    <row r="905" spans="1:10" ht="12">
+    <row r="905" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -11249,7 +11317,7 @@
       <c r="I905" s="2"/>
       <c r="J905" s="48"/>
     </row>
-    <row r="906" spans="1:10" ht="12">
+    <row r="906" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -11259,7 +11327,7 @@
       <c r="I906" s="2"/>
       <c r="J906" s="48"/>
     </row>
-    <row r="907" spans="1:10" ht="12">
+    <row r="907" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -11269,7 +11337,7 @@
       <c r="I907" s="2"/>
       <c r="J907" s="48"/>
     </row>
-    <row r="908" spans="1:10" ht="12">
+    <row r="908" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -11279,7 +11347,7 @@
       <c r="I908" s="2"/>
       <c r="J908" s="48"/>
     </row>
-    <row r="909" spans="1:10" ht="12">
+    <row r="909" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -11289,7 +11357,7 @@
       <c r="I909" s="2"/>
       <c r="J909" s="48"/>
     </row>
-    <row r="910" spans="1:10" ht="12">
+    <row r="910" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -11299,7 +11367,7 @@
       <c r="I910" s="2"/>
       <c r="J910" s="48"/>
     </row>
-    <row r="911" spans="1:10" ht="12">
+    <row r="911" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -11309,7 +11377,7 @@
       <c r="I911" s="2"/>
       <c r="J911" s="48"/>
     </row>
-    <row r="912" spans="1:10" ht="12">
+    <row r="912" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -11319,7 +11387,7 @@
       <c r="I912" s="2"/>
       <c r="J912" s="48"/>
     </row>
-    <row r="913" spans="1:10" ht="12">
+    <row r="913" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -11329,7 +11397,7 @@
       <c r="I913" s="2"/>
       <c r="J913" s="48"/>
     </row>
-    <row r="914" spans="1:10" ht="12">
+    <row r="914" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -11339,7 +11407,7 @@
       <c r="I914" s="2"/>
       <c r="J914" s="48"/>
     </row>
-    <row r="915" spans="1:10" ht="12">
+    <row r="915" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -11349,7 +11417,7 @@
       <c r="I915" s="2"/>
       <c r="J915" s="48"/>
     </row>
-    <row r="916" spans="1:10" ht="12">
+    <row r="916" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -11359,7 +11427,7 @@
       <c r="I916" s="2"/>
       <c r="J916" s="48"/>
     </row>
-    <row r="917" spans="1:10" ht="12">
+    <row r="917" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -11369,7 +11437,7 @@
       <c r="I917" s="2"/>
       <c r="J917" s="48"/>
     </row>
-    <row r="918" spans="1:10" ht="12">
+    <row r="918" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -11379,7 +11447,7 @@
       <c r="I918" s="2"/>
       <c r="J918" s="48"/>
     </row>
-    <row r="919" spans="1:10" ht="12">
+    <row r="919" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -11389,7 +11457,7 @@
       <c r="I919" s="2"/>
       <c r="J919" s="48"/>
     </row>
-    <row r="920" spans="1:10" ht="12">
+    <row r="920" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -11399,7 +11467,7 @@
       <c r="I920" s="2"/>
       <c r="J920" s="48"/>
     </row>
-    <row r="921" spans="1:10" ht="12">
+    <row r="921" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -11409,7 +11477,7 @@
       <c r="I921" s="2"/>
       <c r="J921" s="48"/>
     </row>
-    <row r="922" spans="1:10" ht="12">
+    <row r="922" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -11419,7 +11487,7 @@
       <c r="I922" s="2"/>
       <c r="J922" s="48"/>
     </row>
-    <row r="923" spans="1:10" ht="12">
+    <row r="923" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -11429,7 +11497,7 @@
       <c r="I923" s="2"/>
       <c r="J923" s="48"/>
     </row>
-    <row r="924" spans="1:10" ht="12">
+    <row r="924" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -11439,7 +11507,7 @@
       <c r="I924" s="2"/>
       <c r="J924" s="48"/>
     </row>
-    <row r="925" spans="1:10" ht="12">
+    <row r="925" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -11449,7 +11517,7 @@
       <c r="I925" s="2"/>
       <c r="J925" s="48"/>
     </row>
-    <row r="926" spans="1:10" ht="12">
+    <row r="926" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -11459,7 +11527,7 @@
       <c r="I926" s="2"/>
       <c r="J926" s="48"/>
     </row>
-    <row r="927" spans="1:10" ht="12">
+    <row r="927" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -11469,7 +11537,7 @@
       <c r="I927" s="2"/>
       <c r="J927" s="48"/>
     </row>
-    <row r="928" spans="1:10" ht="12">
+    <row r="928" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -11479,7 +11547,7 @@
       <c r="I928" s="2"/>
       <c r="J928" s="48"/>
     </row>
-    <row r="929" spans="1:10" ht="12">
+    <row r="929" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -11489,7 +11557,7 @@
       <c r="I929" s="2"/>
       <c r="J929" s="48"/>
     </row>
-    <row r="930" spans="1:10" ht="12">
+    <row r="930" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -11499,7 +11567,7 @@
       <c r="I930" s="2"/>
       <c r="J930" s="48"/>
     </row>
-    <row r="931" spans="1:10" ht="12">
+    <row r="931" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -11509,7 +11577,7 @@
       <c r="I931" s="2"/>
       <c r="J931" s="48"/>
     </row>
-    <row r="932" spans="1:10" ht="12">
+    <row r="932" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -11519,7 +11587,7 @@
       <c r="I932" s="2"/>
       <c r="J932" s="48"/>
     </row>
-    <row r="933" spans="1:10" ht="12">
+    <row r="933" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -11529,7 +11597,7 @@
       <c r="I933" s="2"/>
       <c r="J933" s="48"/>
     </row>
-    <row r="934" spans="1:10" ht="12">
+    <row r="934" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -11539,7 +11607,7 @@
       <c r="I934" s="2"/>
       <c r="J934" s="48"/>
     </row>
-    <row r="935" spans="1:10" ht="12">
+    <row r="935" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -11549,7 +11617,7 @@
       <c r="I935" s="2"/>
       <c r="J935" s="48"/>
     </row>
-    <row r="936" spans="1:10" ht="12">
+    <row r="936" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -11559,7 +11627,7 @@
       <c r="I936" s="2"/>
       <c r="J936" s="48"/>
     </row>
-    <row r="937" spans="1:10" ht="12">
+    <row r="937" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -11569,7 +11637,7 @@
       <c r="I937" s="2"/>
       <c r="J937" s="48"/>
     </row>
-    <row r="938" spans="1:10" ht="12">
+    <row r="938" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -11579,7 +11647,7 @@
       <c r="I938" s="2"/>
       <c r="J938" s="48"/>
     </row>
-    <row r="939" spans="1:10" ht="12">
+    <row r="939" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -11589,7 +11657,7 @@
       <c r="I939" s="2"/>
       <c r="J939" s="48"/>
     </row>
-    <row r="940" spans="1:10" ht="12">
+    <row r="940" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -11599,7 +11667,7 @@
       <c r="I940" s="2"/>
       <c r="J940" s="48"/>
     </row>
-    <row r="941" spans="1:10" ht="12">
+    <row r="941" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -11609,7 +11677,7 @@
       <c r="I941" s="2"/>
       <c r="J941" s="48"/>
     </row>
-    <row r="942" spans="1:10" ht="12">
+    <row r="942" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -11619,7 +11687,7 @@
       <c r="I942" s="2"/>
       <c r="J942" s="48"/>
     </row>
-    <row r="943" spans="1:10" ht="12">
+    <row r="943" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -11629,7 +11697,7 @@
       <c r="I943" s="2"/>
       <c r="J943" s="48"/>
     </row>
-    <row r="944" spans="1:10" ht="12">
+    <row r="944" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -11639,7 +11707,7 @@
       <c r="I944" s="2"/>
       <c r="J944" s="48"/>
     </row>
-    <row r="945" spans="1:10" ht="12">
+    <row r="945" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -11649,7 +11717,7 @@
       <c r="I945" s="2"/>
       <c r="J945" s="48"/>
     </row>
-    <row r="946" spans="1:10" ht="12">
+    <row r="946" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -11659,7 +11727,7 @@
       <c r="I946" s="2"/>
       <c r="J946" s="48"/>
     </row>
-    <row r="947" spans="1:10" ht="12">
+    <row r="947" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -11669,7 +11737,7 @@
       <c r="I947" s="2"/>
       <c r="J947" s="48"/>
     </row>
-    <row r="948" spans="1:10" ht="12">
+    <row r="948" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -11679,7 +11747,7 @@
       <c r="I948" s="2"/>
       <c r="J948" s="48"/>
     </row>
-    <row r="949" spans="1:10" ht="12">
+    <row r="949" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A949" s="2"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
@@ -11689,7 +11757,7 @@
       <c r="I949" s="2"/>
       <c r="J949" s="48"/>
     </row>
-    <row r="950" spans="1:10" ht="12">
+    <row r="950" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A950" s="2"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
@@ -11699,7 +11767,7 @@
       <c r="I950" s="2"/>
       <c r="J950" s="48"/>
     </row>
-    <row r="951" spans="1:10" ht="12">
+    <row r="951" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A951" s="2"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
@@ -11709,7 +11777,7 @@
       <c r="I951" s="2"/>
       <c r="J951" s="48"/>
     </row>
-    <row r="952" spans="1:10" ht="12">
+    <row r="952" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A952" s="2"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
@@ -11719,7 +11787,7 @@
       <c r="I952" s="2"/>
       <c r="J952" s="48"/>
     </row>
-    <row r="953" spans="1:10" ht="12">
+    <row r="953" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A953" s="2"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
@@ -11729,7 +11797,7 @@
       <c r="I953" s="2"/>
       <c r="J953" s="48"/>
     </row>
-    <row r="954" spans="1:10" ht="12">
+    <row r="954" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A954" s="2"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
@@ -11739,7 +11807,7 @@
       <c r="I954" s="2"/>
       <c r="J954" s="48"/>
     </row>
-    <row r="955" spans="1:10" ht="12">
+    <row r="955" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A955" s="2"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
@@ -11749,7 +11817,7 @@
       <c r="I955" s="2"/>
       <c r="J955" s="48"/>
     </row>
-    <row r="956" spans="1:10" ht="12">
+    <row r="956" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A956" s="2"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
@@ -11761,6 +11829,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A2:A3"/>
@@ -11777,16 +11846,10 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11796,15 +11859,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11816,13 +11874,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49"/>
       <c r="B1" s="49" t="s">
         <v>79</v>
@@ -11852,7 +11910,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -11863,7 +11921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -11871,7 +11929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -11879,7 +11937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -11890,7 +11948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -11899,7 +11957,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -11911,7 +11969,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
@@ -11925,11 +11983,6 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11939,13 +11992,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -11977,7 +12030,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -11985,7 +12038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>101</v>
       </c>
@@ -11996,7 +12049,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
@@ -12007,7 +12060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
@@ -12018,7 +12071,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
@@ -12026,7 +12079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -12040,11 +12093,6 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12054,14 +12102,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -12093,7 +12141,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -12101,7 +12149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
@@ -12110,7 +12158,7 @@
       </c>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -12119,7 +12167,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>117</v>
       </c>
@@ -12131,20 +12179,20 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="58" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="59"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -12153,11 +12201,6 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12167,14 +12210,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -12206,7 +12249,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -12215,7 +12258,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
@@ -12225,7 +12268,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
@@ -12236,7 +12279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
@@ -12247,7 +12290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>128</v>
       </c>
@@ -12258,7 +12301,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
@@ -12269,22 +12312,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/REST-API.xlsx
+++ b/doc/REST-API.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guangyu/Desktop/18652/S16-A1-SSNoC/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="24440" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines and Notes" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="190">
   <si>
     <t>Rules</t>
   </si>
@@ -637,6 +632,36 @@
   </si>
   <si>
     <t>name: username of user, type: user/food/water/medicine, locations:{longitute, latitude}, status:OK/Help/Emergency/null(for marker)</t>
+  </si>
+  <si>
+    <t>See user profile</t>
+  </si>
+  <si>
+    <t>/seeProfile/:username</t>
+  </si>
+  <si>
+    <t>username of another user that administor wants to view</t>
+  </si>
+  <si>
+    <t>"statusCode":400, "message": "Cannot get data from database"} or json of the other user's profile information or {"statusCode": 410, "message": "In Test"}</t>
+  </si>
+  <si>
+    <t>If database doesn't work: 400,if in test : 410</t>
+  </si>
+  <si>
+    <t>Iteration 5 - Administer Profile</t>
+  </si>
+  <si>
+    <t>Update profile information</t>
+  </si>
+  <si>
+    <t>/updateProfile</t>
+  </si>
+  <si>
+    <t>json of user's updated profile</t>
+  </si>
+  <si>
+    <t>{"statusCode":400, "message": "Cannot save"} or {"statusCode":200, "message": "Info Saved."} or {"statusCode": 410, "message": "In Test"}</t>
   </si>
 </sst>
 </file>
@@ -827,7 +852,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,8 +873,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,10 +1018,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,7 +1033,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,31 +1047,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="29">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1374,42 +1423,42 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1418,14 +1467,14 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1433,36 +1482,36 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1476,6 +1525,11 @@
     <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1483,12 +1537,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -1501,7 +1555,7 @@
     <col min="10" max="10" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="36">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1548,38 +1602,38 @@
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:25" ht="12">
+      <c r="A2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="54" t="s">
         <v>161</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
+    <row r="3" spans="1:25" ht="24" customHeight="1">
+      <c r="A3" s="65"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="14" t="s">
@@ -1592,7 +1646,7 @@
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
     </row>
-    <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="12">
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1670,7 @@
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="12">
       <c r="A5" s="16" t="s">
         <v>138</v>
       </c>
@@ -1642,7 +1696,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="12">
       <c r="A6" s="45" t="s">
         <v>143</v>
       </c>
@@ -1664,7 +1718,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="12">
       <c r="A7" s="45" t="s">
         <v>134</v>
       </c>
@@ -1686,7 +1740,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="36">
       <c r="A8" s="24" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1785,7 @@
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9" s="24" t="s">
         <v>42</v>
       </c>
@@ -1772,7 +1826,7 @@
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="24">
       <c r="A10" s="45" t="s">
         <v>152</v>
       </c>
@@ -1809,7 +1863,7 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="12">
       <c r="A11" s="45" t="s">
         <v>146</v>
       </c>
@@ -1846,7 +1900,7 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="12">
       <c r="A12" s="45" t="s">
         <v>155</v>
       </c>
@@ -1883,7 +1937,7 @@
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
     </row>
-    <row r="13" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="36">
       <c r="A13" s="45" t="s">
         <v>156</v>
       </c>
@@ -1924,7 +1978,7 @@
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
     </row>
-    <row r="14" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="24">
       <c r="A14" s="24" t="s">
         <v>47</v>
       </c>
@@ -1963,7 +2017,7 @@
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
     </row>
-    <row r="15" spans="1:25" ht="39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="36">
       <c r="A15" s="32" t="s">
         <v>49</v>
       </c>
@@ -2008,7 +2062,7 @@
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
     </row>
-    <row r="16" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="24">
       <c r="A16" s="40" t="s">
         <v>54</v>
       </c>
@@ -2049,7 +2103,7 @@
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
     </row>
-    <row r="17" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="24">
       <c r="A17" s="40" t="s">
         <v>56</v>
       </c>
@@ -2090,7 +2144,7 @@
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
     </row>
-    <row r="18" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="12">
       <c r="A18" s="40" t="s">
         <v>58</v>
       </c>
@@ -2121,7 +2175,7 @@
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
     </row>
-    <row r="19" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="12">
       <c r="A19" s="40" t="s">
         <v>58</v>
       </c>
@@ -2152,7 +2206,7 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
     </row>
-    <row r="20" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="12">
       <c r="A20" s="40" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2237,7 @@
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
     </row>
-    <row r="21" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21" s="32" t="s">
         <v>60</v>
       </c>
@@ -2224,7 +2278,7 @@
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
     </row>
-    <row r="22" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="24">
       <c r="A22" s="24" t="s">
         <v>63</v>
       </c>
@@ -2263,14 +2317,14 @@
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="24">
       <c r="A23" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="59" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="33"/>
@@ -2304,7 +2358,7 @@
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
     </row>
-    <row r="24" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="24">
       <c r="A24" s="37" t="s">
         <v>69</v>
       </c>
@@ -2345,30 +2399,30 @@
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
     </row>
-    <row r="25" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:25" ht="12">
+      <c r="A25" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="67" t="s">
+      <c r="E25" s="71"/>
+      <c r="F25" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="64" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="30"/>
@@ -2388,16 +2442,16 @@
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
     </row>
-    <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
+    <row r="26" spans="1:25" ht="45" customHeight="1">
+      <c r="A26" s="65"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="63"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="30"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
@@ -2415,7 +2469,7 @@
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
     </row>
-    <row r="27" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="24">
       <c r="A27" s="32" t="s">
         <v>75</v>
       </c>
@@ -2454,7 +2508,7 @@
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
     </row>
-    <row r="28" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="24">
       <c r="A28" s="37" t="s">
         <v>77</v>
       </c>
@@ -2493,14 +2547,14 @@
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
     </row>
-    <row r="29" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D29" s="2"/>
@@ -2521,14 +2575,14 @@
       </c>
       <c r="J29" s="48"/>
     </row>
-    <row r="30" spans="1:25" ht="26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="24">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="58" t="s">
         <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2549,14 +2603,14 @@
       </c>
       <c r="J30" s="48"/>
     </row>
-    <row r="31" spans="1:25" ht="65" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="60">
       <c r="A31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="58" t="s">
         <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2577,27 +2631,67 @@
       </c>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="2"/>
+    <row r="32" spans="1:25" ht="60">
+      <c r="A32" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="75">
+        <v>200</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>185</v>
+      </c>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="2"/>
+    <row r="33" spans="1:10" ht="60">
+      <c r="A33" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="75">
+        <v>200</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>185</v>
+      </c>
       <c r="J33" s="48"/>
     </row>
-    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="12">
       <c r="A34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2607,7 +2701,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="48"/>
     </row>
-    <row r="35" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="12">
       <c r="A35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2617,7 +2711,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="48"/>
     </row>
-    <row r="36" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="12">
       <c r="A36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2627,7 +2721,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="48"/>
     </row>
-    <row r="37" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="12">
       <c r="A37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2637,7 +2731,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="48"/>
     </row>
-    <row r="38" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="12">
       <c r="A38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2647,7 +2741,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="48"/>
     </row>
-    <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="12">
       <c r="A39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2657,7 +2751,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="48"/>
     </row>
-    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="12">
       <c r="A40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2667,7 +2761,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="12">
       <c r="A41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2677,7 +2771,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="12">
       <c r="A42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2687,7 +2781,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="12">
       <c r="A43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2697,7 +2791,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="12">
       <c r="A44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2707,7 +2801,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="12">
       <c r="A45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2717,7 +2811,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="12">
       <c r="A46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2727,7 +2821,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="12">
       <c r="A47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2737,7 +2831,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="12">
       <c r="A48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2747,7 +2841,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="48"/>
     </row>
-    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="12">
       <c r="A49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2757,7 +2851,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="48"/>
     </row>
-    <row r="50" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="12">
       <c r="A50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2767,7 +2861,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="48"/>
     </row>
-    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="12">
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2777,7 +2871,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="48"/>
     </row>
-    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="12">
       <c r="A52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2787,7 +2881,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="48"/>
     </row>
-    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="12">
       <c r="A53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2797,7 +2891,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="48"/>
     </row>
-    <row r="54" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="12">
       <c r="A54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2807,7 +2901,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="48"/>
     </row>
-    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="12">
       <c r="A55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2817,7 +2911,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="48"/>
     </row>
-    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="12">
       <c r="A56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2827,7 +2921,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="12">
       <c r="A57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2837,7 +2931,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="48"/>
     </row>
-    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="12">
       <c r="A58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2847,7 +2941,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="48"/>
     </row>
-    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="12">
       <c r="A59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2857,7 +2951,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="12">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2867,7 +2961,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="48"/>
     </row>
-    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="12">
       <c r="A61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2877,7 +2971,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="48"/>
     </row>
-    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="12">
       <c r="A62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2887,7 +2981,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="48"/>
     </row>
-    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="12">
       <c r="A63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2897,7 +2991,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="48"/>
     </row>
-    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="12">
       <c r="A64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2907,7 +3001,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="12">
       <c r="A65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2917,7 +3011,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="48"/>
     </row>
-    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="12">
       <c r="A66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2927,7 +3021,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="48"/>
     </row>
-    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="12">
       <c r="A67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2937,7 +3031,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="48"/>
     </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="12">
       <c r="A68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2947,7 +3041,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="48"/>
     </row>
-    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="12">
       <c r="A69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2957,7 +3051,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="48"/>
     </row>
-    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="12">
       <c r="A70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2967,7 +3061,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="48"/>
     </row>
-    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="12">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2977,7 +3071,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="48"/>
     </row>
-    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="12">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2987,7 +3081,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="48"/>
     </row>
-    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="12">
       <c r="A73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2997,7 +3091,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="48"/>
     </row>
-    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="12">
       <c r="A74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3007,7 +3101,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="48"/>
     </row>
-    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="12">
       <c r="A75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3017,7 +3111,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="48"/>
     </row>
-    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="12">
       <c r="A76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3027,7 +3121,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="48"/>
     </row>
-    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="12">
       <c r="A77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3037,7 +3131,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="48"/>
     </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="12">
       <c r="A78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3047,7 +3141,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="48"/>
     </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="12">
       <c r="A79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3057,7 +3151,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="48"/>
     </row>
-    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="12">
       <c r="A80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3067,7 +3161,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="48"/>
     </row>
-    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="12">
       <c r="A81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3077,7 +3171,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="48"/>
     </row>
-    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="12">
       <c r="A82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3087,7 +3181,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="48"/>
     </row>
-    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="12">
       <c r="A83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3097,7 +3191,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="48"/>
     </row>
-    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="12">
       <c r="A84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3107,7 +3201,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="48"/>
     </row>
-    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="12">
       <c r="A85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3117,7 +3211,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="48"/>
     </row>
-    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="12">
       <c r="A86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3127,7 +3221,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="48"/>
     </row>
-    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="12">
       <c r="A87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3137,7 +3231,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="48"/>
     </row>
-    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="12">
       <c r="A88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3147,7 +3241,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="48"/>
     </row>
-    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="12">
       <c r="A89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3157,7 +3251,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="48"/>
     </row>
-    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="12">
       <c r="A90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3167,7 +3261,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="48"/>
     </row>
-    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="12">
       <c r="A91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3177,7 +3271,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="48"/>
     </row>
-    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="12">
       <c r="A92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3187,7 +3281,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="48"/>
     </row>
-    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="12">
       <c r="A93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3197,7 +3291,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="48"/>
     </row>
-    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="12">
       <c r="A94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3207,7 +3301,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="48"/>
     </row>
-    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="12">
       <c r="A95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3217,7 +3311,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="48"/>
     </row>
-    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="12">
       <c r="A96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3227,7 +3321,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="48"/>
     </row>
-    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="12">
       <c r="A97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3237,7 +3331,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="48"/>
     </row>
-    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="12">
       <c r="A98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3247,7 +3341,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="48"/>
     </row>
-    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="12">
       <c r="A99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3257,7 +3351,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="48"/>
     </row>
-    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="12">
       <c r="A100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3267,7 +3361,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="48"/>
     </row>
-    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="12">
       <c r="A101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3277,7 +3371,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="48"/>
     </row>
-    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" ht="12">
       <c r="A102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3287,7 +3381,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="48"/>
     </row>
-    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" ht="12">
       <c r="A103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3297,7 +3391,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="48"/>
     </row>
-    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" ht="12">
       <c r="A104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3307,7 +3401,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="48"/>
     </row>
-    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="12">
       <c r="A105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3317,7 +3411,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="48"/>
     </row>
-    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="12">
       <c r="A106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3327,7 +3421,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="48"/>
     </row>
-    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="12">
       <c r="A107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3337,7 +3431,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="48"/>
     </row>
-    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="12">
       <c r="A108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3347,7 +3441,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="48"/>
     </row>
-    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" ht="12">
       <c r="A109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3357,7 +3451,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="48"/>
     </row>
-    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" ht="12">
       <c r="A110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3367,7 +3461,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="48"/>
     </row>
-    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" ht="12">
       <c r="A111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3377,7 +3471,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="48"/>
     </row>
-    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="12">
       <c r="A112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3387,7 +3481,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="48"/>
     </row>
-    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" ht="12">
       <c r="A113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3397,7 +3491,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="48"/>
     </row>
-    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" ht="12">
       <c r="A114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3407,7 +3501,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="48"/>
     </row>
-    <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" ht="12">
       <c r="A115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3417,7 +3511,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="48"/>
     </row>
-    <row r="116" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" ht="12">
       <c r="A116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3427,7 +3521,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="48"/>
     </row>
-    <row r="117" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" ht="12">
       <c r="A117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3437,7 +3531,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="48"/>
     </row>
-    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" ht="12">
       <c r="A118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3447,7 +3541,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="48"/>
     </row>
-    <row r="119" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" ht="12">
       <c r="A119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3457,7 +3551,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="48"/>
     </row>
-    <row r="120" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" ht="12">
       <c r="A120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3467,7 +3561,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="48"/>
     </row>
-    <row r="121" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" ht="12">
       <c r="A121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3477,7 +3571,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="48"/>
     </row>
-    <row r="122" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" ht="12">
       <c r="A122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3487,7 +3581,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="48"/>
     </row>
-    <row r="123" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" ht="12">
       <c r="A123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3497,7 +3591,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="48"/>
     </row>
-    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" ht="12">
       <c r="A124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3507,7 +3601,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="48"/>
     </row>
-    <row r="125" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" ht="12">
       <c r="A125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3517,7 +3611,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="48"/>
     </row>
-    <row r="126" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" ht="12">
       <c r="A126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3527,7 +3621,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="48"/>
     </row>
-    <row r="127" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" ht="12">
       <c r="A127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3537,7 +3631,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="48"/>
     </row>
-    <row r="128" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" ht="12">
       <c r="A128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3547,7 +3641,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="48"/>
     </row>
-    <row r="129" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" ht="12">
       <c r="A129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3557,7 +3651,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="48"/>
     </row>
-    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" ht="12">
       <c r="A130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3567,7 +3661,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="48"/>
     </row>
-    <row r="131" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" ht="12">
       <c r="A131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3577,7 +3671,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="48"/>
     </row>
-    <row r="132" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" ht="12">
       <c r="A132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3587,7 +3681,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="48"/>
     </row>
-    <row r="133" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="12">
       <c r="A133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3597,7 +3691,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="48"/>
     </row>
-    <row r="134" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" ht="12">
       <c r="A134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3607,7 +3701,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="48"/>
     </row>
-    <row r="135" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" ht="12">
       <c r="A135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3617,7 +3711,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="48"/>
     </row>
-    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" ht="12">
       <c r="A136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3627,7 +3721,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="48"/>
     </row>
-    <row r="137" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="12">
       <c r="A137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3637,7 +3731,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="48"/>
     </row>
-    <row r="138" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" ht="12">
       <c r="A138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3647,7 +3741,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="48"/>
     </row>
-    <row r="139" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" ht="12">
       <c r="A139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3657,7 +3751,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="48"/>
     </row>
-    <row r="140" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" ht="12">
       <c r="A140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3667,7 +3761,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="48"/>
     </row>
-    <row r="141" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="12">
       <c r="A141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3677,7 +3771,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="48"/>
     </row>
-    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" ht="12">
       <c r="A142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3687,7 +3781,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="48"/>
     </row>
-    <row r="143" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" ht="12">
       <c r="A143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3697,7 +3791,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="48"/>
     </row>
-    <row r="144" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" ht="12">
       <c r="A144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3707,7 +3801,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="48"/>
     </row>
-    <row r="145" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="12">
       <c r="A145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3717,7 +3811,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="48"/>
     </row>
-    <row r="146" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="12">
       <c r="A146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3727,7 +3821,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="48"/>
     </row>
-    <row r="147" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="12">
       <c r="A147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3737,7 +3831,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="48"/>
     </row>
-    <row r="148" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="12">
       <c r="A148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3747,7 +3841,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="48"/>
     </row>
-    <row r="149" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="12">
       <c r="A149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3757,7 +3851,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="48"/>
     </row>
-    <row r="150" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="12">
       <c r="A150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3767,7 +3861,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="48"/>
     </row>
-    <row r="151" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="12">
       <c r="A151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3777,7 +3871,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="48"/>
     </row>
-    <row r="152" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="12">
       <c r="A152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3787,7 +3881,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="48"/>
     </row>
-    <row r="153" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="12">
       <c r="A153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -3797,7 +3891,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="48"/>
     </row>
-    <row r="154" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="12">
       <c r="A154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3807,7 +3901,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="48"/>
     </row>
-    <row r="155" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="12">
       <c r="A155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3817,7 +3911,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="48"/>
     </row>
-    <row r="156" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="12">
       <c r="A156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3827,7 +3921,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="48"/>
     </row>
-    <row r="157" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="12">
       <c r="A157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3837,7 +3931,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="48"/>
     </row>
-    <row r="158" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="12">
       <c r="A158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3847,7 +3941,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="48"/>
     </row>
-    <row r="159" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="12">
       <c r="A159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3857,7 +3951,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="48"/>
     </row>
-    <row r="160" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="12">
       <c r="A160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -3867,7 +3961,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="48"/>
     </row>
-    <row r="161" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="12">
       <c r="A161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3877,7 +3971,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="48"/>
     </row>
-    <row r="162" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="12">
       <c r="A162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -3887,7 +3981,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="48"/>
     </row>
-    <row r="163" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="12">
       <c r="A163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3897,7 +3991,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="48"/>
     </row>
-    <row r="164" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="12">
       <c r="A164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3907,7 +4001,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="48"/>
     </row>
-    <row r="165" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="12">
       <c r="A165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3917,7 +4011,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="48"/>
     </row>
-    <row r="166" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="12">
       <c r="A166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3927,7 +4021,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="48"/>
     </row>
-    <row r="167" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="12">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3937,7 +4031,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="48"/>
     </row>
-    <row r="168" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="12">
       <c r="A168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3947,7 +4041,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="48"/>
     </row>
-    <row r="169" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="12">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3957,7 +4051,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="48"/>
     </row>
-    <row r="170" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="12">
       <c r="A170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3967,7 +4061,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="48"/>
     </row>
-    <row r="171" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="12">
       <c r="A171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3977,7 +4071,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="48"/>
     </row>
-    <row r="172" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="12">
       <c r="A172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3987,7 +4081,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="48"/>
     </row>
-    <row r="173" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="12">
       <c r="A173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -3997,7 +4091,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="48"/>
     </row>
-    <row r="174" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="12">
       <c r="A174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4007,7 +4101,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="48"/>
     </row>
-    <row r="175" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="12">
       <c r="A175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4017,7 +4111,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="48"/>
     </row>
-    <row r="176" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="12">
       <c r="A176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4027,7 +4121,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="48"/>
     </row>
-    <row r="177" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="12">
       <c r="A177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4037,7 +4131,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="48"/>
     </row>
-    <row r="178" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="12">
       <c r="A178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4047,7 +4141,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="48"/>
     </row>
-    <row r="179" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="12">
       <c r="A179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -4057,7 +4151,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="48"/>
     </row>
-    <row r="180" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="12">
       <c r="A180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -4067,7 +4161,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="48"/>
     </row>
-    <row r="181" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="12">
       <c r="A181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -4077,7 +4171,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="48"/>
     </row>
-    <row r="182" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="12">
       <c r="A182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -4087,7 +4181,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="48"/>
     </row>
-    <row r="183" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="12">
       <c r="A183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -4097,7 +4191,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="48"/>
     </row>
-    <row r="184" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="12">
       <c r="A184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -4107,7 +4201,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="48"/>
     </row>
-    <row r="185" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="12">
       <c r="A185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -4117,7 +4211,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="48"/>
     </row>
-    <row r="186" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="12">
       <c r="A186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4127,7 +4221,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="48"/>
     </row>
-    <row r="187" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="12">
       <c r="A187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -4137,7 +4231,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="48"/>
     </row>
-    <row r="188" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="12">
       <c r="A188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4147,7 +4241,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="48"/>
     </row>
-    <row r="189" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="12">
       <c r="A189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4157,7 +4251,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="12">
       <c r="A190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -4167,7 +4261,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="48"/>
     </row>
-    <row r="191" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="12">
       <c r="A191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -4177,7 +4271,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="48"/>
     </row>
-    <row r="192" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="12">
       <c r="A192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4187,7 +4281,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="48"/>
     </row>
-    <row r="193" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="12">
       <c r="A193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -4197,7 +4291,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="48"/>
     </row>
-    <row r="194" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="12">
       <c r="A194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -4207,7 +4301,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="48"/>
     </row>
-    <row r="195" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="12">
       <c r="A195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -4217,7 +4311,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="48"/>
     </row>
-    <row r="196" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="12">
       <c r="A196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -4227,7 +4321,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="48"/>
     </row>
-    <row r="197" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="12">
       <c r="A197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -4237,7 +4331,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="12">
       <c r="A198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -4247,7 +4341,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="12">
       <c r="A199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -4257,7 +4351,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="12">
       <c r="A200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -4267,7 +4361,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="12">
       <c r="A201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -4277,7 +4371,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="12">
       <c r="A202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -4287,7 +4381,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="12">
       <c r="A203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -4297,7 +4391,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="12">
       <c r="A204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -4307,7 +4401,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="12">
       <c r="A205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -4317,7 +4411,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="12">
       <c r="A206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -4327,7 +4421,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="12">
       <c r="A207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -4337,7 +4431,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="48"/>
     </row>
-    <row r="208" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="12">
       <c r="A208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -4347,7 +4441,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" ht="12">
       <c r="A209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -4357,7 +4451,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" ht="12">
       <c r="A210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -4367,7 +4461,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" ht="12">
       <c r="A211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -4377,7 +4471,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" ht="12">
       <c r="A212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -4387,7 +4481,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" ht="12">
       <c r="A213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -4397,7 +4491,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" ht="12">
       <c r="A214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -4407,7 +4501,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" ht="12">
       <c r="A215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -4417,7 +4511,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="12">
       <c r="A216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -4427,7 +4521,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" ht="12">
       <c r="A217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -4437,7 +4531,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" ht="12">
       <c r="A218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -4447,7 +4541,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" ht="12">
       <c r="A219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -4457,7 +4551,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" ht="12">
       <c r="A220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -4467,7 +4561,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" ht="12">
       <c r="A221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -4477,7 +4571,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" ht="12">
       <c r="A222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -4487,7 +4581,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="12">
       <c r="A223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -4497,7 +4591,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" ht="12">
       <c r="A224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -4507,7 +4601,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" ht="12">
       <c r="A225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -4517,7 +4611,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" ht="12">
       <c r="A226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -4527,7 +4621,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" ht="12">
       <c r="A227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -4537,7 +4631,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" ht="12">
       <c r="A228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -4547,7 +4641,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="48"/>
     </row>
-    <row r="229" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" ht="12">
       <c r="A229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -4557,7 +4651,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" ht="12">
       <c r="A230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -4567,7 +4661,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" ht="12">
       <c r="A231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -4577,7 +4671,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="48"/>
     </row>
-    <row r="232" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" ht="12">
       <c r="A232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -4587,7 +4681,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="12">
       <c r="A233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -4597,7 +4691,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" ht="12">
       <c r="A234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -4607,7 +4701,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" ht="12">
       <c r="A235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -4617,7 +4711,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" ht="12">
       <c r="A236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -4627,7 +4721,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" ht="12">
       <c r="A237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -4637,7 +4731,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" ht="12">
       <c r="A238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -4647,7 +4741,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" ht="12">
       <c r="A239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -4657,7 +4751,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="12">
       <c r="A240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -4667,7 +4761,7 @@
       <c r="I240" s="2"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="12">
       <c r="A241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -4677,7 +4771,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="12">
       <c r="A242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -4687,7 +4781,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="12">
       <c r="A243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -4697,7 +4791,7 @@
       <c r="I243" s="2"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="12">
       <c r="A244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -4707,7 +4801,7 @@
       <c r="I244" s="2"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="12">
       <c r="A245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -4717,7 +4811,7 @@
       <c r="I245" s="2"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="12">
       <c r="A246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -4727,7 +4821,7 @@
       <c r="I246" s="2"/>
       <c r="J246" s="48"/>
     </row>
-    <row r="247" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="12">
       <c r="A247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -4737,7 +4831,7 @@
       <c r="I247" s="2"/>
       <c r="J247" s="48"/>
     </row>
-    <row r="248" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="12">
       <c r="A248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -4747,7 +4841,7 @@
       <c r="I248" s="2"/>
       <c r="J248" s="48"/>
     </row>
-    <row r="249" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="12">
       <c r="A249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -4757,7 +4851,7 @@
       <c r="I249" s="2"/>
       <c r="J249" s="48"/>
     </row>
-    <row r="250" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="12">
       <c r="A250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -4767,7 +4861,7 @@
       <c r="I250" s="2"/>
       <c r="J250" s="48"/>
     </row>
-    <row r="251" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="12">
       <c r="A251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -4777,7 +4871,7 @@
       <c r="I251" s="2"/>
       <c r="J251" s="48"/>
     </row>
-    <row r="252" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="12">
       <c r="A252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -4787,7 +4881,7 @@
       <c r="I252" s="2"/>
       <c r="J252" s="48"/>
     </row>
-    <row r="253" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="12">
       <c r="A253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -4797,7 +4891,7 @@
       <c r="I253" s="2"/>
       <c r="J253" s="48"/>
     </row>
-    <row r="254" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="12">
       <c r="A254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -4807,7 +4901,7 @@
       <c r="I254" s="2"/>
       <c r="J254" s="48"/>
     </row>
-    <row r="255" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="12">
       <c r="A255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -4817,7 +4911,7 @@
       <c r="I255" s="2"/>
       <c r="J255" s="48"/>
     </row>
-    <row r="256" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="12">
       <c r="A256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -4827,7 +4921,7 @@
       <c r="I256" s="2"/>
       <c r="J256" s="48"/>
     </row>
-    <row r="257" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="12">
       <c r="A257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -4837,7 +4931,7 @@
       <c r="I257" s="2"/>
       <c r="J257" s="48"/>
     </row>
-    <row r="258" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="12">
       <c r="A258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -4847,7 +4941,7 @@
       <c r="I258" s="2"/>
       <c r="J258" s="48"/>
     </row>
-    <row r="259" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="12">
       <c r="A259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -4857,7 +4951,7 @@
       <c r="I259" s="2"/>
       <c r="J259" s="48"/>
     </row>
-    <row r="260" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="12">
       <c r="A260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -4867,7 +4961,7 @@
       <c r="I260" s="2"/>
       <c r="J260" s="48"/>
     </row>
-    <row r="261" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="12">
       <c r="A261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -4877,7 +4971,7 @@
       <c r="I261" s="2"/>
       <c r="J261" s="48"/>
     </row>
-    <row r="262" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="12">
       <c r="A262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -4887,7 +4981,7 @@
       <c r="I262" s="2"/>
       <c r="J262" s="48"/>
     </row>
-    <row r="263" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="12">
       <c r="A263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -4897,7 +4991,7 @@
       <c r="I263" s="2"/>
       <c r="J263" s="48"/>
     </row>
-    <row r="264" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="12">
       <c r="A264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -4907,7 +5001,7 @@
       <c r="I264" s="2"/>
       <c r="J264" s="48"/>
     </row>
-    <row r="265" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="12">
       <c r="A265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -4917,7 +5011,7 @@
       <c r="I265" s="2"/>
       <c r="J265" s="48"/>
     </row>
-    <row r="266" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="12">
       <c r="A266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -4927,7 +5021,7 @@
       <c r="I266" s="2"/>
       <c r="J266" s="48"/>
     </row>
-    <row r="267" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="12">
       <c r="A267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -4937,7 +5031,7 @@
       <c r="I267" s="2"/>
       <c r="J267" s="48"/>
     </row>
-    <row r="268" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="12">
       <c r="A268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -4947,7 +5041,7 @@
       <c r="I268" s="2"/>
       <c r="J268" s="48"/>
     </row>
-    <row r="269" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="12">
       <c r="A269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -4957,7 +5051,7 @@
       <c r="I269" s="2"/>
       <c r="J269" s="48"/>
     </row>
-    <row r="270" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="12">
       <c r="A270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -4967,7 +5061,7 @@
       <c r="I270" s="2"/>
       <c r="J270" s="48"/>
     </row>
-    <row r="271" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="12">
       <c r="A271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -4977,7 +5071,7 @@
       <c r="I271" s="2"/>
       <c r="J271" s="48"/>
     </row>
-    <row r="272" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="12">
       <c r="A272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -4987,7 +5081,7 @@
       <c r="I272" s="2"/>
       <c r="J272" s="48"/>
     </row>
-    <row r="273" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" ht="12">
       <c r="A273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -4997,7 +5091,7 @@
       <c r="I273" s="2"/>
       <c r="J273" s="48"/>
     </row>
-    <row r="274" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" ht="12">
       <c r="A274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -5007,7 +5101,7 @@
       <c r="I274" s="2"/>
       <c r="J274" s="48"/>
     </row>
-    <row r="275" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" ht="12">
       <c r="A275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -5017,7 +5111,7 @@
       <c r="I275" s="2"/>
       <c r="J275" s="48"/>
     </row>
-    <row r="276" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" ht="12">
       <c r="A276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -5027,7 +5121,7 @@
       <c r="I276" s="2"/>
       <c r="J276" s="48"/>
     </row>
-    <row r="277" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" ht="12">
       <c r="A277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -5037,7 +5131,7 @@
       <c r="I277" s="2"/>
       <c r="J277" s="48"/>
     </row>
-    <row r="278" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" ht="12">
       <c r="A278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -5047,7 +5141,7 @@
       <c r="I278" s="2"/>
       <c r="J278" s="48"/>
     </row>
-    <row r="279" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" ht="12">
       <c r="A279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -5057,7 +5151,7 @@
       <c r="I279" s="2"/>
       <c r="J279" s="48"/>
     </row>
-    <row r="280" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" ht="12">
       <c r="A280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -5067,7 +5161,7 @@
       <c r="I280" s="2"/>
       <c r="J280" s="48"/>
     </row>
-    <row r="281" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="12">
       <c r="A281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -5077,7 +5171,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="48"/>
     </row>
-    <row r="282" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" ht="12">
       <c r="A282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -5087,7 +5181,7 @@
       <c r="I282" s="2"/>
       <c r="J282" s="48"/>
     </row>
-    <row r="283" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" ht="12">
       <c r="A283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -5097,7 +5191,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="48"/>
     </row>
-    <row r="284" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" ht="12">
       <c r="A284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -5107,7 +5201,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="48"/>
     </row>
-    <row r="285" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="12">
       <c r="A285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -5117,7 +5211,7 @@
       <c r="I285" s="2"/>
       <c r="J285" s="48"/>
     </row>
-    <row r="286" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="12">
       <c r="A286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -5127,7 +5221,7 @@
       <c r="I286" s="2"/>
       <c r="J286" s="48"/>
     </row>
-    <row r="287" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" ht="12">
       <c r="A287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -5137,7 +5231,7 @@
       <c r="I287" s="2"/>
       <c r="J287" s="48"/>
     </row>
-    <row r="288" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" ht="12">
       <c r="A288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -5147,7 +5241,7 @@
       <c r="I288" s="2"/>
       <c r="J288" s="48"/>
     </row>
-    <row r="289" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="12">
       <c r="A289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -5157,7 +5251,7 @@
       <c r="I289" s="2"/>
       <c r="J289" s="48"/>
     </row>
-    <row r="290" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="12">
       <c r="A290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -5167,7 +5261,7 @@
       <c r="I290" s="2"/>
       <c r="J290" s="48"/>
     </row>
-    <row r="291" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="12">
       <c r="A291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -5177,7 +5271,7 @@
       <c r="I291" s="2"/>
       <c r="J291" s="48"/>
     </row>
-    <row r="292" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" ht="12">
       <c r="A292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -5187,7 +5281,7 @@
       <c r="I292" s="2"/>
       <c r="J292" s="48"/>
     </row>
-    <row r="293" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" ht="12">
       <c r="A293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -5197,7 +5291,7 @@
       <c r="I293" s="2"/>
       <c r="J293" s="48"/>
     </row>
-    <row r="294" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" ht="12">
       <c r="A294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -5207,7 +5301,7 @@
       <c r="I294" s="2"/>
       <c r="J294" s="48"/>
     </row>
-    <row r="295" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" ht="12">
       <c r="A295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -5217,7 +5311,7 @@
       <c r="I295" s="2"/>
       <c r="J295" s="48"/>
     </row>
-    <row r="296" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" ht="12">
       <c r="A296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -5227,7 +5321,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="48"/>
     </row>
-    <row r="297" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" ht="12">
       <c r="A297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -5237,7 +5331,7 @@
       <c r="I297" s="2"/>
       <c r="J297" s="48"/>
     </row>
-    <row r="298" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" ht="12">
       <c r="A298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -5247,7 +5341,7 @@
       <c r="I298" s="2"/>
       <c r="J298" s="48"/>
     </row>
-    <row r="299" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" ht="12">
       <c r="A299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -5257,7 +5351,7 @@
       <c r="I299" s="2"/>
       <c r="J299" s="48"/>
     </row>
-    <row r="300" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" ht="12">
       <c r="A300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -5267,7 +5361,7 @@
       <c r="I300" s="2"/>
       <c r="J300" s="48"/>
     </row>
-    <row r="301" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" ht="12">
       <c r="A301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -5277,7 +5371,7 @@
       <c r="I301" s="2"/>
       <c r="J301" s="48"/>
     </row>
-    <row r="302" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" ht="12">
       <c r="A302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -5287,7 +5381,7 @@
       <c r="I302" s="2"/>
       <c r="J302" s="48"/>
     </row>
-    <row r="303" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" ht="12">
       <c r="A303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -5297,7 +5391,7 @@
       <c r="I303" s="2"/>
       <c r="J303" s="48"/>
     </row>
-    <row r="304" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" ht="12">
       <c r="A304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -5307,7 +5401,7 @@
       <c r="I304" s="2"/>
       <c r="J304" s="48"/>
     </row>
-    <row r="305" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:10" ht="12">
       <c r="A305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -5317,7 +5411,7 @@
       <c r="I305" s="2"/>
       <c r="J305" s="48"/>
     </row>
-    <row r="306" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:10" ht="12">
       <c r="A306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -5327,7 +5421,7 @@
       <c r="I306" s="2"/>
       <c r="J306" s="48"/>
     </row>
-    <row r="307" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:10" ht="12">
       <c r="A307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -5337,7 +5431,7 @@
       <c r="I307" s="2"/>
       <c r="J307" s="48"/>
     </row>
-    <row r="308" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:10" ht="12">
       <c r="A308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -5347,7 +5441,7 @@
       <c r="I308" s="2"/>
       <c r="J308" s="48"/>
     </row>
-    <row r="309" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:10" ht="12">
       <c r="A309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -5357,7 +5451,7 @@
       <c r="I309" s="2"/>
       <c r="J309" s="48"/>
     </row>
-    <row r="310" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:10" ht="12">
       <c r="A310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -5367,7 +5461,7 @@
       <c r="I310" s="2"/>
       <c r="J310" s="48"/>
     </row>
-    <row r="311" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:10" ht="12">
       <c r="A311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -5377,7 +5471,7 @@
       <c r="I311" s="2"/>
       <c r="J311" s="48"/>
     </row>
-    <row r="312" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:10" ht="12">
       <c r="A312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -5387,7 +5481,7 @@
       <c r="I312" s="2"/>
       <c r="J312" s="48"/>
     </row>
-    <row r="313" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:10" ht="12">
       <c r="A313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -5397,7 +5491,7 @@
       <c r="I313" s="2"/>
       <c r="J313" s="48"/>
     </row>
-    <row r="314" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:10" ht="12">
       <c r="A314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -5407,7 +5501,7 @@
       <c r="I314" s="2"/>
       <c r="J314" s="48"/>
     </row>
-    <row r="315" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:10" ht="12">
       <c r="A315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -5417,7 +5511,7 @@
       <c r="I315" s="2"/>
       <c r="J315" s="48"/>
     </row>
-    <row r="316" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:10" ht="12">
       <c r="A316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -5427,7 +5521,7 @@
       <c r="I316" s="2"/>
       <c r="J316" s="48"/>
     </row>
-    <row r="317" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:10" ht="12">
       <c r="A317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -5437,7 +5531,7 @@
       <c r="I317" s="2"/>
       <c r="J317" s="48"/>
     </row>
-    <row r="318" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:10" ht="12">
       <c r="A318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -5447,7 +5541,7 @@
       <c r="I318" s="2"/>
       <c r="J318" s="48"/>
     </row>
-    <row r="319" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:10" ht="12">
       <c r="A319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -5457,7 +5551,7 @@
       <c r="I319" s="2"/>
       <c r="J319" s="48"/>
     </row>
-    <row r="320" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:10" ht="12">
       <c r="A320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -5467,7 +5561,7 @@
       <c r="I320" s="2"/>
       <c r="J320" s="48"/>
     </row>
-    <row r="321" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:10" ht="12">
       <c r="A321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -5477,7 +5571,7 @@
       <c r="I321" s="2"/>
       <c r="J321" s="48"/>
     </row>
-    <row r="322" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:10" ht="12">
       <c r="A322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -5487,7 +5581,7 @@
       <c r="I322" s="2"/>
       <c r="J322" s="48"/>
     </row>
-    <row r="323" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:10" ht="12">
       <c r="A323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -5497,7 +5591,7 @@
       <c r="I323" s="2"/>
       <c r="J323" s="48"/>
     </row>
-    <row r="324" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:10" ht="12">
       <c r="A324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -5507,7 +5601,7 @@
       <c r="I324" s="2"/>
       <c r="J324" s="48"/>
     </row>
-    <row r="325" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:10" ht="12">
       <c r="A325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -5517,7 +5611,7 @@
       <c r="I325" s="2"/>
       <c r="J325" s="48"/>
     </row>
-    <row r="326" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:10" ht="12">
       <c r="A326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -5527,7 +5621,7 @@
       <c r="I326" s="2"/>
       <c r="J326" s="48"/>
     </row>
-    <row r="327" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:10" ht="12">
       <c r="A327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -5537,7 +5631,7 @@
       <c r="I327" s="2"/>
       <c r="J327" s="48"/>
     </row>
-    <row r="328" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:10" ht="12">
       <c r="A328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -5547,7 +5641,7 @@
       <c r="I328" s="2"/>
       <c r="J328" s="48"/>
     </row>
-    <row r="329" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:10" ht="12">
       <c r="A329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -5557,7 +5651,7 @@
       <c r="I329" s="2"/>
       <c r="J329" s="48"/>
     </row>
-    <row r="330" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:10" ht="12">
       <c r="A330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -5567,7 +5661,7 @@
       <c r="I330" s="2"/>
       <c r="J330" s="48"/>
     </row>
-    <row r="331" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:10" ht="12">
       <c r="A331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -5577,7 +5671,7 @@
       <c r="I331" s="2"/>
       <c r="J331" s="48"/>
     </row>
-    <row r="332" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:10" ht="12">
       <c r="A332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -5587,7 +5681,7 @@
       <c r="I332" s="2"/>
       <c r="J332" s="48"/>
     </row>
-    <row r="333" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:10" ht="12">
       <c r="A333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -5597,7 +5691,7 @@
       <c r="I333" s="2"/>
       <c r="J333" s="48"/>
     </row>
-    <row r="334" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:10" ht="12">
       <c r="A334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -5607,7 +5701,7 @@
       <c r="I334" s="2"/>
       <c r="J334" s="48"/>
     </row>
-    <row r="335" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:10" ht="12">
       <c r="A335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -5617,7 +5711,7 @@
       <c r="I335" s="2"/>
       <c r="J335" s="48"/>
     </row>
-    <row r="336" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:10" ht="12">
       <c r="A336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -5627,7 +5721,7 @@
       <c r="I336" s="2"/>
       <c r="J336" s="48"/>
     </row>
-    <row r="337" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:10" ht="12">
       <c r="A337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -5637,7 +5731,7 @@
       <c r="I337" s="2"/>
       <c r="J337" s="48"/>
     </row>
-    <row r="338" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:10" ht="12">
       <c r="A338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -5647,7 +5741,7 @@
       <c r="I338" s="2"/>
       <c r="J338" s="48"/>
     </row>
-    <row r="339" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:10" ht="12">
       <c r="A339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -5657,7 +5751,7 @@
       <c r="I339" s="2"/>
       <c r="J339" s="48"/>
     </row>
-    <row r="340" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:10" ht="12">
       <c r="A340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -5667,7 +5761,7 @@
       <c r="I340" s="2"/>
       <c r="J340" s="48"/>
     </row>
-    <row r="341" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:10" ht="12">
       <c r="A341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -5677,7 +5771,7 @@
       <c r="I341" s="2"/>
       <c r="J341" s="48"/>
     </row>
-    <row r="342" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:10" ht="12">
       <c r="A342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -5687,7 +5781,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="48"/>
     </row>
-    <row r="343" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:10" ht="12">
       <c r="A343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -5697,7 +5791,7 @@
       <c r="I343" s="2"/>
       <c r="J343" s="48"/>
     </row>
-    <row r="344" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:10" ht="12">
       <c r="A344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -5707,7 +5801,7 @@
       <c r="I344" s="2"/>
       <c r="J344" s="48"/>
     </row>
-    <row r="345" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:10" ht="12">
       <c r="A345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -5717,7 +5811,7 @@
       <c r="I345" s="2"/>
       <c r="J345" s="48"/>
     </row>
-    <row r="346" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:10" ht="12">
       <c r="A346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -5727,7 +5821,7 @@
       <c r="I346" s="2"/>
       <c r="J346" s="48"/>
     </row>
-    <row r="347" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:10" ht="12">
       <c r="A347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -5737,7 +5831,7 @@
       <c r="I347" s="2"/>
       <c r="J347" s="48"/>
     </row>
-    <row r="348" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:10" ht="12">
       <c r="A348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -5747,7 +5841,7 @@
       <c r="I348" s="2"/>
       <c r="J348" s="48"/>
     </row>
-    <row r="349" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:10" ht="12">
       <c r="A349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -5757,7 +5851,7 @@
       <c r="I349" s="2"/>
       <c r="J349" s="48"/>
     </row>
-    <row r="350" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:10" ht="12">
       <c r="A350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -5767,7 +5861,7 @@
       <c r="I350" s="2"/>
       <c r="J350" s="48"/>
     </row>
-    <row r="351" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:10" ht="12">
       <c r="A351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -5777,7 +5871,7 @@
       <c r="I351" s="2"/>
       <c r="J351" s="48"/>
     </row>
-    <row r="352" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:10" ht="12">
       <c r="A352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -5787,7 +5881,7 @@
       <c r="I352" s="2"/>
       <c r="J352" s="48"/>
     </row>
-    <row r="353" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="12">
       <c r="A353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -5797,7 +5891,7 @@
       <c r="I353" s="2"/>
       <c r="J353" s="48"/>
     </row>
-    <row r="354" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="12">
       <c r="A354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -5807,7 +5901,7 @@
       <c r="I354" s="2"/>
       <c r="J354" s="48"/>
     </row>
-    <row r="355" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="12">
       <c r="A355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -5817,7 +5911,7 @@
       <c r="I355" s="2"/>
       <c r="J355" s="48"/>
     </row>
-    <row r="356" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="12">
       <c r="A356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -5827,7 +5921,7 @@
       <c r="I356" s="2"/>
       <c r="J356" s="48"/>
     </row>
-    <row r="357" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="12">
       <c r="A357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -5837,7 +5931,7 @@
       <c r="I357" s="2"/>
       <c r="J357" s="48"/>
     </row>
-    <row r="358" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="12">
       <c r="A358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -5847,7 +5941,7 @@
       <c r="I358" s="2"/>
       <c r="J358" s="48"/>
     </row>
-    <row r="359" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="12">
       <c r="A359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -5857,7 +5951,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="48"/>
     </row>
-    <row r="360" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="12">
       <c r="A360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -5867,7 +5961,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="48"/>
     </row>
-    <row r="361" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="12">
       <c r="A361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -5877,7 +5971,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="48"/>
     </row>
-    <row r="362" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="12">
       <c r="A362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -5887,7 +5981,7 @@
       <c r="I362" s="2"/>
       <c r="J362" s="48"/>
     </row>
-    <row r="363" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="12">
       <c r="A363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -5897,7 +5991,7 @@
       <c r="I363" s="2"/>
       <c r="J363" s="48"/>
     </row>
-    <row r="364" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="12">
       <c r="A364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -5907,7 +6001,7 @@
       <c r="I364" s="2"/>
       <c r="J364" s="48"/>
     </row>
-    <row r="365" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="12">
       <c r="A365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -5917,7 +6011,7 @@
       <c r="I365" s="2"/>
       <c r="J365" s="48"/>
     </row>
-    <row r="366" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="12">
       <c r="A366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -5927,7 +6021,7 @@
       <c r="I366" s="2"/>
       <c r="J366" s="48"/>
     </row>
-    <row r="367" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="12">
       <c r="A367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -5937,7 +6031,7 @@
       <c r="I367" s="2"/>
       <c r="J367" s="48"/>
     </row>
-    <row r="368" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="12">
       <c r="A368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -5947,7 +6041,7 @@
       <c r="I368" s="2"/>
       <c r="J368" s="48"/>
     </row>
-    <row r="369" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" ht="12">
       <c r="A369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -5957,7 +6051,7 @@
       <c r="I369" s="2"/>
       <c r="J369" s="48"/>
     </row>
-    <row r="370" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" ht="12">
       <c r="A370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -5967,7 +6061,7 @@
       <c r="I370" s="2"/>
       <c r="J370" s="48"/>
     </row>
-    <row r="371" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" ht="12">
       <c r="A371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -5977,7 +6071,7 @@
       <c r="I371" s="2"/>
       <c r="J371" s="48"/>
     </row>
-    <row r="372" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" ht="12">
       <c r="A372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -5987,7 +6081,7 @@
       <c r="I372" s="2"/>
       <c r="J372" s="48"/>
     </row>
-    <row r="373" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" ht="12">
       <c r="A373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -5997,7 +6091,7 @@
       <c r="I373" s="2"/>
       <c r="J373" s="48"/>
     </row>
-    <row r="374" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" ht="12">
       <c r="A374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -6007,7 +6101,7 @@
       <c r="I374" s="2"/>
       <c r="J374" s="48"/>
     </row>
-    <row r="375" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" ht="12">
       <c r="A375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -6017,7 +6111,7 @@
       <c r="I375" s="2"/>
       <c r="J375" s="48"/>
     </row>
-    <row r="376" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" ht="12">
       <c r="A376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -6027,7 +6121,7 @@
       <c r="I376" s="2"/>
       <c r="J376" s="48"/>
     </row>
-    <row r="377" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" ht="12">
       <c r="A377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -6037,7 +6131,7 @@
       <c r="I377" s="2"/>
       <c r="J377" s="48"/>
     </row>
-    <row r="378" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" ht="12">
       <c r="A378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -6047,7 +6141,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="48"/>
     </row>
-    <row r="379" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" ht="12">
       <c r="A379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -6057,7 +6151,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="48"/>
     </row>
-    <row r="380" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" ht="12">
       <c r="A380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -6067,7 +6161,7 @@
       <c r="I380" s="2"/>
       <c r="J380" s="48"/>
     </row>
-    <row r="381" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:10" ht="12">
       <c r="A381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -6077,7 +6171,7 @@
       <c r="I381" s="2"/>
       <c r="J381" s="48"/>
     </row>
-    <row r="382" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" ht="12">
       <c r="A382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -6087,7 +6181,7 @@
       <c r="I382" s="2"/>
       <c r="J382" s="48"/>
     </row>
-    <row r="383" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" ht="12">
       <c r="A383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -6097,7 +6191,7 @@
       <c r="I383" s="2"/>
       <c r="J383" s="48"/>
     </row>
-    <row r="384" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" ht="12">
       <c r="A384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -6107,7 +6201,7 @@
       <c r="I384" s="2"/>
       <c r="J384" s="48"/>
     </row>
-    <row r="385" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" ht="12">
       <c r="A385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -6117,7 +6211,7 @@
       <c r="I385" s="2"/>
       <c r="J385" s="48"/>
     </row>
-    <row r="386" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" ht="12">
       <c r="A386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -6127,7 +6221,7 @@
       <c r="I386" s="2"/>
       <c r="J386" s="48"/>
     </row>
-    <row r="387" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" ht="12">
       <c r="A387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -6137,7 +6231,7 @@
       <c r="I387" s="2"/>
       <c r="J387" s="48"/>
     </row>
-    <row r="388" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" ht="12">
       <c r="A388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -6147,7 +6241,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="48"/>
     </row>
-    <row r="389" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" ht="12">
       <c r="A389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -6157,7 +6251,7 @@
       <c r="I389" s="2"/>
       <c r="J389" s="48"/>
     </row>
-    <row r="390" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" ht="12">
       <c r="A390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -6167,7 +6261,7 @@
       <c r="I390" s="2"/>
       <c r="J390" s="48"/>
     </row>
-    <row r="391" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" ht="12">
       <c r="A391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -6177,7 +6271,7 @@
       <c r="I391" s="2"/>
       <c r="J391" s="48"/>
     </row>
-    <row r="392" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" ht="12">
       <c r="A392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -6187,7 +6281,7 @@
       <c r="I392" s="2"/>
       <c r="J392" s="48"/>
     </row>
-    <row r="393" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" ht="12">
       <c r="A393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -6197,7 +6291,7 @@
       <c r="I393" s="2"/>
       <c r="J393" s="48"/>
     </row>
-    <row r="394" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" ht="12">
       <c r="A394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -6207,7 +6301,7 @@
       <c r="I394" s="2"/>
       <c r="J394" s="48"/>
     </row>
-    <row r="395" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" ht="12">
       <c r="A395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -6217,7 +6311,7 @@
       <c r="I395" s="2"/>
       <c r="J395" s="48"/>
     </row>
-    <row r="396" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" ht="12">
       <c r="A396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -6227,7 +6321,7 @@
       <c r="I396" s="2"/>
       <c r="J396" s="48"/>
     </row>
-    <row r="397" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" ht="12">
       <c r="A397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -6237,7 +6331,7 @@
       <c r="I397" s="2"/>
       <c r="J397" s="48"/>
     </row>
-    <row r="398" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" ht="12">
       <c r="A398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -6247,7 +6341,7 @@
       <c r="I398" s="2"/>
       <c r="J398" s="48"/>
     </row>
-    <row r="399" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" ht="12">
       <c r="A399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -6257,7 +6351,7 @@
       <c r="I399" s="2"/>
       <c r="J399" s="48"/>
     </row>
-    <row r="400" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" ht="12">
       <c r="A400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -6267,7 +6361,7 @@
       <c r="I400" s="2"/>
       <c r="J400" s="48"/>
     </row>
-    <row r="401" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:10" ht="12">
       <c r="A401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -6277,7 +6371,7 @@
       <c r="I401" s="2"/>
       <c r="J401" s="48"/>
     </row>
-    <row r="402" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:10" ht="12">
       <c r="A402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -6287,7 +6381,7 @@
       <c r="I402" s="2"/>
       <c r="J402" s="48"/>
     </row>
-    <row r="403" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:10" ht="12">
       <c r="A403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -6297,7 +6391,7 @@
       <c r="I403" s="2"/>
       <c r="J403" s="48"/>
     </row>
-    <row r="404" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:10" ht="12">
       <c r="A404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -6307,7 +6401,7 @@
       <c r="I404" s="2"/>
       <c r="J404" s="48"/>
     </row>
-    <row r="405" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:10" ht="12">
       <c r="A405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -6317,7 +6411,7 @@
       <c r="I405" s="2"/>
       <c r="J405" s="48"/>
     </row>
-    <row r="406" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:10" ht="12">
       <c r="A406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -6327,7 +6421,7 @@
       <c r="I406" s="2"/>
       <c r="J406" s="48"/>
     </row>
-    <row r="407" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:10" ht="12">
       <c r="A407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -6337,7 +6431,7 @@
       <c r="I407" s="2"/>
       <c r="J407" s="48"/>
     </row>
-    <row r="408" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:10" ht="12">
       <c r="A408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -6347,7 +6441,7 @@
       <c r="I408" s="2"/>
       <c r="J408" s="48"/>
     </row>
-    <row r="409" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:10" ht="12">
       <c r="A409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -6357,7 +6451,7 @@
       <c r="I409" s="2"/>
       <c r="J409" s="48"/>
     </row>
-    <row r="410" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:10" ht="12">
       <c r="A410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -6367,7 +6461,7 @@
       <c r="I410" s="2"/>
       <c r="J410" s="48"/>
     </row>
-    <row r="411" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:10" ht="12">
       <c r="A411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -6377,7 +6471,7 @@
       <c r="I411" s="2"/>
       <c r="J411" s="48"/>
     </row>
-    <row r="412" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:10" ht="12">
       <c r="A412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -6387,7 +6481,7 @@
       <c r="I412" s="2"/>
       <c r="J412" s="48"/>
     </row>
-    <row r="413" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:10" ht="12">
       <c r="A413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -6397,7 +6491,7 @@
       <c r="I413" s="2"/>
       <c r="J413" s="48"/>
     </row>
-    <row r="414" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:10" ht="12">
       <c r="A414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -6407,7 +6501,7 @@
       <c r="I414" s="2"/>
       <c r="J414" s="48"/>
     </row>
-    <row r="415" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:10" ht="12">
       <c r="A415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -6417,7 +6511,7 @@
       <c r="I415" s="2"/>
       <c r="J415" s="48"/>
     </row>
-    <row r="416" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:10" ht="12">
       <c r="A416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -6427,7 +6521,7 @@
       <c r="I416" s="2"/>
       <c r="J416" s="48"/>
     </row>
-    <row r="417" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:10" ht="12">
       <c r="A417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -6437,7 +6531,7 @@
       <c r="I417" s="2"/>
       <c r="J417" s="48"/>
     </row>
-    <row r="418" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:10" ht="12">
       <c r="A418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -6447,7 +6541,7 @@
       <c r="I418" s="2"/>
       <c r="J418" s="48"/>
     </row>
-    <row r="419" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:10" ht="12">
       <c r="A419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -6457,7 +6551,7 @@
       <c r="I419" s="2"/>
       <c r="J419" s="48"/>
     </row>
-    <row r="420" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:10" ht="12">
       <c r="A420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -6467,7 +6561,7 @@
       <c r="I420" s="2"/>
       <c r="J420" s="48"/>
     </row>
-    <row r="421" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:10" ht="12">
       <c r="A421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -6477,7 +6571,7 @@
       <c r="I421" s="2"/>
       <c r="J421" s="48"/>
     </row>
-    <row r="422" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:10" ht="12">
       <c r="A422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -6487,7 +6581,7 @@
       <c r="I422" s="2"/>
       <c r="J422" s="48"/>
     </row>
-    <row r="423" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:10" ht="12">
       <c r="A423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -6497,7 +6591,7 @@
       <c r="I423" s="2"/>
       <c r="J423" s="48"/>
     </row>
-    <row r="424" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:10" ht="12">
       <c r="A424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -6507,7 +6601,7 @@
       <c r="I424" s="2"/>
       <c r="J424" s="48"/>
     </row>
-    <row r="425" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:10" ht="12">
       <c r="A425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -6517,7 +6611,7 @@
       <c r="I425" s="2"/>
       <c r="J425" s="48"/>
     </row>
-    <row r="426" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:10" ht="12">
       <c r="A426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -6527,7 +6621,7 @@
       <c r="I426" s="2"/>
       <c r="J426" s="48"/>
     </row>
-    <row r="427" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:10" ht="12">
       <c r="A427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -6537,7 +6631,7 @@
       <c r="I427" s="2"/>
       <c r="J427" s="48"/>
     </row>
-    <row r="428" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:10" ht="12">
       <c r="A428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -6547,7 +6641,7 @@
       <c r="I428" s="2"/>
       <c r="J428" s="48"/>
     </row>
-    <row r="429" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:10" ht="12">
       <c r="A429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -6557,7 +6651,7 @@
       <c r="I429" s="2"/>
       <c r="J429" s="48"/>
     </row>
-    <row r="430" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:10" ht="12">
       <c r="A430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -6567,7 +6661,7 @@
       <c r="I430" s="2"/>
       <c r="J430" s="48"/>
     </row>
-    <row r="431" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:10" ht="12">
       <c r="A431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -6577,7 +6671,7 @@
       <c r="I431" s="2"/>
       <c r="J431" s="48"/>
     </row>
-    <row r="432" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:10" ht="12">
       <c r="A432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -6587,7 +6681,7 @@
       <c r="I432" s="2"/>
       <c r="J432" s="48"/>
     </row>
-    <row r="433" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" ht="12">
       <c r="A433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -6597,7 +6691,7 @@
       <c r="I433" s="2"/>
       <c r="J433" s="48"/>
     </row>
-    <row r="434" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" ht="12">
       <c r="A434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -6607,7 +6701,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="48"/>
     </row>
-    <row r="435" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" ht="12">
       <c r="A435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -6617,7 +6711,7 @@
       <c r="I435" s="2"/>
       <c r="J435" s="48"/>
     </row>
-    <row r="436" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" ht="12">
       <c r="A436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -6627,7 +6721,7 @@
       <c r="I436" s="2"/>
       <c r="J436" s="48"/>
     </row>
-    <row r="437" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" ht="12">
       <c r="A437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -6637,7 +6731,7 @@
       <c r="I437" s="2"/>
       <c r="J437" s="48"/>
     </row>
-    <row r="438" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" ht="12">
       <c r="A438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -6647,7 +6741,7 @@
       <c r="I438" s="2"/>
       <c r="J438" s="48"/>
     </row>
-    <row r="439" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" ht="12">
       <c r="A439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -6657,7 +6751,7 @@
       <c r="I439" s="2"/>
       <c r="J439" s="48"/>
     </row>
-    <row r="440" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" ht="12">
       <c r="A440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -6667,7 +6761,7 @@
       <c r="I440" s="2"/>
       <c r="J440" s="48"/>
     </row>
-    <row r="441" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" ht="12">
       <c r="A441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -6677,7 +6771,7 @@
       <c r="I441" s="2"/>
       <c r="J441" s="48"/>
     </row>
-    <row r="442" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" ht="12">
       <c r="A442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -6687,7 +6781,7 @@
       <c r="I442" s="2"/>
       <c r="J442" s="48"/>
     </row>
-    <row r="443" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" ht="12">
       <c r="A443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -6697,7 +6791,7 @@
       <c r="I443" s="2"/>
       <c r="J443" s="48"/>
     </row>
-    <row r="444" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" ht="12">
       <c r="A444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -6707,7 +6801,7 @@
       <c r="I444" s="2"/>
       <c r="J444" s="48"/>
     </row>
-    <row r="445" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" ht="12">
       <c r="A445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -6717,7 +6811,7 @@
       <c r="I445" s="2"/>
       <c r="J445" s="48"/>
     </row>
-    <row r="446" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" ht="12">
       <c r="A446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -6727,7 +6821,7 @@
       <c r="I446" s="2"/>
       <c r="J446" s="48"/>
     </row>
-    <row r="447" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" ht="12">
       <c r="A447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -6737,7 +6831,7 @@
       <c r="I447" s="2"/>
       <c r="J447" s="48"/>
     </row>
-    <row r="448" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:10" ht="12">
       <c r="A448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -6747,7 +6841,7 @@
       <c r="I448" s="2"/>
       <c r="J448" s="48"/>
     </row>
-    <row r="449" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" ht="12">
       <c r="A449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -6757,7 +6851,7 @@
       <c r="I449" s="2"/>
       <c r="J449" s="48"/>
     </row>
-    <row r="450" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" ht="12">
       <c r="A450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -6767,7 +6861,7 @@
       <c r="I450" s="2"/>
       <c r="J450" s="48"/>
     </row>
-    <row r="451" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="12">
       <c r="A451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -6777,7 +6871,7 @@
       <c r="I451" s="2"/>
       <c r="J451" s="48"/>
     </row>
-    <row r="452" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="12">
       <c r="A452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -6787,7 +6881,7 @@
       <c r="I452" s="2"/>
       <c r="J452" s="48"/>
     </row>
-    <row r="453" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="12">
       <c r="A453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -6797,7 +6891,7 @@
       <c r="I453" s="2"/>
       <c r="J453" s="48"/>
     </row>
-    <row r="454" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="12">
       <c r="A454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -6807,7 +6901,7 @@
       <c r="I454" s="2"/>
       <c r="J454" s="48"/>
     </row>
-    <row r="455" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="12">
       <c r="A455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -6817,7 +6911,7 @@
       <c r="I455" s="2"/>
       <c r="J455" s="48"/>
     </row>
-    <row r="456" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="12">
       <c r="A456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -6827,7 +6921,7 @@
       <c r="I456" s="2"/>
       <c r="J456" s="48"/>
     </row>
-    <row r="457" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="12">
       <c r="A457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -6837,7 +6931,7 @@
       <c r="I457" s="2"/>
       <c r="J457" s="48"/>
     </row>
-    <row r="458" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="12">
       <c r="A458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -6847,7 +6941,7 @@
       <c r="I458" s="2"/>
       <c r="J458" s="48"/>
     </row>
-    <row r="459" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="12">
       <c r="A459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -6857,7 +6951,7 @@
       <c r="I459" s="2"/>
       <c r="J459" s="48"/>
     </row>
-    <row r="460" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="12">
       <c r="A460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -6867,7 +6961,7 @@
       <c r="I460" s="2"/>
       <c r="J460" s="48"/>
     </row>
-    <row r="461" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="12">
       <c r="A461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -6877,7 +6971,7 @@
       <c r="I461" s="2"/>
       <c r="J461" s="48"/>
     </row>
-    <row r="462" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="12">
       <c r="A462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -6887,7 +6981,7 @@
       <c r="I462" s="2"/>
       <c r="J462" s="48"/>
     </row>
-    <row r="463" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="12">
       <c r="A463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -6897,7 +6991,7 @@
       <c r="I463" s="2"/>
       <c r="J463" s="48"/>
     </row>
-    <row r="464" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="12">
       <c r="A464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -6907,7 +7001,7 @@
       <c r="I464" s="2"/>
       <c r="J464" s="48"/>
     </row>
-    <row r="465" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="12">
       <c r="A465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -6917,7 +7011,7 @@
       <c r="I465" s="2"/>
       <c r="J465" s="48"/>
     </row>
-    <row r="466" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="12">
       <c r="A466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -6927,7 +7021,7 @@
       <c r="I466" s="2"/>
       <c r="J466" s="48"/>
     </row>
-    <row r="467" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="12">
       <c r="A467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -6937,7 +7031,7 @@
       <c r="I467" s="2"/>
       <c r="J467" s="48"/>
     </row>
-    <row r="468" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="12">
       <c r="A468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -6947,7 +7041,7 @@
       <c r="I468" s="2"/>
       <c r="J468" s="48"/>
     </row>
-    <row r="469" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="12">
       <c r="A469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -6957,7 +7051,7 @@
       <c r="I469" s="2"/>
       <c r="J469" s="48"/>
     </row>
-    <row r="470" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="12">
       <c r="A470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -6967,7 +7061,7 @@
       <c r="I470" s="2"/>
       <c r="J470" s="48"/>
     </row>
-    <row r="471" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="12">
       <c r="A471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -6977,7 +7071,7 @@
       <c r="I471" s="2"/>
       <c r="J471" s="48"/>
     </row>
-    <row r="472" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="12">
       <c r="A472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -6987,7 +7081,7 @@
       <c r="I472" s="2"/>
       <c r="J472" s="48"/>
     </row>
-    <row r="473" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="12">
       <c r="A473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -6997,7 +7091,7 @@
       <c r="I473" s="2"/>
       <c r="J473" s="48"/>
     </row>
-    <row r="474" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="12">
       <c r="A474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -7007,7 +7101,7 @@
       <c r="I474" s="2"/>
       <c r="J474" s="48"/>
     </row>
-    <row r="475" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="12">
       <c r="A475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -7017,7 +7111,7 @@
       <c r="I475" s="2"/>
       <c r="J475" s="48"/>
     </row>
-    <row r="476" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="12">
       <c r="A476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -7027,7 +7121,7 @@
       <c r="I476" s="2"/>
       <c r="J476" s="48"/>
     </row>
-    <row r="477" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="12">
       <c r="A477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -7037,7 +7131,7 @@
       <c r="I477" s="2"/>
       <c r="J477" s="48"/>
     </row>
-    <row r="478" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="12">
       <c r="A478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -7047,7 +7141,7 @@
       <c r="I478" s="2"/>
       <c r="J478" s="48"/>
     </row>
-    <row r="479" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="12">
       <c r="A479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -7057,7 +7151,7 @@
       <c r="I479" s="2"/>
       <c r="J479" s="48"/>
     </row>
-    <row r="480" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:10" ht="12">
       <c r="A480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -7067,7 +7161,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="48"/>
     </row>
-    <row r="481" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:10" ht="12">
       <c r="A481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -7077,7 +7171,7 @@
       <c r="I481" s="2"/>
       <c r="J481" s="48"/>
     </row>
-    <row r="482" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:10" ht="12">
       <c r="A482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -7087,7 +7181,7 @@
       <c r="I482" s="2"/>
       <c r="J482" s="48"/>
     </row>
-    <row r="483" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:10" ht="12">
       <c r="A483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -7097,7 +7191,7 @@
       <c r="I483" s="2"/>
       <c r="J483" s="48"/>
     </row>
-    <row r="484" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:10" ht="12">
       <c r="A484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -7107,7 +7201,7 @@
       <c r="I484" s="2"/>
       <c r="J484" s="48"/>
     </row>
-    <row r="485" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:10" ht="12">
       <c r="A485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -7117,7 +7211,7 @@
       <c r="I485" s="2"/>
       <c r="J485" s="48"/>
     </row>
-    <row r="486" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:10" ht="12">
       <c r="A486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -7127,7 +7221,7 @@
       <c r="I486" s="2"/>
       <c r="J486" s="48"/>
     </row>
-    <row r="487" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:10" ht="12">
       <c r="A487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -7137,7 +7231,7 @@
       <c r="I487" s="2"/>
       <c r="J487" s="48"/>
     </row>
-    <row r="488" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:10" ht="12">
       <c r="A488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -7147,7 +7241,7 @@
       <c r="I488" s="2"/>
       <c r="J488" s="48"/>
     </row>
-    <row r="489" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:10" ht="12">
       <c r="A489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -7157,7 +7251,7 @@
       <c r="I489" s="2"/>
       <c r="J489" s="48"/>
     </row>
-    <row r="490" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:10" ht="12">
       <c r="A490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -7167,7 +7261,7 @@
       <c r="I490" s="2"/>
       <c r="J490" s="48"/>
     </row>
-    <row r="491" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:10" ht="12">
       <c r="A491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -7177,7 +7271,7 @@
       <c r="I491" s="2"/>
       <c r="J491" s="48"/>
     </row>
-    <row r="492" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:10" ht="12">
       <c r="A492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -7187,7 +7281,7 @@
       <c r="I492" s="2"/>
       <c r="J492" s="48"/>
     </row>
-    <row r="493" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:10" ht="12">
       <c r="A493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -7197,7 +7291,7 @@
       <c r="I493" s="2"/>
       <c r="J493" s="48"/>
     </row>
-    <row r="494" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:10" ht="12">
       <c r="A494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -7207,7 +7301,7 @@
       <c r="I494" s="2"/>
       <c r="J494" s="48"/>
     </row>
-    <row r="495" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:10" ht="12">
       <c r="A495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -7217,7 +7311,7 @@
       <c r="I495" s="2"/>
       <c r="J495" s="48"/>
     </row>
-    <row r="496" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:10" ht="12">
       <c r="A496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -7227,7 +7321,7 @@
       <c r="I496" s="2"/>
       <c r="J496" s="48"/>
     </row>
-    <row r="497" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:10" ht="12">
       <c r="A497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -7237,7 +7331,7 @@
       <c r="I497" s="2"/>
       <c r="J497" s="48"/>
     </row>
-    <row r="498" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:10" ht="12">
       <c r="A498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -7247,7 +7341,7 @@
       <c r="I498" s="2"/>
       <c r="J498" s="48"/>
     </row>
-    <row r="499" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:10" ht="12">
       <c r="A499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -7257,7 +7351,7 @@
       <c r="I499" s="2"/>
       <c r="J499" s="48"/>
     </row>
-    <row r="500" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:10" ht="12">
       <c r="A500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -7267,7 +7361,7 @@
       <c r="I500" s="2"/>
       <c r="J500" s="48"/>
     </row>
-    <row r="501" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:10" ht="12">
       <c r="A501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -7277,7 +7371,7 @@
       <c r="I501" s="2"/>
       <c r="J501" s="48"/>
     </row>
-    <row r="502" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:10" ht="12">
       <c r="A502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -7287,7 +7381,7 @@
       <c r="I502" s="2"/>
       <c r="J502" s="48"/>
     </row>
-    <row r="503" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:10" ht="12">
       <c r="A503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -7297,7 +7391,7 @@
       <c r="I503" s="2"/>
       <c r="J503" s="48"/>
     </row>
-    <row r="504" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:10" ht="12">
       <c r="A504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -7307,7 +7401,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="48"/>
     </row>
-    <row r="505" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:10" ht="12">
       <c r="A505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -7317,7 +7411,7 @@
       <c r="I505" s="2"/>
       <c r="J505" s="48"/>
     </row>
-    <row r="506" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:10" ht="12">
       <c r="A506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -7327,7 +7421,7 @@
       <c r="I506" s="2"/>
       <c r="J506" s="48"/>
     </row>
-    <row r="507" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:10" ht="12">
       <c r="A507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -7337,7 +7431,7 @@
       <c r="I507" s="2"/>
       <c r="J507" s="48"/>
     </row>
-    <row r="508" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:10" ht="12">
       <c r="A508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -7347,7 +7441,7 @@
       <c r="I508" s="2"/>
       <c r="J508" s="48"/>
     </row>
-    <row r="509" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:10" ht="12">
       <c r="A509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -7357,7 +7451,7 @@
       <c r="I509" s="2"/>
       <c r="J509" s="48"/>
     </row>
-    <row r="510" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:10" ht="12">
       <c r="A510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -7367,7 +7461,7 @@
       <c r="I510" s="2"/>
       <c r="J510" s="48"/>
     </row>
-    <row r="511" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:10" ht="12">
       <c r="A511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -7377,7 +7471,7 @@
       <c r="I511" s="2"/>
       <c r="J511" s="48"/>
     </row>
-    <row r="512" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:10" ht="12">
       <c r="A512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -7387,7 +7481,7 @@
       <c r="I512" s="2"/>
       <c r="J512" s="48"/>
     </row>
-    <row r="513" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:10" ht="12">
       <c r="A513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -7397,7 +7491,7 @@
       <c r="I513" s="2"/>
       <c r="J513" s="48"/>
     </row>
-    <row r="514" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:10" ht="12">
       <c r="A514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -7407,7 +7501,7 @@
       <c r="I514" s="2"/>
       <c r="J514" s="48"/>
     </row>
-    <row r="515" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:10" ht="12">
       <c r="A515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -7417,7 +7511,7 @@
       <c r="I515" s="2"/>
       <c r="J515" s="48"/>
     </row>
-    <row r="516" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:10" ht="12">
       <c r="A516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -7427,7 +7521,7 @@
       <c r="I516" s="2"/>
       <c r="J516" s="48"/>
     </row>
-    <row r="517" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:10" ht="12">
       <c r="A517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -7437,7 +7531,7 @@
       <c r="I517" s="2"/>
       <c r="J517" s="48"/>
     </row>
-    <row r="518" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:10" ht="12">
       <c r="A518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -7447,7 +7541,7 @@
       <c r="I518" s="2"/>
       <c r="J518" s="48"/>
     </row>
-    <row r="519" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:10" ht="12">
       <c r="A519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -7457,7 +7551,7 @@
       <c r="I519" s="2"/>
       <c r="J519" s="48"/>
     </row>
-    <row r="520" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:10" ht="12">
       <c r="A520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -7467,7 +7561,7 @@
       <c r="I520" s="2"/>
       <c r="J520" s="48"/>
     </row>
-    <row r="521" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:10" ht="12">
       <c r="A521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -7477,7 +7571,7 @@
       <c r="I521" s="2"/>
       <c r="J521" s="48"/>
     </row>
-    <row r="522" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:10" ht="12">
       <c r="A522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -7487,7 +7581,7 @@
       <c r="I522" s="2"/>
       <c r="J522" s="48"/>
     </row>
-    <row r="523" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:10" ht="12">
       <c r="A523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -7497,7 +7591,7 @@
       <c r="I523" s="2"/>
       <c r="J523" s="48"/>
     </row>
-    <row r="524" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:10" ht="12">
       <c r="A524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -7507,7 +7601,7 @@
       <c r="I524" s="2"/>
       <c r="J524" s="48"/>
     </row>
-    <row r="525" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:10" ht="12">
       <c r="A525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -7517,7 +7611,7 @@
       <c r="I525" s="2"/>
       <c r="J525" s="48"/>
     </row>
-    <row r="526" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:10" ht="12">
       <c r="A526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -7527,7 +7621,7 @@
       <c r="I526" s="2"/>
       <c r="J526" s="48"/>
     </row>
-    <row r="527" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:10" ht="12">
       <c r="A527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -7537,7 +7631,7 @@
       <c r="I527" s="2"/>
       <c r="J527" s="48"/>
     </row>
-    <row r="528" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="12">
       <c r="A528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -7547,7 +7641,7 @@
       <c r="I528" s="2"/>
       <c r="J528" s="48"/>
     </row>
-    <row r="529" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:10" ht="12">
       <c r="A529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -7557,7 +7651,7 @@
       <c r="I529" s="2"/>
       <c r="J529" s="48"/>
     </row>
-    <row r="530" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:10" ht="12">
       <c r="A530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -7567,7 +7661,7 @@
       <c r="I530" s="2"/>
       <c r="J530" s="48"/>
     </row>
-    <row r="531" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:10" ht="12">
       <c r="A531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -7577,7 +7671,7 @@
       <c r="I531" s="2"/>
       <c r="J531" s="48"/>
     </row>
-    <row r="532" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:10" ht="12">
       <c r="A532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -7587,7 +7681,7 @@
       <c r="I532" s="2"/>
       <c r="J532" s="48"/>
     </row>
-    <row r="533" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:10" ht="12">
       <c r="A533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -7597,7 +7691,7 @@
       <c r="I533" s="2"/>
       <c r="J533" s="48"/>
     </row>
-    <row r="534" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:10" ht="12">
       <c r="A534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -7607,7 +7701,7 @@
       <c r="I534" s="2"/>
       <c r="J534" s="48"/>
     </row>
-    <row r="535" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:10" ht="12">
       <c r="A535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -7617,7 +7711,7 @@
       <c r="I535" s="2"/>
       <c r="J535" s="48"/>
     </row>
-    <row r="536" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:10" ht="12">
       <c r="A536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -7627,7 +7721,7 @@
       <c r="I536" s="2"/>
       <c r="J536" s="48"/>
     </row>
-    <row r="537" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:10" ht="12">
       <c r="A537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -7637,7 +7731,7 @@
       <c r="I537" s="2"/>
       <c r="J537" s="48"/>
     </row>
-    <row r="538" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:10" ht="12">
       <c r="A538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -7647,7 +7741,7 @@
       <c r="I538" s="2"/>
       <c r="J538" s="48"/>
     </row>
-    <row r="539" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:10" ht="12">
       <c r="A539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -7657,7 +7751,7 @@
       <c r="I539" s="2"/>
       <c r="J539" s="48"/>
     </row>
-    <row r="540" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:10" ht="12">
       <c r="A540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -7667,7 +7761,7 @@
       <c r="I540" s="2"/>
       <c r="J540" s="48"/>
     </row>
-    <row r="541" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:10" ht="12">
       <c r="A541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -7677,7 +7771,7 @@
       <c r="I541" s="2"/>
       <c r="J541" s="48"/>
     </row>
-    <row r="542" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:10" ht="12">
       <c r="A542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -7687,7 +7781,7 @@
       <c r="I542" s="2"/>
       <c r="J542" s="48"/>
     </row>
-    <row r="543" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:10" ht="12">
       <c r="A543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -7697,7 +7791,7 @@
       <c r="I543" s="2"/>
       <c r="J543" s="48"/>
     </row>
-    <row r="544" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:10" ht="12">
       <c r="A544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -7707,7 +7801,7 @@
       <c r="I544" s="2"/>
       <c r="J544" s="48"/>
     </row>
-    <row r="545" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:10" ht="12">
       <c r="A545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -7717,7 +7811,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="48"/>
     </row>
-    <row r="546" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:10" ht="12">
       <c r="A546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -7727,7 +7821,7 @@
       <c r="I546" s="2"/>
       <c r="J546" s="48"/>
     </row>
-    <row r="547" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:10" ht="12">
       <c r="A547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -7737,7 +7831,7 @@
       <c r="I547" s="2"/>
       <c r="J547" s="48"/>
     </row>
-    <row r="548" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:10" ht="12">
       <c r="A548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -7747,7 +7841,7 @@
       <c r="I548" s="2"/>
       <c r="J548" s="48"/>
     </row>
-    <row r="549" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:10" ht="12">
       <c r="A549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -7757,7 +7851,7 @@
       <c r="I549" s="2"/>
       <c r="J549" s="48"/>
     </row>
-    <row r="550" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:10" ht="12">
       <c r="A550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -7767,7 +7861,7 @@
       <c r="I550" s="2"/>
       <c r="J550" s="48"/>
     </row>
-    <row r="551" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:10" ht="12">
       <c r="A551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -7777,7 +7871,7 @@
       <c r="I551" s="2"/>
       <c r="J551" s="48"/>
     </row>
-    <row r="552" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:10" ht="12">
       <c r="A552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -7787,7 +7881,7 @@
       <c r="I552" s="2"/>
       <c r="J552" s="48"/>
     </row>
-    <row r="553" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:10" ht="12">
       <c r="A553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -7797,7 +7891,7 @@
       <c r="I553" s="2"/>
       <c r="J553" s="48"/>
     </row>
-    <row r="554" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:10" ht="12">
       <c r="A554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -7807,7 +7901,7 @@
       <c r="I554" s="2"/>
       <c r="J554" s="48"/>
     </row>
-    <row r="555" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:10" ht="12">
       <c r="A555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -7817,7 +7911,7 @@
       <c r="I555" s="2"/>
       <c r="J555" s="48"/>
     </row>
-    <row r="556" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:10" ht="12">
       <c r="A556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -7827,7 +7921,7 @@
       <c r="I556" s="2"/>
       <c r="J556" s="48"/>
     </row>
-    <row r="557" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:10" ht="12">
       <c r="A557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -7837,7 +7931,7 @@
       <c r="I557" s="2"/>
       <c r="J557" s="48"/>
     </row>
-    <row r="558" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:10" ht="12">
       <c r="A558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -7847,7 +7941,7 @@
       <c r="I558" s="2"/>
       <c r="J558" s="48"/>
     </row>
-    <row r="559" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:10" ht="12">
       <c r="A559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -7857,7 +7951,7 @@
       <c r="I559" s="2"/>
       <c r="J559" s="48"/>
     </row>
-    <row r="560" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:10" ht="12">
       <c r="A560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -7867,7 +7961,7 @@
       <c r="I560" s="2"/>
       <c r="J560" s="48"/>
     </row>
-    <row r="561" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:10" ht="12">
       <c r="A561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -7877,7 +7971,7 @@
       <c r="I561" s="2"/>
       <c r="J561" s="48"/>
     </row>
-    <row r="562" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:10" ht="12">
       <c r="A562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -7887,7 +7981,7 @@
       <c r="I562" s="2"/>
       <c r="J562" s="48"/>
     </row>
-    <row r="563" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:10" ht="12">
       <c r="A563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -7897,7 +7991,7 @@
       <c r="I563" s="2"/>
       <c r="J563" s="48"/>
     </row>
-    <row r="564" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:10" ht="12">
       <c r="A564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -7907,7 +8001,7 @@
       <c r="I564" s="2"/>
       <c r="J564" s="48"/>
     </row>
-    <row r="565" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:10" ht="12">
       <c r="A565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -7917,7 +8011,7 @@
       <c r="I565" s="2"/>
       <c r="J565" s="48"/>
     </row>
-    <row r="566" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:10" ht="12">
       <c r="A566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -7927,7 +8021,7 @@
       <c r="I566" s="2"/>
       <c r="J566" s="48"/>
     </row>
-    <row r="567" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:10" ht="12">
       <c r="A567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -7937,7 +8031,7 @@
       <c r="I567" s="2"/>
       <c r="J567" s="48"/>
     </row>
-    <row r="568" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:10" ht="12">
       <c r="A568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -7947,7 +8041,7 @@
       <c r="I568" s="2"/>
       <c r="J568" s="48"/>
     </row>
-    <row r="569" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:10" ht="12">
       <c r="A569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -7957,7 +8051,7 @@
       <c r="I569" s="2"/>
       <c r="J569" s="48"/>
     </row>
-    <row r="570" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:10" ht="12">
       <c r="A570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -7967,7 +8061,7 @@
       <c r="I570" s="2"/>
       <c r="J570" s="48"/>
     </row>
-    <row r="571" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:10" ht="12">
       <c r="A571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -7977,7 +8071,7 @@
       <c r="I571" s="2"/>
       <c r="J571" s="48"/>
     </row>
-    <row r="572" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:10" ht="12">
       <c r="A572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -7987,7 +8081,7 @@
       <c r="I572" s="2"/>
       <c r="J572" s="48"/>
     </row>
-    <row r="573" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:10" ht="12">
       <c r="A573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -7997,7 +8091,7 @@
       <c r="I573" s="2"/>
       <c r="J573" s="48"/>
     </row>
-    <row r="574" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:10" ht="12">
       <c r="A574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -8007,7 +8101,7 @@
       <c r="I574" s="2"/>
       <c r="J574" s="48"/>
     </row>
-    <row r="575" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:10" ht="12">
       <c r="A575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -8017,7 +8111,7 @@
       <c r="I575" s="2"/>
       <c r="J575" s="48"/>
     </row>
-    <row r="576" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:10" ht="12">
       <c r="A576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -8027,7 +8121,7 @@
       <c r="I576" s="2"/>
       <c r="J576" s="48"/>
     </row>
-    <row r="577" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:10" ht="12">
       <c r="A577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -8037,7 +8131,7 @@
       <c r="I577" s="2"/>
       <c r="J577" s="48"/>
     </row>
-    <row r="578" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:10" ht="12">
       <c r="A578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -8047,7 +8141,7 @@
       <c r="I578" s="2"/>
       <c r="J578" s="48"/>
     </row>
-    <row r="579" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:10" ht="12">
       <c r="A579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -8057,7 +8151,7 @@
       <c r="I579" s="2"/>
       <c r="J579" s="48"/>
     </row>
-    <row r="580" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:10" ht="12">
       <c r="A580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -8067,7 +8161,7 @@
       <c r="I580" s="2"/>
       <c r="J580" s="48"/>
     </row>
-    <row r="581" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:10" ht="12">
       <c r="A581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -8077,7 +8171,7 @@
       <c r="I581" s="2"/>
       <c r="J581" s="48"/>
     </row>
-    <row r="582" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:10" ht="12">
       <c r="A582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -8087,7 +8181,7 @@
       <c r="I582" s="2"/>
       <c r="J582" s="48"/>
     </row>
-    <row r="583" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:10" ht="12">
       <c r="A583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -8097,7 +8191,7 @@
       <c r="I583" s="2"/>
       <c r="J583" s="48"/>
     </row>
-    <row r="584" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:10" ht="12">
       <c r="A584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -8107,7 +8201,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="48"/>
     </row>
-    <row r="585" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:10" ht="12">
       <c r="A585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -8117,7 +8211,7 @@
       <c r="I585" s="2"/>
       <c r="J585" s="48"/>
     </row>
-    <row r="586" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:10" ht="12">
       <c r="A586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -8127,7 +8221,7 @@
       <c r="I586" s="2"/>
       <c r="J586" s="48"/>
     </row>
-    <row r="587" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:10" ht="12">
       <c r="A587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -8137,7 +8231,7 @@
       <c r="I587" s="2"/>
       <c r="J587" s="48"/>
     </row>
-    <row r="588" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:10" ht="12">
       <c r="A588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -8147,7 +8241,7 @@
       <c r="I588" s="2"/>
       <c r="J588" s="48"/>
     </row>
-    <row r="589" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:10" ht="12">
       <c r="A589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -8157,7 +8251,7 @@
       <c r="I589" s="2"/>
       <c r="J589" s="48"/>
     </row>
-    <row r="590" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:10" ht="12">
       <c r="A590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -8167,7 +8261,7 @@
       <c r="I590" s="2"/>
       <c r="J590" s="48"/>
     </row>
-    <row r="591" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:10" ht="12">
       <c r="A591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -8177,7 +8271,7 @@
       <c r="I591" s="2"/>
       <c r="J591" s="48"/>
     </row>
-    <row r="592" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:10" ht="12">
       <c r="A592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -8187,7 +8281,7 @@
       <c r="I592" s="2"/>
       <c r="J592" s="48"/>
     </row>
-    <row r="593" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:10" ht="12">
       <c r="A593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -8197,7 +8291,7 @@
       <c r="I593" s="2"/>
       <c r="J593" s="48"/>
     </row>
-    <row r="594" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:10" ht="12">
       <c r="A594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -8207,7 +8301,7 @@
       <c r="I594" s="2"/>
       <c r="J594" s="48"/>
     </row>
-    <row r="595" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:10" ht="12">
       <c r="A595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -8217,7 +8311,7 @@
       <c r="I595" s="2"/>
       <c r="J595" s="48"/>
     </row>
-    <row r="596" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:10" ht="12">
       <c r="A596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -8227,7 +8321,7 @@
       <c r="I596" s="2"/>
       <c r="J596" s="48"/>
     </row>
-    <row r="597" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:10" ht="12">
       <c r="A597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -8237,7 +8331,7 @@
       <c r="I597" s="2"/>
       <c r="J597" s="48"/>
     </row>
-    <row r="598" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:10" ht="12">
       <c r="A598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -8247,7 +8341,7 @@
       <c r="I598" s="2"/>
       <c r="J598" s="48"/>
     </row>
-    <row r="599" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:10" ht="12">
       <c r="A599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -8257,7 +8351,7 @@
       <c r="I599" s="2"/>
       <c r="J599" s="48"/>
     </row>
-    <row r="600" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:10" ht="12">
       <c r="A600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -8267,7 +8361,7 @@
       <c r="I600" s="2"/>
       <c r="J600" s="48"/>
     </row>
-    <row r="601" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:10" ht="12">
       <c r="A601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -8277,7 +8371,7 @@
       <c r="I601" s="2"/>
       <c r="J601" s="48"/>
     </row>
-    <row r="602" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:10" ht="12">
       <c r="A602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -8287,7 +8381,7 @@
       <c r="I602" s="2"/>
       <c r="J602" s="48"/>
     </row>
-    <row r="603" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:10" ht="12">
       <c r="A603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -8297,7 +8391,7 @@
       <c r="I603" s="2"/>
       <c r="J603" s="48"/>
     </row>
-    <row r="604" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:10" ht="12">
       <c r="A604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -8307,7 +8401,7 @@
       <c r="I604" s="2"/>
       <c r="J604" s="48"/>
     </row>
-    <row r="605" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:10" ht="12">
       <c r="A605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -8317,7 +8411,7 @@
       <c r="I605" s="2"/>
       <c r="J605" s="48"/>
     </row>
-    <row r="606" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:10" ht="12">
       <c r="A606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -8327,7 +8421,7 @@
       <c r="I606" s="2"/>
       <c r="J606" s="48"/>
     </row>
-    <row r="607" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:10" ht="12">
       <c r="A607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -8337,7 +8431,7 @@
       <c r="I607" s="2"/>
       <c r="J607" s="48"/>
     </row>
-    <row r="608" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:10" ht="12">
       <c r="A608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -8347,7 +8441,7 @@
       <c r="I608" s="2"/>
       <c r="J608" s="48"/>
     </row>
-    <row r="609" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:10" ht="12">
       <c r="A609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -8357,7 +8451,7 @@
       <c r="I609" s="2"/>
       <c r="J609" s="48"/>
     </row>
-    <row r="610" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:10" ht="12">
       <c r="A610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -8367,7 +8461,7 @@
       <c r="I610" s="2"/>
       <c r="J610" s="48"/>
     </row>
-    <row r="611" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:10" ht="12">
       <c r="A611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -8377,7 +8471,7 @@
       <c r="I611" s="2"/>
       <c r="J611" s="48"/>
     </row>
-    <row r="612" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:10" ht="12">
       <c r="A612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -8387,7 +8481,7 @@
       <c r="I612" s="2"/>
       <c r="J612" s="48"/>
     </row>
-    <row r="613" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:10" ht="12">
       <c r="A613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -8397,7 +8491,7 @@
       <c r="I613" s="2"/>
       <c r="J613" s="48"/>
     </row>
-    <row r="614" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:10" ht="12">
       <c r="A614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -8407,7 +8501,7 @@
       <c r="I614" s="2"/>
       <c r="J614" s="48"/>
     </row>
-    <row r="615" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:10" ht="12">
       <c r="A615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -8417,7 +8511,7 @@
       <c r="I615" s="2"/>
       <c r="J615" s="48"/>
     </row>
-    <row r="616" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:10" ht="12">
       <c r="A616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -8427,7 +8521,7 @@
       <c r="I616" s="2"/>
       <c r="J616" s="48"/>
     </row>
-    <row r="617" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:10" ht="12">
       <c r="A617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -8437,7 +8531,7 @@
       <c r="I617" s="2"/>
       <c r="J617" s="48"/>
     </row>
-    <row r="618" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:10" ht="12">
       <c r="A618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -8447,7 +8541,7 @@
       <c r="I618" s="2"/>
       <c r="J618" s="48"/>
     </row>
-    <row r="619" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:10" ht="12">
       <c r="A619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -8457,7 +8551,7 @@
       <c r="I619" s="2"/>
       <c r="J619" s="48"/>
     </row>
-    <row r="620" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:10" ht="12">
       <c r="A620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -8467,7 +8561,7 @@
       <c r="I620" s="2"/>
       <c r="J620" s="48"/>
     </row>
-    <row r="621" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:10" ht="12">
       <c r="A621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -8477,7 +8571,7 @@
       <c r="I621" s="2"/>
       <c r="J621" s="48"/>
     </row>
-    <row r="622" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:10" ht="12">
       <c r="A622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -8487,7 +8581,7 @@
       <c r="I622" s="2"/>
       <c r="J622" s="48"/>
     </row>
-    <row r="623" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:10" ht="12">
       <c r="A623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -8497,7 +8591,7 @@
       <c r="I623" s="2"/>
       <c r="J623" s="48"/>
     </row>
-    <row r="624" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:10" ht="12">
       <c r="A624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -8507,7 +8601,7 @@
       <c r="I624" s="2"/>
       <c r="J624" s="48"/>
     </row>
-    <row r="625" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:10" ht="12">
       <c r="A625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -8517,7 +8611,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="48"/>
     </row>
-    <row r="626" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:10" ht="12">
       <c r="A626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -8527,7 +8621,7 @@
       <c r="I626" s="2"/>
       <c r="J626" s="48"/>
     </row>
-    <row r="627" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:10" ht="12">
       <c r="A627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -8537,7 +8631,7 @@
       <c r="I627" s="2"/>
       <c r="J627" s="48"/>
     </row>
-    <row r="628" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:10" ht="12">
       <c r="A628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -8547,7 +8641,7 @@
       <c r="I628" s="2"/>
       <c r="J628" s="48"/>
     </row>
-    <row r="629" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:10" ht="12">
       <c r="A629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -8557,7 +8651,7 @@
       <c r="I629" s="2"/>
       <c r="J629" s="48"/>
     </row>
-    <row r="630" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:10" ht="12">
       <c r="A630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -8567,7 +8661,7 @@
       <c r="I630" s="2"/>
       <c r="J630" s="48"/>
     </row>
-    <row r="631" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:10" ht="12">
       <c r="A631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -8577,7 +8671,7 @@
       <c r="I631" s="2"/>
       <c r="J631" s="48"/>
     </row>
-    <row r="632" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:10" ht="12">
       <c r="A632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -8587,7 +8681,7 @@
       <c r="I632" s="2"/>
       <c r="J632" s="48"/>
     </row>
-    <row r="633" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:10" ht="12">
       <c r="A633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -8597,7 +8691,7 @@
       <c r="I633" s="2"/>
       <c r="J633" s="48"/>
     </row>
-    <row r="634" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:10" ht="12">
       <c r="A634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -8607,7 +8701,7 @@
       <c r="I634" s="2"/>
       <c r="J634" s="48"/>
     </row>
-    <row r="635" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:10" ht="12">
       <c r="A635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -8617,7 +8711,7 @@
       <c r="I635" s="2"/>
       <c r="J635" s="48"/>
     </row>
-    <row r="636" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:10" ht="12">
       <c r="A636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -8627,7 +8721,7 @@
       <c r="I636" s="2"/>
       <c r="J636" s="48"/>
     </row>
-    <row r="637" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:10" ht="12">
       <c r="A637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -8637,7 +8731,7 @@
       <c r="I637" s="2"/>
       <c r="J637" s="48"/>
     </row>
-    <row r="638" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:10" ht="12">
       <c r="A638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -8647,7 +8741,7 @@
       <c r="I638" s="2"/>
       <c r="J638" s="48"/>
     </row>
-    <row r="639" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:10" ht="12">
       <c r="A639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -8657,7 +8751,7 @@
       <c r="I639" s="2"/>
       <c r="J639" s="48"/>
     </row>
-    <row r="640" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:10" ht="12">
       <c r="A640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -8667,7 +8761,7 @@
       <c r="I640" s="2"/>
       <c r="J640" s="48"/>
     </row>
-    <row r="641" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:10" ht="12">
       <c r="A641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -8677,7 +8771,7 @@
       <c r="I641" s="2"/>
       <c r="J641" s="48"/>
     </row>
-    <row r="642" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:10" ht="12">
       <c r="A642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -8687,7 +8781,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="48"/>
     </row>
-    <row r="643" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:10" ht="12">
       <c r="A643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -8697,7 +8791,7 @@
       <c r="I643" s="2"/>
       <c r="J643" s="48"/>
     </row>
-    <row r="644" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:10" ht="12">
       <c r="A644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -8707,7 +8801,7 @@
       <c r="I644" s="2"/>
       <c r="J644" s="48"/>
     </row>
-    <row r="645" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:10" ht="12">
       <c r="A645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -8717,7 +8811,7 @@
       <c r="I645" s="2"/>
       <c r="J645" s="48"/>
     </row>
-    <row r="646" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:10" ht="12">
       <c r="A646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -8727,7 +8821,7 @@
       <c r="I646" s="2"/>
       <c r="J646" s="48"/>
     </row>
-    <row r="647" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:10" ht="12">
       <c r="A647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -8737,7 +8831,7 @@
       <c r="I647" s="2"/>
       <c r="J647" s="48"/>
     </row>
-    <row r="648" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:10" ht="12">
       <c r="A648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -8747,7 +8841,7 @@
       <c r="I648" s="2"/>
       <c r="J648" s="48"/>
     </row>
-    <row r="649" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:10" ht="12">
       <c r="A649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -8757,7 +8851,7 @@
       <c r="I649" s="2"/>
       <c r="J649" s="48"/>
     </row>
-    <row r="650" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:10" ht="12">
       <c r="A650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -8767,7 +8861,7 @@
       <c r="I650" s="2"/>
       <c r="J650" s="48"/>
     </row>
-    <row r="651" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:10" ht="12">
       <c r="A651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -8777,7 +8871,7 @@
       <c r="I651" s="2"/>
       <c r="J651" s="48"/>
     </row>
-    <row r="652" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:10" ht="12">
       <c r="A652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -8787,7 +8881,7 @@
       <c r="I652" s="2"/>
       <c r="J652" s="48"/>
     </row>
-    <row r="653" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:10" ht="12">
       <c r="A653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -8797,7 +8891,7 @@
       <c r="I653" s="2"/>
       <c r="J653" s="48"/>
     </row>
-    <row r="654" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:10" ht="12">
       <c r="A654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -8807,7 +8901,7 @@
       <c r="I654" s="2"/>
       <c r="J654" s="48"/>
     </row>
-    <row r="655" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:10" ht="12">
       <c r="A655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -8817,7 +8911,7 @@
       <c r="I655" s="2"/>
       <c r="J655" s="48"/>
     </row>
-    <row r="656" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:10" ht="12">
       <c r="A656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -8827,7 +8921,7 @@
       <c r="I656" s="2"/>
       <c r="J656" s="48"/>
     </row>
-    <row r="657" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:10" ht="12">
       <c r="A657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -8837,7 +8931,7 @@
       <c r="I657" s="2"/>
       <c r="J657" s="48"/>
     </row>
-    <row r="658" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:10" ht="12">
       <c r="A658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -8847,7 +8941,7 @@
       <c r="I658" s="2"/>
       <c r="J658" s="48"/>
     </row>
-    <row r="659" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:10" ht="12">
       <c r="A659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -8857,7 +8951,7 @@
       <c r="I659" s="2"/>
       <c r="J659" s="48"/>
     </row>
-    <row r="660" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:10" ht="12">
       <c r="A660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -8867,7 +8961,7 @@
       <c r="I660" s="2"/>
       <c r="J660" s="48"/>
     </row>
-    <row r="661" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:10" ht="12">
       <c r="A661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -8877,7 +8971,7 @@
       <c r="I661" s="2"/>
       <c r="J661" s="48"/>
     </row>
-    <row r="662" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:10" ht="12">
       <c r="A662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -8887,7 +8981,7 @@
       <c r="I662" s="2"/>
       <c r="J662" s="48"/>
     </row>
-    <row r="663" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:10" ht="12">
       <c r="A663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -8897,7 +8991,7 @@
       <c r="I663" s="2"/>
       <c r="J663" s="48"/>
     </row>
-    <row r="664" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:10" ht="12">
       <c r="A664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -8907,7 +9001,7 @@
       <c r="I664" s="2"/>
       <c r="J664" s="48"/>
     </row>
-    <row r="665" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:10" ht="12">
       <c r="A665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -8917,7 +9011,7 @@
       <c r="I665" s="2"/>
       <c r="J665" s="48"/>
     </row>
-    <row r="666" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:10" ht="12">
       <c r="A666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -8927,7 +9021,7 @@
       <c r="I666" s="2"/>
       <c r="J666" s="48"/>
     </row>
-    <row r="667" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:10" ht="12">
       <c r="A667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -8937,7 +9031,7 @@
       <c r="I667" s="2"/>
       <c r="J667" s="48"/>
     </row>
-    <row r="668" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:10" ht="12">
       <c r="A668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -8947,7 +9041,7 @@
       <c r="I668" s="2"/>
       <c r="J668" s="48"/>
     </row>
-    <row r="669" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:10" ht="12">
       <c r="A669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -8957,7 +9051,7 @@
       <c r="I669" s="2"/>
       <c r="J669" s="48"/>
     </row>
-    <row r="670" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:10" ht="12">
       <c r="A670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -8967,7 +9061,7 @@
       <c r="I670" s="2"/>
       <c r="J670" s="48"/>
     </row>
-    <row r="671" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:10" ht="12">
       <c r="A671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -8977,7 +9071,7 @@
       <c r="I671" s="2"/>
       <c r="J671" s="48"/>
     </row>
-    <row r="672" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:10" ht="12">
       <c r="A672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -8987,7 +9081,7 @@
       <c r="I672" s="2"/>
       <c r="J672" s="48"/>
     </row>
-    <row r="673" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:10" ht="12">
       <c r="A673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -8997,7 +9091,7 @@
       <c r="I673" s="2"/>
       <c r="J673" s="48"/>
     </row>
-    <row r="674" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:10" ht="12">
       <c r="A674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -9007,7 +9101,7 @@
       <c r="I674" s="2"/>
       <c r="J674" s="48"/>
     </row>
-    <row r="675" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:10" ht="12">
       <c r="A675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -9017,7 +9111,7 @@
       <c r="I675" s="2"/>
       <c r="J675" s="48"/>
     </row>
-    <row r="676" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:10" ht="12">
       <c r="A676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -9027,7 +9121,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="48"/>
     </row>
-    <row r="677" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:10" ht="12">
       <c r="A677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -9037,7 +9131,7 @@
       <c r="I677" s="2"/>
       <c r="J677" s="48"/>
     </row>
-    <row r="678" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:10" ht="12">
       <c r="A678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -9047,7 +9141,7 @@
       <c r="I678" s="2"/>
       <c r="J678" s="48"/>
     </row>
-    <row r="679" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:10" ht="12">
       <c r="A679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -9057,7 +9151,7 @@
       <c r="I679" s="2"/>
       <c r="J679" s="48"/>
     </row>
-    <row r="680" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:10" ht="12">
       <c r="A680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -9067,7 +9161,7 @@
       <c r="I680" s="2"/>
       <c r="J680" s="48"/>
     </row>
-    <row r="681" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:10" ht="12">
       <c r="A681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -9077,7 +9171,7 @@
       <c r="I681" s="2"/>
       <c r="J681" s="48"/>
     </row>
-    <row r="682" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:10" ht="12">
       <c r="A682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -9087,7 +9181,7 @@
       <c r="I682" s="2"/>
       <c r="J682" s="48"/>
     </row>
-    <row r="683" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:10" ht="12">
       <c r="A683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -9097,7 +9191,7 @@
       <c r="I683" s="2"/>
       <c r="J683" s="48"/>
     </row>
-    <row r="684" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:10" ht="12">
       <c r="A684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -9107,7 +9201,7 @@
       <c r="I684" s="2"/>
       <c r="J684" s="48"/>
     </row>
-    <row r="685" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:10" ht="12">
       <c r="A685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -9117,7 +9211,7 @@
       <c r="I685" s="2"/>
       <c r="J685" s="48"/>
     </row>
-    <row r="686" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:10" ht="12">
       <c r="A686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -9127,7 +9221,7 @@
       <c r="I686" s="2"/>
       <c r="J686" s="48"/>
     </row>
-    <row r="687" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:10" ht="12">
       <c r="A687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -9137,7 +9231,7 @@
       <c r="I687" s="2"/>
       <c r="J687" s="48"/>
     </row>
-    <row r="688" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:10" ht="12">
       <c r="A688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -9147,7 +9241,7 @@
       <c r="I688" s="2"/>
       <c r="J688" s="48"/>
     </row>
-    <row r="689" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:10" ht="12">
       <c r="A689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -9157,7 +9251,7 @@
       <c r="I689" s="2"/>
       <c r="J689" s="48"/>
     </row>
-    <row r="690" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:10" ht="12">
       <c r="A690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -9167,7 +9261,7 @@
       <c r="I690" s="2"/>
       <c r="J690" s="48"/>
     </row>
-    <row r="691" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:10" ht="12">
       <c r="A691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -9177,7 +9271,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="48"/>
     </row>
-    <row r="692" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:10" ht="12">
       <c r="A692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -9187,7 +9281,7 @@
       <c r="I692" s="2"/>
       <c r="J692" s="48"/>
     </row>
-    <row r="693" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:10" ht="12">
       <c r="A693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -9197,7 +9291,7 @@
       <c r="I693" s="2"/>
       <c r="J693" s="48"/>
     </row>
-    <row r="694" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:10" ht="12">
       <c r="A694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -9207,7 +9301,7 @@
       <c r="I694" s="2"/>
       <c r="J694" s="48"/>
     </row>
-    <row r="695" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:10" ht="12">
       <c r="A695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -9217,7 +9311,7 @@
       <c r="I695" s="2"/>
       <c r="J695" s="48"/>
     </row>
-    <row r="696" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:10" ht="12">
       <c r="A696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -9227,7 +9321,7 @@
       <c r="I696" s="2"/>
       <c r="J696" s="48"/>
     </row>
-    <row r="697" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:10" ht="12">
       <c r="A697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -9237,7 +9331,7 @@
       <c r="I697" s="2"/>
       <c r="J697" s="48"/>
     </row>
-    <row r="698" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:10" ht="12">
       <c r="A698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -9247,7 +9341,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="48"/>
     </row>
-    <row r="699" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:10" ht="12">
       <c r="A699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -9257,7 +9351,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="48"/>
     </row>
-    <row r="700" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:10" ht="12">
       <c r="A700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -9267,7 +9361,7 @@
       <c r="I700" s="2"/>
       <c r="J700" s="48"/>
     </row>
-    <row r="701" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:10" ht="12">
       <c r="A701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -9277,7 +9371,7 @@
       <c r="I701" s="2"/>
       <c r="J701" s="48"/>
     </row>
-    <row r="702" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:10" ht="12">
       <c r="A702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -9287,7 +9381,7 @@
       <c r="I702" s="2"/>
       <c r="J702" s="48"/>
     </row>
-    <row r="703" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:10" ht="12">
       <c r="A703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -9297,7 +9391,7 @@
       <c r="I703" s="2"/>
       <c r="J703" s="48"/>
     </row>
-    <row r="704" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:10" ht="12">
       <c r="A704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -9307,7 +9401,7 @@
       <c r="I704" s="2"/>
       <c r="J704" s="48"/>
     </row>
-    <row r="705" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:10" ht="12">
       <c r="A705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -9317,7 +9411,7 @@
       <c r="I705" s="2"/>
       <c r="J705" s="48"/>
     </row>
-    <row r="706" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:10" ht="12">
       <c r="A706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -9327,7 +9421,7 @@
       <c r="I706" s="2"/>
       <c r="J706" s="48"/>
     </row>
-    <row r="707" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:10" ht="12">
       <c r="A707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -9337,7 +9431,7 @@
       <c r="I707" s="2"/>
       <c r="J707" s="48"/>
     </row>
-    <row r="708" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:10" ht="12">
       <c r="A708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -9347,7 +9441,7 @@
       <c r="I708" s="2"/>
       <c r="J708" s="48"/>
     </row>
-    <row r="709" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:10" ht="12">
       <c r="A709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -9357,7 +9451,7 @@
       <c r="I709" s="2"/>
       <c r="J709" s="48"/>
     </row>
-    <row r="710" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:10" ht="12">
       <c r="A710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -9367,7 +9461,7 @@
       <c r="I710" s="2"/>
       <c r="J710" s="48"/>
     </row>
-    <row r="711" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:10" ht="12">
       <c r="A711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -9377,7 +9471,7 @@
       <c r="I711" s="2"/>
       <c r="J711" s="48"/>
     </row>
-    <row r="712" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:10" ht="12">
       <c r="A712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -9387,7 +9481,7 @@
       <c r="I712" s="2"/>
       <c r="J712" s="48"/>
     </row>
-    <row r="713" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:10" ht="12">
       <c r="A713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -9397,7 +9491,7 @@
       <c r="I713" s="2"/>
       <c r="J713" s="48"/>
     </row>
-    <row r="714" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:10" ht="12">
       <c r="A714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -9407,7 +9501,7 @@
       <c r="I714" s="2"/>
       <c r="J714" s="48"/>
     </row>
-    <row r="715" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:10" ht="12">
       <c r="A715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -9417,7 +9511,7 @@
       <c r="I715" s="2"/>
       <c r="J715" s="48"/>
     </row>
-    <row r="716" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:10" ht="12">
       <c r="A716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -9427,7 +9521,7 @@
       <c r="I716" s="2"/>
       <c r="J716" s="48"/>
     </row>
-    <row r="717" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:10" ht="12">
       <c r="A717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -9437,7 +9531,7 @@
       <c r="I717" s="2"/>
       <c r="J717" s="48"/>
     </row>
-    <row r="718" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:10" ht="12">
       <c r="A718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -9447,7 +9541,7 @@
       <c r="I718" s="2"/>
       <c r="J718" s="48"/>
     </row>
-    <row r="719" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:10" ht="12">
       <c r="A719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -9457,7 +9551,7 @@
       <c r="I719" s="2"/>
       <c r="J719" s="48"/>
     </row>
-    <row r="720" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:10" ht="12">
       <c r="A720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -9467,7 +9561,7 @@
       <c r="I720" s="2"/>
       <c r="J720" s="48"/>
     </row>
-    <row r="721" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:10" ht="12">
       <c r="A721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -9477,7 +9571,7 @@
       <c r="I721" s="2"/>
       <c r="J721" s="48"/>
     </row>
-    <row r="722" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:10" ht="12">
       <c r="A722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -9487,7 +9581,7 @@
       <c r="I722" s="2"/>
       <c r="J722" s="48"/>
     </row>
-    <row r="723" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:10" ht="12">
       <c r="A723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -9497,7 +9591,7 @@
       <c r="I723" s="2"/>
       <c r="J723" s="48"/>
     </row>
-    <row r="724" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:10" ht="12">
       <c r="A724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -9507,7 +9601,7 @@
       <c r="I724" s="2"/>
       <c r="J724" s="48"/>
     </row>
-    <row r="725" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:10" ht="12">
       <c r="A725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -9517,7 +9611,7 @@
       <c r="I725" s="2"/>
       <c r="J725" s="48"/>
     </row>
-    <row r="726" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:10" ht="12">
       <c r="A726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -9527,7 +9621,7 @@
       <c r="I726" s="2"/>
       <c r="J726" s="48"/>
     </row>
-    <row r="727" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:10" ht="12">
       <c r="A727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -9537,7 +9631,7 @@
       <c r="I727" s="2"/>
       <c r="J727" s="48"/>
     </row>
-    <row r="728" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:10" ht="12">
       <c r="A728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -9547,7 +9641,7 @@
       <c r="I728" s="2"/>
       <c r="J728" s="48"/>
     </row>
-    <row r="729" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:10" ht="12">
       <c r="A729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -9557,7 +9651,7 @@
       <c r="I729" s="2"/>
       <c r="J729" s="48"/>
     </row>
-    <row r="730" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:10" ht="12">
       <c r="A730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -9567,7 +9661,7 @@
       <c r="I730" s="2"/>
       <c r="J730" s="48"/>
     </row>
-    <row r="731" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:10" ht="12">
       <c r="A731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -9577,7 +9671,7 @@
       <c r="I731" s="2"/>
       <c r="J731" s="48"/>
     </row>
-    <row r="732" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:10" ht="12">
       <c r="A732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -9587,7 +9681,7 @@
       <c r="I732" s="2"/>
       <c r="J732" s="48"/>
     </row>
-    <row r="733" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:10" ht="12">
       <c r="A733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -9597,7 +9691,7 @@
       <c r="I733" s="2"/>
       <c r="J733" s="48"/>
     </row>
-    <row r="734" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:10" ht="12">
       <c r="A734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -9607,7 +9701,7 @@
       <c r="I734" s="2"/>
       <c r="J734" s="48"/>
     </row>
-    <row r="735" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:10" ht="12">
       <c r="A735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -9617,7 +9711,7 @@
       <c r="I735" s="2"/>
       <c r="J735" s="48"/>
     </row>
-    <row r="736" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:10" ht="12">
       <c r="A736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -9627,7 +9721,7 @@
       <c r="I736" s="2"/>
       <c r="J736" s="48"/>
     </row>
-    <row r="737" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:10" ht="12">
       <c r="A737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -9637,7 +9731,7 @@
       <c r="I737" s="2"/>
       <c r="J737" s="48"/>
     </row>
-    <row r="738" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:10" ht="12">
       <c r="A738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -9647,7 +9741,7 @@
       <c r="I738" s="2"/>
       <c r="J738" s="48"/>
     </row>
-    <row r="739" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:10" ht="12">
       <c r="A739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -9657,7 +9751,7 @@
       <c r="I739" s="2"/>
       <c r="J739" s="48"/>
     </row>
-    <row r="740" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:10" ht="12">
       <c r="A740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -9667,7 +9761,7 @@
       <c r="I740" s="2"/>
       <c r="J740" s="48"/>
     </row>
-    <row r="741" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:10" ht="12">
       <c r="A741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -9677,7 +9771,7 @@
       <c r="I741" s="2"/>
       <c r="J741" s="48"/>
     </row>
-    <row r="742" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:10" ht="12">
       <c r="A742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -9687,7 +9781,7 @@
       <c r="I742" s="2"/>
       <c r="J742" s="48"/>
     </row>
-    <row r="743" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:10" ht="12">
       <c r="A743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -9697,7 +9791,7 @@
       <c r="I743" s="2"/>
       <c r="J743" s="48"/>
     </row>
-    <row r="744" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:10" ht="12">
       <c r="A744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -9707,7 +9801,7 @@
       <c r="I744" s="2"/>
       <c r="J744" s="48"/>
     </row>
-    <row r="745" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:10" ht="12">
       <c r="A745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -9717,7 +9811,7 @@
       <c r="I745" s="2"/>
       <c r="J745" s="48"/>
     </row>
-    <row r="746" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:10" ht="12">
       <c r="A746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -9727,7 +9821,7 @@
       <c r="I746" s="2"/>
       <c r="J746" s="48"/>
     </row>
-    <row r="747" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:10" ht="12">
       <c r="A747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -9737,7 +9831,7 @@
       <c r="I747" s="2"/>
       <c r="J747" s="48"/>
     </row>
-    <row r="748" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:10" ht="12">
       <c r="A748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -9747,7 +9841,7 @@
       <c r="I748" s="2"/>
       <c r="J748" s="48"/>
     </row>
-    <row r="749" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:10" ht="12">
       <c r="A749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -9757,7 +9851,7 @@
       <c r="I749" s="2"/>
       <c r="J749" s="48"/>
     </row>
-    <row r="750" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:10" ht="12">
       <c r="A750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -9767,7 +9861,7 @@
       <c r="I750" s="2"/>
       <c r="J750" s="48"/>
     </row>
-    <row r="751" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:10" ht="12">
       <c r="A751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -9777,7 +9871,7 @@
       <c r="I751" s="2"/>
       <c r="J751" s="48"/>
     </row>
-    <row r="752" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:10" ht="12">
       <c r="A752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -9787,7 +9881,7 @@
       <c r="I752" s="2"/>
       <c r="J752" s="48"/>
     </row>
-    <row r="753" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:10" ht="12">
       <c r="A753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -9797,7 +9891,7 @@
       <c r="I753" s="2"/>
       <c r="J753" s="48"/>
     </row>
-    <row r="754" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:10" ht="12">
       <c r="A754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -9807,7 +9901,7 @@
       <c r="I754" s="2"/>
       <c r="J754" s="48"/>
     </row>
-    <row r="755" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:10" ht="12">
       <c r="A755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -9817,7 +9911,7 @@
       <c r="I755" s="2"/>
       <c r="J755" s="48"/>
     </row>
-    <row r="756" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:10" ht="12">
       <c r="A756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -9827,7 +9921,7 @@
       <c r="I756" s="2"/>
       <c r="J756" s="48"/>
     </row>
-    <row r="757" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:10" ht="12">
       <c r="A757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -9837,7 +9931,7 @@
       <c r="I757" s="2"/>
       <c r="J757" s="48"/>
     </row>
-    <row r="758" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:10" ht="12">
       <c r="A758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -9847,7 +9941,7 @@
       <c r="I758" s="2"/>
       <c r="J758" s="48"/>
     </row>
-    <row r="759" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:10" ht="12">
       <c r="A759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -9857,7 +9951,7 @@
       <c r="I759" s="2"/>
       <c r="J759" s="48"/>
     </row>
-    <row r="760" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:10" ht="12">
       <c r="A760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -9867,7 +9961,7 @@
       <c r="I760" s="2"/>
       <c r="J760" s="48"/>
     </row>
-    <row r="761" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:10" ht="12">
       <c r="A761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -9877,7 +9971,7 @@
       <c r="I761" s="2"/>
       <c r="J761" s="48"/>
     </row>
-    <row r="762" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:10" ht="12">
       <c r="A762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -9887,7 +9981,7 @@
       <c r="I762" s="2"/>
       <c r="J762" s="48"/>
     </row>
-    <row r="763" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:10" ht="12">
       <c r="A763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -9897,7 +9991,7 @@
       <c r="I763" s="2"/>
       <c r="J763" s="48"/>
     </row>
-    <row r="764" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:10" ht="12">
       <c r="A764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -9907,7 +10001,7 @@
       <c r="I764" s="2"/>
       <c r="J764" s="48"/>
     </row>
-    <row r="765" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:10" ht="12">
       <c r="A765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -9917,7 +10011,7 @@
       <c r="I765" s="2"/>
       <c r="J765" s="48"/>
     </row>
-    <row r="766" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:10" ht="12">
       <c r="A766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -9927,7 +10021,7 @@
       <c r="I766" s="2"/>
       <c r="J766" s="48"/>
     </row>
-    <row r="767" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:10" ht="12">
       <c r="A767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -9937,7 +10031,7 @@
       <c r="I767" s="2"/>
       <c r="J767" s="48"/>
     </row>
-    <row r="768" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:10" ht="12">
       <c r="A768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -9947,7 +10041,7 @@
       <c r="I768" s="2"/>
       <c r="J768" s="48"/>
     </row>
-    <row r="769" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:10" ht="12">
       <c r="A769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -9957,7 +10051,7 @@
       <c r="I769" s="2"/>
       <c r="J769" s="48"/>
     </row>
-    <row r="770" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:10" ht="12">
       <c r="A770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -9967,7 +10061,7 @@
       <c r="I770" s="2"/>
       <c r="J770" s="48"/>
     </row>
-    <row r="771" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:10" ht="12">
       <c r="A771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -9977,7 +10071,7 @@
       <c r="I771" s="2"/>
       <c r="J771" s="48"/>
     </row>
-    <row r="772" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:10" ht="12">
       <c r="A772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -9987,7 +10081,7 @@
       <c r="I772" s="2"/>
       <c r="J772" s="48"/>
     </row>
-    <row r="773" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:10" ht="12">
       <c r="A773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -9997,7 +10091,7 @@
       <c r="I773" s="2"/>
       <c r="J773" s="48"/>
     </row>
-    <row r="774" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:10" ht="12">
       <c r="A774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -10007,7 +10101,7 @@
       <c r="I774" s="2"/>
       <c r="J774" s="48"/>
     </row>
-    <row r="775" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:10" ht="12">
       <c r="A775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -10017,7 +10111,7 @@
       <c r="I775" s="2"/>
       <c r="J775" s="48"/>
     </row>
-    <row r="776" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:10" ht="12">
       <c r="A776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -10027,7 +10121,7 @@
       <c r="I776" s="2"/>
       <c r="J776" s="48"/>
     </row>
-    <row r="777" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:10" ht="12">
       <c r="A777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -10037,7 +10131,7 @@
       <c r="I777" s="2"/>
       <c r="J777" s="48"/>
     </row>
-    <row r="778" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:10" ht="12">
       <c r="A778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -10047,7 +10141,7 @@
       <c r="I778" s="2"/>
       <c r="J778" s="48"/>
     </row>
-    <row r="779" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:10" ht="12">
       <c r="A779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -10057,7 +10151,7 @@
       <c r="I779" s="2"/>
       <c r="J779" s="48"/>
     </row>
-    <row r="780" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:10" ht="12">
       <c r="A780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -10067,7 +10161,7 @@
       <c r="I780" s="2"/>
       <c r="J780" s="48"/>
     </row>
-    <row r="781" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:10" ht="12">
       <c r="A781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -10077,7 +10171,7 @@
       <c r="I781" s="2"/>
       <c r="J781" s="48"/>
     </row>
-    <row r="782" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:10" ht="12">
       <c r="A782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -10087,7 +10181,7 @@
       <c r="I782" s="2"/>
       <c r="J782" s="48"/>
     </row>
-    <row r="783" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:10" ht="12">
       <c r="A783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -10097,7 +10191,7 @@
       <c r="I783" s="2"/>
       <c r="J783" s="48"/>
     </row>
-    <row r="784" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:10" ht="12">
       <c r="A784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -10107,7 +10201,7 @@
       <c r="I784" s="2"/>
       <c r="J784" s="48"/>
     </row>
-    <row r="785" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:10" ht="12">
       <c r="A785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -10117,7 +10211,7 @@
       <c r="I785" s="2"/>
       <c r="J785" s="48"/>
     </row>
-    <row r="786" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:10" ht="12">
       <c r="A786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -10127,7 +10221,7 @@
       <c r="I786" s="2"/>
       <c r="J786" s="48"/>
     </row>
-    <row r="787" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:10" ht="12">
       <c r="A787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -10137,7 +10231,7 @@
       <c r="I787" s="2"/>
       <c r="J787" s="48"/>
     </row>
-    <row r="788" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:10" ht="12">
       <c r="A788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -10147,7 +10241,7 @@
       <c r="I788" s="2"/>
       <c r="J788" s="48"/>
     </row>
-    <row r="789" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:10" ht="12">
       <c r="A789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -10157,7 +10251,7 @@
       <c r="I789" s="2"/>
       <c r="J789" s="48"/>
     </row>
-    <row r="790" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:10" ht="12">
       <c r="A790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -10167,7 +10261,7 @@
       <c r="I790" s="2"/>
       <c r="J790" s="48"/>
     </row>
-    <row r="791" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:10" ht="12">
       <c r="A791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -10177,7 +10271,7 @@
       <c r="I791" s="2"/>
       <c r="J791" s="48"/>
     </row>
-    <row r="792" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:10" ht="12">
       <c r="A792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -10187,7 +10281,7 @@
       <c r="I792" s="2"/>
       <c r="J792" s="48"/>
     </row>
-    <row r="793" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:10" ht="12">
       <c r="A793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -10197,7 +10291,7 @@
       <c r="I793" s="2"/>
       <c r="J793" s="48"/>
     </row>
-    <row r="794" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:10" ht="12">
       <c r="A794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -10207,7 +10301,7 @@
       <c r="I794" s="2"/>
       <c r="J794" s="48"/>
     </row>
-    <row r="795" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:10" ht="12">
       <c r="A795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -10217,7 +10311,7 @@
       <c r="I795" s="2"/>
       <c r="J795" s="48"/>
     </row>
-    <row r="796" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:10" ht="12">
       <c r="A796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -10227,7 +10321,7 @@
       <c r="I796" s="2"/>
       <c r="J796" s="48"/>
     </row>
-    <row r="797" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:10" ht="12">
       <c r="A797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -10237,7 +10331,7 @@
       <c r="I797" s="2"/>
       <c r="J797" s="48"/>
     </row>
-    <row r="798" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:10" ht="12">
       <c r="A798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -10247,7 +10341,7 @@
       <c r="I798" s="2"/>
       <c r="J798" s="48"/>
     </row>
-    <row r="799" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:10" ht="12">
       <c r="A799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -10257,7 +10351,7 @@
       <c r="I799" s="2"/>
       <c r="J799" s="48"/>
     </row>
-    <row r="800" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:10" ht="12">
       <c r="A800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -10267,7 +10361,7 @@
       <c r="I800" s="2"/>
       <c r="J800" s="48"/>
     </row>
-    <row r="801" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:10" ht="12">
       <c r="A801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -10277,7 +10371,7 @@
       <c r="I801" s="2"/>
       <c r="J801" s="48"/>
     </row>
-    <row r="802" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:10" ht="12">
       <c r="A802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -10287,7 +10381,7 @@
       <c r="I802" s="2"/>
       <c r="J802" s="48"/>
     </row>
-    <row r="803" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:10" ht="12">
       <c r="A803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -10297,7 +10391,7 @@
       <c r="I803" s="2"/>
       <c r="J803" s="48"/>
     </row>
-    <row r="804" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:10" ht="12">
       <c r="A804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -10307,7 +10401,7 @@
       <c r="I804" s="2"/>
       <c r="J804" s="48"/>
     </row>
-    <row r="805" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:10" ht="12">
       <c r="A805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -10317,7 +10411,7 @@
       <c r="I805" s="2"/>
       <c r="J805" s="48"/>
     </row>
-    <row r="806" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:10" ht="12">
       <c r="A806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -10327,7 +10421,7 @@
       <c r="I806" s="2"/>
       <c r="J806" s="48"/>
     </row>
-    <row r="807" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:10" ht="12">
       <c r="A807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -10337,7 +10431,7 @@
       <c r="I807" s="2"/>
       <c r="J807" s="48"/>
     </row>
-    <row r="808" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:10" ht="12">
       <c r="A808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -10347,7 +10441,7 @@
       <c r="I808" s="2"/>
       <c r="J808" s="48"/>
     </row>
-    <row r="809" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:10" ht="12">
       <c r="A809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -10357,7 +10451,7 @@
       <c r="I809" s="2"/>
       <c r="J809" s="48"/>
     </row>
-    <row r="810" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:10" ht="12">
       <c r="A810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -10367,7 +10461,7 @@
       <c r="I810" s="2"/>
       <c r="J810" s="48"/>
     </row>
-    <row r="811" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:10" ht="12">
       <c r="A811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -10377,7 +10471,7 @@
       <c r="I811" s="2"/>
       <c r="J811" s="48"/>
     </row>
-    <row r="812" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:10" ht="12">
       <c r="A812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -10387,7 +10481,7 @@
       <c r="I812" s="2"/>
       <c r="J812" s="48"/>
     </row>
-    <row r="813" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:10" ht="12">
       <c r="A813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -10397,7 +10491,7 @@
       <c r="I813" s="2"/>
       <c r="J813" s="48"/>
     </row>
-    <row r="814" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:10" ht="12">
       <c r="A814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -10407,7 +10501,7 @@
       <c r="I814" s="2"/>
       <c r="J814" s="48"/>
     </row>
-    <row r="815" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:10" ht="12">
       <c r="A815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -10417,7 +10511,7 @@
       <c r="I815" s="2"/>
       <c r="J815" s="48"/>
     </row>
-    <row r="816" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:10" ht="12">
       <c r="A816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -10427,7 +10521,7 @@
       <c r="I816" s="2"/>
       <c r="J816" s="48"/>
     </row>
-    <row r="817" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:10" ht="12">
       <c r="A817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -10437,7 +10531,7 @@
       <c r="I817" s="2"/>
       <c r="J817" s="48"/>
     </row>
-    <row r="818" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:10" ht="12">
       <c r="A818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -10447,7 +10541,7 @@
       <c r="I818" s="2"/>
       <c r="J818" s="48"/>
     </row>
-    <row r="819" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:10" ht="12">
       <c r="A819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -10457,7 +10551,7 @@
       <c r="I819" s="2"/>
       <c r="J819" s="48"/>
     </row>
-    <row r="820" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:10" ht="12">
       <c r="A820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -10467,7 +10561,7 @@
       <c r="I820" s="2"/>
       <c r="J820" s="48"/>
     </row>
-    <row r="821" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:10" ht="12">
       <c r="A821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -10477,7 +10571,7 @@
       <c r="I821" s="2"/>
       <c r="J821" s="48"/>
     </row>
-    <row r="822" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:10" ht="12">
       <c r="A822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -10487,7 +10581,7 @@
       <c r="I822" s="2"/>
       <c r="J822" s="48"/>
     </row>
-    <row r="823" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:10" ht="12">
       <c r="A823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -10497,7 +10591,7 @@
       <c r="I823" s="2"/>
       <c r="J823" s="48"/>
     </row>
-    <row r="824" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:10" ht="12">
       <c r="A824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -10507,7 +10601,7 @@
       <c r="I824" s="2"/>
       <c r="J824" s="48"/>
     </row>
-    <row r="825" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:10" ht="12">
       <c r="A825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -10517,7 +10611,7 @@
       <c r="I825" s="2"/>
       <c r="J825" s="48"/>
     </row>
-    <row r="826" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:10" ht="12">
       <c r="A826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -10527,7 +10621,7 @@
       <c r="I826" s="2"/>
       <c r="J826" s="48"/>
     </row>
-    <row r="827" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:10" ht="12">
       <c r="A827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -10537,7 +10631,7 @@
       <c r="I827" s="2"/>
       <c r="J827" s="48"/>
     </row>
-    <row r="828" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:10" ht="12">
       <c r="A828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -10547,7 +10641,7 @@
       <c r="I828" s="2"/>
       <c r="J828" s="48"/>
     </row>
-    <row r="829" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:10" ht="12">
       <c r="A829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -10557,7 +10651,7 @@
       <c r="I829" s="2"/>
       <c r="J829" s="48"/>
     </row>
-    <row r="830" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:10" ht="12">
       <c r="A830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -10567,7 +10661,7 @@
       <c r="I830" s="2"/>
       <c r="J830" s="48"/>
     </row>
-    <row r="831" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:10" ht="12">
       <c r="A831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -10577,7 +10671,7 @@
       <c r="I831" s="2"/>
       <c r="J831" s="48"/>
     </row>
-    <row r="832" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:10" ht="12">
       <c r="A832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -10587,7 +10681,7 @@
       <c r="I832" s="2"/>
       <c r="J832" s="48"/>
     </row>
-    <row r="833" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:10" ht="12">
       <c r="A833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -10597,7 +10691,7 @@
       <c r="I833" s="2"/>
       <c r="J833" s="48"/>
     </row>
-    <row r="834" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:10" ht="12">
       <c r="A834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -10607,7 +10701,7 @@
       <c r="I834" s="2"/>
       <c r="J834" s="48"/>
     </row>
-    <row r="835" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:10" ht="12">
       <c r="A835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -10617,7 +10711,7 @@
       <c r="I835" s="2"/>
       <c r="J835" s="48"/>
     </row>
-    <row r="836" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:10" ht="12">
       <c r="A836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -10627,7 +10721,7 @@
       <c r="I836" s="2"/>
       <c r="J836" s="48"/>
     </row>
-    <row r="837" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:10" ht="12">
       <c r="A837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -10637,7 +10731,7 @@
       <c r="I837" s="2"/>
       <c r="J837" s="48"/>
     </row>
-    <row r="838" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:10" ht="12">
       <c r="A838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -10647,7 +10741,7 @@
       <c r="I838" s="2"/>
       <c r="J838" s="48"/>
     </row>
-    <row r="839" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:10" ht="12">
       <c r="A839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -10657,7 +10751,7 @@
       <c r="I839" s="2"/>
       <c r="J839" s="48"/>
     </row>
-    <row r="840" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:10" ht="12">
       <c r="A840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -10667,7 +10761,7 @@
       <c r="I840" s="2"/>
       <c r="J840" s="48"/>
     </row>
-    <row r="841" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:10" ht="12">
       <c r="A841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -10677,7 +10771,7 @@
       <c r="I841" s="2"/>
       <c r="J841" s="48"/>
     </row>
-    <row r="842" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:10" ht="12">
       <c r="A842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -10687,7 +10781,7 @@
       <c r="I842" s="2"/>
       <c r="J842" s="48"/>
     </row>
-    <row r="843" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:10" ht="12">
       <c r="A843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -10697,7 +10791,7 @@
       <c r="I843" s="2"/>
       <c r="J843" s="48"/>
     </row>
-    <row r="844" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:10" ht="12">
       <c r="A844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -10707,7 +10801,7 @@
       <c r="I844" s="2"/>
       <c r="J844" s="48"/>
     </row>
-    <row r="845" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:10" ht="12">
       <c r="A845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -10717,7 +10811,7 @@
       <c r="I845" s="2"/>
       <c r="J845" s="48"/>
     </row>
-    <row r="846" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:10" ht="12">
       <c r="A846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -10727,7 +10821,7 @@
       <c r="I846" s="2"/>
       <c r="J846" s="48"/>
     </row>
-    <row r="847" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:10" ht="12">
       <c r="A847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -10737,7 +10831,7 @@
       <c r="I847" s="2"/>
       <c r="J847" s="48"/>
     </row>
-    <row r="848" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:10" ht="12">
       <c r="A848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -10747,7 +10841,7 @@
       <c r="I848" s="2"/>
       <c r="J848" s="48"/>
     </row>
-    <row r="849" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:10" ht="12">
       <c r="A849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -10757,7 +10851,7 @@
       <c r="I849" s="2"/>
       <c r="J849" s="48"/>
     </row>
-    <row r="850" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:10" ht="12">
       <c r="A850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -10767,7 +10861,7 @@
       <c r="I850" s="2"/>
       <c r="J850" s="48"/>
     </row>
-    <row r="851" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:10" ht="12">
       <c r="A851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -10777,7 +10871,7 @@
       <c r="I851" s="2"/>
       <c r="J851" s="48"/>
     </row>
-    <row r="852" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:10" ht="12">
       <c r="A852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -10787,7 +10881,7 @@
       <c r="I852" s="2"/>
       <c r="J852" s="48"/>
     </row>
-    <row r="853" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:10" ht="12">
       <c r="A853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -10797,7 +10891,7 @@
       <c r="I853" s="2"/>
       <c r="J853" s="48"/>
     </row>
-    <row r="854" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:10" ht="12">
       <c r="A854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -10807,7 +10901,7 @@
       <c r="I854" s="2"/>
       <c r="J854" s="48"/>
     </row>
-    <row r="855" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:10" ht="12">
       <c r="A855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -10817,7 +10911,7 @@
       <c r="I855" s="2"/>
       <c r="J855" s="48"/>
     </row>
-    <row r="856" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:10" ht="12">
       <c r="A856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -10827,7 +10921,7 @@
       <c r="I856" s="2"/>
       <c r="J856" s="48"/>
     </row>
-    <row r="857" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:10" ht="12">
       <c r="A857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -10837,7 +10931,7 @@
       <c r="I857" s="2"/>
       <c r="J857" s="48"/>
     </row>
-    <row r="858" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:10" ht="12">
       <c r="A858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -10847,7 +10941,7 @@
       <c r="I858" s="2"/>
       <c r="J858" s="48"/>
     </row>
-    <row r="859" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:10" ht="12">
       <c r="A859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -10857,7 +10951,7 @@
       <c r="I859" s="2"/>
       <c r="J859" s="48"/>
     </row>
-    <row r="860" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:10" ht="12">
       <c r="A860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -10867,7 +10961,7 @@
       <c r="I860" s="2"/>
       <c r="J860" s="48"/>
     </row>
-    <row r="861" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:10" ht="12">
       <c r="A861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -10877,7 +10971,7 @@
       <c r="I861" s="2"/>
       <c r="J861" s="48"/>
     </row>
-    <row r="862" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:10" ht="12">
       <c r="A862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -10887,7 +10981,7 @@
       <c r="I862" s="2"/>
       <c r="J862" s="48"/>
     </row>
-    <row r="863" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:10" ht="12">
       <c r="A863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -10897,7 +10991,7 @@
       <c r="I863" s="2"/>
       <c r="J863" s="48"/>
     </row>
-    <row r="864" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:10" ht="12">
       <c r="A864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -10907,7 +11001,7 @@
       <c r="I864" s="2"/>
       <c r="J864" s="48"/>
     </row>
-    <row r="865" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:10" ht="12">
       <c r="A865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -10917,7 +11011,7 @@
       <c r="I865" s="2"/>
       <c r="J865" s="48"/>
     </row>
-    <row r="866" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:10" ht="12">
       <c r="A866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -10927,7 +11021,7 @@
       <c r="I866" s="2"/>
       <c r="J866" s="48"/>
     </row>
-    <row r="867" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:10" ht="12">
       <c r="A867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -10937,7 +11031,7 @@
       <c r="I867" s="2"/>
       <c r="J867" s="48"/>
     </row>
-    <row r="868" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:10" ht="12">
       <c r="A868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -10947,7 +11041,7 @@
       <c r="I868" s="2"/>
       <c r="J868" s="48"/>
     </row>
-    <row r="869" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:10" ht="12">
       <c r="A869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -10957,7 +11051,7 @@
       <c r="I869" s="2"/>
       <c r="J869" s="48"/>
     </row>
-    <row r="870" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:10" ht="12">
       <c r="A870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -10967,7 +11061,7 @@
       <c r="I870" s="2"/>
       <c r="J870" s="48"/>
     </row>
-    <row r="871" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:10" ht="12">
       <c r="A871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -10977,7 +11071,7 @@
       <c r="I871" s="2"/>
       <c r="J871" s="48"/>
     </row>
-    <row r="872" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:10" ht="12">
       <c r="A872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -10987,7 +11081,7 @@
       <c r="I872" s="2"/>
       <c r="J872" s="48"/>
     </row>
-    <row r="873" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:10" ht="12">
       <c r="A873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -10997,7 +11091,7 @@
       <c r="I873" s="2"/>
       <c r="J873" s="48"/>
     </row>
-    <row r="874" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:10" ht="12">
       <c r="A874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -11007,7 +11101,7 @@
       <c r="I874" s="2"/>
       <c r="J874" s="48"/>
     </row>
-    <row r="875" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:10" ht="12">
       <c r="A875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -11017,7 +11111,7 @@
       <c r="I875" s="2"/>
       <c r="J875" s="48"/>
     </row>
-    <row r="876" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:10" ht="12">
       <c r="A876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -11027,7 +11121,7 @@
       <c r="I876" s="2"/>
       <c r="J876" s="48"/>
     </row>
-    <row r="877" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:10" ht="12">
       <c r="A877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -11037,7 +11131,7 @@
       <c r="I877" s="2"/>
       <c r="J877" s="48"/>
     </row>
-    <row r="878" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:10" ht="12">
       <c r="A878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -11047,7 +11141,7 @@
       <c r="I878" s="2"/>
       <c r="J878" s="48"/>
     </row>
-    <row r="879" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:10" ht="12">
       <c r="A879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -11057,7 +11151,7 @@
       <c r="I879" s="2"/>
       <c r="J879" s="48"/>
     </row>
-    <row r="880" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:10" ht="12">
       <c r="A880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -11067,7 +11161,7 @@
       <c r="I880" s="2"/>
       <c r="J880" s="48"/>
     </row>
-    <row r="881" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:10" ht="12">
       <c r="A881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -11077,7 +11171,7 @@
       <c r="I881" s="2"/>
       <c r="J881" s="48"/>
     </row>
-    <row r="882" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:10" ht="12">
       <c r="A882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -11087,7 +11181,7 @@
       <c r="I882" s="2"/>
       <c r="J882" s="48"/>
     </row>
-    <row r="883" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:10" ht="12">
       <c r="A883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -11097,7 +11191,7 @@
       <c r="I883" s="2"/>
       <c r="J883" s="48"/>
     </row>
-    <row r="884" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:10" ht="12">
       <c r="A884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -11107,7 +11201,7 @@
       <c r="I884" s="2"/>
       <c r="J884" s="48"/>
     </row>
-    <row r="885" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:10" ht="12">
       <c r="A885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -11117,7 +11211,7 @@
       <c r="I885" s="2"/>
       <c r="J885" s="48"/>
     </row>
-    <row r="886" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:10" ht="12">
       <c r="A886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -11127,7 +11221,7 @@
       <c r="I886" s="2"/>
       <c r="J886" s="48"/>
     </row>
-    <row r="887" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:10" ht="12">
       <c r="A887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -11137,7 +11231,7 @@
       <c r="I887" s="2"/>
       <c r="J887" s="48"/>
     </row>
-    <row r="888" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:10" ht="12">
       <c r="A888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -11147,7 +11241,7 @@
       <c r="I888" s="2"/>
       <c r="J888" s="48"/>
     </row>
-    <row r="889" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:10" ht="12">
       <c r="A889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -11157,7 +11251,7 @@
       <c r="I889" s="2"/>
       <c r="J889" s="48"/>
     </row>
-    <row r="890" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:10" ht="12">
       <c r="A890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -11167,7 +11261,7 @@
       <c r="I890" s="2"/>
       <c r="J890" s="48"/>
     </row>
-    <row r="891" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:10" ht="12">
       <c r="A891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -11177,7 +11271,7 @@
       <c r="I891" s="2"/>
       <c r="J891" s="48"/>
     </row>
-    <row r="892" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:10" ht="12">
       <c r="A892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -11187,7 +11281,7 @@
       <c r="I892" s="2"/>
       <c r="J892" s="48"/>
     </row>
-    <row r="893" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:10" ht="12">
       <c r="A893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -11197,7 +11291,7 @@
       <c r="I893" s="2"/>
       <c r="J893" s="48"/>
     </row>
-    <row r="894" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:10" ht="12">
       <c r="A894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -11207,7 +11301,7 @@
       <c r="I894" s="2"/>
       <c r="J894" s="48"/>
     </row>
-    <row r="895" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:10" ht="12">
       <c r="A895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -11217,7 +11311,7 @@
       <c r="I895" s="2"/>
       <c r="J895" s="48"/>
     </row>
-    <row r="896" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:10" ht="12">
       <c r="A896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -11227,7 +11321,7 @@
       <c r="I896" s="2"/>
       <c r="J896" s="48"/>
     </row>
-    <row r="897" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:10" ht="12">
       <c r="A897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -11237,7 +11331,7 @@
       <c r="I897" s="2"/>
       <c r="J897" s="48"/>
     </row>
-    <row r="898" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:10" ht="12">
       <c r="A898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -11247,7 +11341,7 @@
       <c r="I898" s="2"/>
       <c r="J898" s="48"/>
     </row>
-    <row r="899" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:10" ht="12">
       <c r="A899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -11257,7 +11351,7 @@
       <c r="I899" s="2"/>
       <c r="J899" s="48"/>
     </row>
-    <row r="900" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:10" ht="12">
       <c r="A900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -11267,7 +11361,7 @@
       <c r="I900" s="2"/>
       <c r="J900" s="48"/>
     </row>
-    <row r="901" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:10" ht="12">
       <c r="A901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -11277,7 +11371,7 @@
       <c r="I901" s="2"/>
       <c r="J901" s="48"/>
     </row>
-    <row r="902" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:10" ht="12">
       <c r="A902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -11287,7 +11381,7 @@
       <c r="I902" s="2"/>
       <c r="J902" s="48"/>
     </row>
-    <row r="903" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:10" ht="12">
       <c r="A903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -11297,7 +11391,7 @@
       <c r="I903" s="2"/>
       <c r="J903" s="48"/>
     </row>
-    <row r="904" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:10" ht="12">
       <c r="A904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -11307,7 +11401,7 @@
       <c r="I904" s="2"/>
       <c r="J904" s="48"/>
     </row>
-    <row r="905" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:10" ht="12">
       <c r="A905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -11317,7 +11411,7 @@
       <c r="I905" s="2"/>
       <c r="J905" s="48"/>
     </row>
-    <row r="906" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:10" ht="12">
       <c r="A906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -11327,7 +11421,7 @@
       <c r="I906" s="2"/>
       <c r="J906" s="48"/>
     </row>
-    <row r="907" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:10" ht="12">
       <c r="A907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -11337,7 +11431,7 @@
       <c r="I907" s="2"/>
       <c r="J907" s="48"/>
     </row>
-    <row r="908" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:10" ht="12">
       <c r="A908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -11347,7 +11441,7 @@
       <c r="I908" s="2"/>
       <c r="J908" s="48"/>
     </row>
-    <row r="909" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:10" ht="12">
       <c r="A909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -11357,7 +11451,7 @@
       <c r="I909" s="2"/>
       <c r="J909" s="48"/>
     </row>
-    <row r="910" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:10" ht="12">
       <c r="A910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -11367,7 +11461,7 @@
       <c r="I910" s="2"/>
       <c r="J910" s="48"/>
     </row>
-    <row r="911" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:10" ht="12">
       <c r="A911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -11377,7 +11471,7 @@
       <c r="I911" s="2"/>
       <c r="J911" s="48"/>
     </row>
-    <row r="912" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:10" ht="12">
       <c r="A912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -11387,7 +11481,7 @@
       <c r="I912" s="2"/>
       <c r="J912" s="48"/>
     </row>
-    <row r="913" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:10" ht="12">
       <c r="A913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -11397,7 +11491,7 @@
       <c r="I913" s="2"/>
       <c r="J913" s="48"/>
     </row>
-    <row r="914" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:10" ht="12">
       <c r="A914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -11407,7 +11501,7 @@
       <c r="I914" s="2"/>
       <c r="J914" s="48"/>
     </row>
-    <row r="915" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:10" ht="12">
       <c r="A915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -11417,7 +11511,7 @@
       <c r="I915" s="2"/>
       <c r="J915" s="48"/>
     </row>
-    <row r="916" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:10" ht="12">
       <c r="A916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -11427,7 +11521,7 @@
       <c r="I916" s="2"/>
       <c r="J916" s="48"/>
     </row>
-    <row r="917" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:10" ht="12">
       <c r="A917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -11437,7 +11531,7 @@
       <c r="I917" s="2"/>
       <c r="J917" s="48"/>
     </row>
-    <row r="918" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:10" ht="12">
       <c r="A918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -11447,7 +11541,7 @@
       <c r="I918" s="2"/>
       <c r="J918" s="48"/>
     </row>
-    <row r="919" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:10" ht="12">
       <c r="A919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -11457,7 +11551,7 @@
       <c r="I919" s="2"/>
       <c r="J919" s="48"/>
     </row>
-    <row r="920" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:10" ht="12">
       <c r="A920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -11467,7 +11561,7 @@
       <c r="I920" s="2"/>
       <c r="J920" s="48"/>
     </row>
-    <row r="921" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:10" ht="12">
       <c r="A921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -11477,7 +11571,7 @@
       <c r="I921" s="2"/>
       <c r="J921" s="48"/>
     </row>
-    <row r="922" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:10" ht="12">
       <c r="A922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -11487,7 +11581,7 @@
       <c r="I922" s="2"/>
       <c r="J922" s="48"/>
     </row>
-    <row r="923" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:10" ht="12">
       <c r="A923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -11497,7 +11591,7 @@
       <c r="I923" s="2"/>
       <c r="J923" s="48"/>
     </row>
-    <row r="924" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:10" ht="12">
       <c r="A924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -11507,7 +11601,7 @@
       <c r="I924" s="2"/>
       <c r="J924" s="48"/>
     </row>
-    <row r="925" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:10" ht="12">
       <c r="A925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -11517,7 +11611,7 @@
       <c r="I925" s="2"/>
       <c r="J925" s="48"/>
     </row>
-    <row r="926" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:10" ht="12">
       <c r="A926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -11527,7 +11621,7 @@
       <c r="I926" s="2"/>
       <c r="J926" s="48"/>
     </row>
-    <row r="927" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:10" ht="12">
       <c r="A927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -11537,7 +11631,7 @@
       <c r="I927" s="2"/>
       <c r="J927" s="48"/>
     </row>
-    <row r="928" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:10" ht="12">
       <c r="A928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -11547,7 +11641,7 @@
       <c r="I928" s="2"/>
       <c r="J928" s="48"/>
     </row>
-    <row r="929" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:10" ht="12">
       <c r="A929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -11557,7 +11651,7 @@
       <c r="I929" s="2"/>
       <c r="J929" s="48"/>
     </row>
-    <row r="930" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:10" ht="12">
       <c r="A930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -11567,7 +11661,7 @@
       <c r="I930" s="2"/>
       <c r="J930" s="48"/>
     </row>
-    <row r="931" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:10" ht="12">
       <c r="A931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -11577,7 +11671,7 @@
       <c r="I931" s="2"/>
       <c r="J931" s="48"/>
     </row>
-    <row r="932" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:10" ht="12">
       <c r="A932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -11587,7 +11681,7 @@
       <c r="I932" s="2"/>
       <c r="J932" s="48"/>
     </row>
-    <row r="933" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:10" ht="12">
       <c r="A933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -11597,7 +11691,7 @@
       <c r="I933" s="2"/>
       <c r="J933" s="48"/>
     </row>
-    <row r="934" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:10" ht="12">
       <c r="A934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -11607,7 +11701,7 @@
       <c r="I934" s="2"/>
       <c r="J934" s="48"/>
     </row>
-    <row r="935" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:10" ht="12">
       <c r="A935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -11617,7 +11711,7 @@
       <c r="I935" s="2"/>
       <c r="J935" s="48"/>
     </row>
-    <row r="936" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:10" ht="12">
       <c r="A936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -11627,7 +11721,7 @@
       <c r="I936" s="2"/>
       <c r="J936" s="48"/>
     </row>
-    <row r="937" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:10" ht="12">
       <c r="A937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -11637,7 +11731,7 @@
       <c r="I937" s="2"/>
       <c r="J937" s="48"/>
     </row>
-    <row r="938" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:10" ht="12">
       <c r="A938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -11647,7 +11741,7 @@
       <c r="I938" s="2"/>
       <c r="J938" s="48"/>
     </row>
-    <row r="939" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:10" ht="12">
       <c r="A939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -11657,7 +11751,7 @@
       <c r="I939" s="2"/>
       <c r="J939" s="48"/>
     </row>
-    <row r="940" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:10" ht="12">
       <c r="A940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -11667,7 +11761,7 @@
       <c r="I940" s="2"/>
       <c r="J940" s="48"/>
     </row>
-    <row r="941" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:10" ht="12">
       <c r="A941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -11677,7 +11771,7 @@
       <c r="I941" s="2"/>
       <c r="J941" s="48"/>
     </row>
-    <row r="942" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:10" ht="12">
       <c r="A942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -11687,7 +11781,7 @@
       <c r="I942" s="2"/>
       <c r="J942" s="48"/>
     </row>
-    <row r="943" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:10" ht="12">
       <c r="A943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -11697,7 +11791,7 @@
       <c r="I943" s="2"/>
       <c r="J943" s="48"/>
     </row>
-    <row r="944" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:10" ht="12">
       <c r="A944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -11707,7 +11801,7 @@
       <c r="I944" s="2"/>
       <c r="J944" s="48"/>
     </row>
-    <row r="945" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:10" ht="12">
       <c r="A945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -11717,7 +11811,7 @@
       <c r="I945" s="2"/>
       <c r="J945" s="48"/>
     </row>
-    <row r="946" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:10" ht="12">
       <c r="A946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -11727,7 +11821,7 @@
       <c r="I946" s="2"/>
       <c r="J946" s="48"/>
     </row>
-    <row r="947" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:10" ht="12">
       <c r="A947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -11737,7 +11831,7 @@
       <c r="I947" s="2"/>
       <c r="J947" s="48"/>
     </row>
-    <row r="948" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:10" ht="12">
       <c r="A948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -11747,7 +11841,7 @@
       <c r="I948" s="2"/>
       <c r="J948" s="48"/>
     </row>
-    <row r="949" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:10" ht="12">
       <c r="A949" s="2"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
@@ -11757,7 +11851,7 @@
       <c r="I949" s="2"/>
       <c r="J949" s="48"/>
     </row>
-    <row r="950" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:10" ht="12">
       <c r="A950" s="2"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
@@ -11767,7 +11861,7 @@
       <c r="I950" s="2"/>
       <c r="J950" s="48"/>
     </row>
-    <row r="951" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:10" ht="12">
       <c r="A951" s="2"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
@@ -11777,7 +11871,7 @@
       <c r="I951" s="2"/>
       <c r="J951" s="48"/>
     </row>
-    <row r="952" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:10" ht="12">
       <c r="A952" s="2"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
@@ -11787,7 +11881,7 @@
       <c r="I952" s="2"/>
       <c r="J952" s="48"/>
     </row>
-    <row r="953" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:10" ht="12">
       <c r="A953" s="2"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
@@ -11797,7 +11891,7 @@
       <c r="I953" s="2"/>
       <c r="J953" s="48"/>
     </row>
-    <row r="954" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:10" ht="12">
       <c r="A954" s="2"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
@@ -11807,7 +11901,7 @@
       <c r="I954" s="2"/>
       <c r="J954" s="48"/>
     </row>
-    <row r="955" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:10" ht="12">
       <c r="A955" s="2"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
@@ -11817,7 +11911,7 @@
       <c r="I955" s="2"/>
       <c r="J955" s="48"/>
     </row>
-    <row r="956" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:10" ht="12">
       <c r="A956" s="2"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
@@ -11829,6 +11923,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="J2:J3"/>
@@ -11845,11 +11940,15 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11859,10 +11958,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11874,13 +11978,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="49" t="s">
         <v>79</v>
@@ -11910,7 +12014,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -11921,7 +12025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -11929,7 +12033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -11937,7 +12041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -11948,7 +12052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -11957,7 +12061,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -11969,7 +12073,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
@@ -11983,6 +12087,11 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11992,13 +12101,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -12030,7 +12139,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -12038,7 +12147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>101</v>
       </c>
@@ -12049,7 +12158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
@@ -12060,7 +12169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
@@ -12071,7 +12180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
@@ -12079,7 +12188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -12093,6 +12202,11 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12102,14 +12216,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -12141,7 +12255,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -12149,7 +12263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
@@ -12158,7 +12272,7 @@
       </c>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -12167,7 +12281,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>117</v>
       </c>
@@ -12179,20 +12293,20 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="59"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="61"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -12201,6 +12315,11 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12210,14 +12329,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>98</v>
       </c>
@@ -12249,7 +12368,7 @@
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>85</v>
       </c>
@@ -12258,7 +12377,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
@@ -12268,7 +12387,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
@@ -12279,7 +12398,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
@@ -12290,7 +12409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>128</v>
       </c>
@@ -12301,7 +12420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
@@ -12312,17 +12431,22 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>